--- a/BackTest/2019-10-22 BackTest WTC.xlsx
+++ b/BackTest/2019-10-22 BackTest WTC.xlsx
@@ -987,7 +987,9 @@
       <c r="J12" t="n">
         <v>19</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>50</v>
+      </c>
       <c r="L12" t="n">
         <v>844</v>
       </c>
@@ -1044,7 +1046,9 @@
       <c r="J13" t="n">
         <v>25</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>55.55555555555556</v>
+      </c>
       <c r="L13" t="n">
         <v>845.4</v>
       </c>
@@ -1101,7 +1105,9 @@
       <c r="J14" t="n">
         <v>32</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>66.66666666666666</v>
+      </c>
       <c r="L14" t="n">
         <v>847.1</v>
       </c>
@@ -1158,7 +1164,9 @@
       <c r="J15" t="n">
         <v>33</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>68</v>
+      </c>
       <c r="L15" t="n">
         <v>848.8</v>
       </c>
@@ -1215,7 +1223,9 @@
       <c r="J16" t="n">
         <v>35</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>55.55555555555556</v>
+      </c>
       <c r="L16" t="n">
         <v>850.3</v>
       </c>
@@ -1272,7 +1282,9 @@
       <c r="J17" t="n">
         <v>42</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>63.63636363636363</v>
+      </c>
       <c r="L17" t="n">
         <v>852.5</v>
       </c>
@@ -1327,7 +1339,9 @@
       <c r="J18" t="n">
         <v>45</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>48.57142857142857</v>
+      </c>
       <c r="L18" t="n">
         <v>854.3</v>
       </c>
@@ -1382,7 +1396,9 @@
       <c r="J19" t="n">
         <v>63</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>62.5</v>
+      </c>
       <c r="L19" t="n">
         <v>857.8</v>
       </c>
@@ -1437,7 +1453,9 @@
       <c r="J20" t="n">
         <v>79</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>30</v>
+      </c>
       <c r="L20" t="n">
         <v>859.2</v>
       </c>
@@ -1482,7 +1500,9 @@
       <c r="J21" t="n">
         <v>85</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>18.18181818181818</v>
+      </c>
       <c r="L21" t="n">
         <v>860.4</v>
       </c>
@@ -1529,7 +1549,9 @@
       <c r="J22" t="n">
         <v>92</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>19.40298507462687</v>
+      </c>
       <c r="L22" t="n">
         <v>862.3</v>
       </c>
@@ -1577,7 +1599,7 @@
         <v>95</v>
       </c>
       <c r="K23" t="n">
-        <v>32.60869565217391</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L23" t="n">
         <v>863.9</v>
@@ -1626,7 +1648,7 @@
         <v>107</v>
       </c>
       <c r="K24" t="n">
-        <v>38</v>
+        <v>27.02702702702703</v>
       </c>
       <c r="L24" t="n">
         <v>866</v>
@@ -1675,7 +1697,7 @@
         <v>132</v>
       </c>
       <c r="K25" t="n">
-        <v>9.67741935483871</v>
+        <v>-3.092783505154639</v>
       </c>
       <c r="L25" t="n">
         <v>865.5</v>
@@ -1724,7 +1746,7 @@
         <v>135</v>
       </c>
       <c r="K26" t="n">
-        <v>11.81102362204724</v>
+        <v>-7.526881720430108</v>
       </c>
       <c r="L26" t="n">
         <v>865.5</v>
@@ -1773,7 +1795,7 @@
         <v>136</v>
       </c>
       <c r="K27" t="n">
-        <v>12.5</v>
+        <v>-3.296703296703297</v>
       </c>
       <c r="L27" t="n">
         <v>864.9</v>
@@ -1822,7 +1844,7 @@
         <v>140</v>
       </c>
       <c r="K28" t="n">
-        <v>14.50381679389313</v>
+        <v>-22.07792207792208</v>
       </c>
       <c r="L28" t="n">
         <v>865</v>
@@ -1871,7 +1893,7 @@
         <v>140</v>
       </c>
       <c r="K29" t="n">
-        <v>13.84615384615385</v>
+        <v>-1.639344262295082</v>
       </c>
       <c r="L29" t="n">
         <v>863.3</v>
@@ -1920,7 +1942,7 @@
         <v>145</v>
       </c>
       <c r="K30" t="n">
-        <v>6.153846153846154</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>862.7</v>
@@ -1969,7 +1991,7 @@
         <v>145</v>
       </c>
       <c r="K31" t="n">
-        <v>9.523809523809524</v>
+        <v>-13.20754716981132</v>
       </c>
       <c r="L31" t="n">
         <v>862.7</v>
@@ -2020,7 +2042,7 @@
         <v>146</v>
       </c>
       <c r="K32" t="n">
-        <v>8.661417322834646</v>
+        <v>-21.56862745098039</v>
       </c>
       <c r="L32" t="n">
         <v>861.9</v>
@@ -2071,7 +2093,7 @@
         <v>150</v>
       </c>
       <c r="K33" t="n">
-        <v>7.199999999999999</v>
+        <v>-44.18604651162791</v>
       </c>
       <c r="L33" t="n">
         <v>861.2</v>
@@ -2122,7 +2144,7 @@
         <v>151</v>
       </c>
       <c r="K34" t="n">
-        <v>2.521008403361344</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L34" t="n">
         <v>859.4</v>
@@ -2173,7 +2195,7 @@
         <v>161</v>
       </c>
       <c r="K35" t="n">
-        <v>-6.25</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L35" t="n">
         <v>859.1</v>
@@ -2224,7 +2246,7 @@
         <v>173</v>
       </c>
       <c r="K36" t="n">
-        <v>4.347826086956522</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L36" t="n">
         <v>859.7</v>
@@ -2275,7 +2297,7 @@
         <v>177</v>
       </c>
       <c r="K37" t="n">
-        <v>-3.703703703703703</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L37" t="n">
         <v>859.8</v>
@@ -2326,7 +2348,7 @@
         <v>182</v>
       </c>
       <c r="K38" t="n">
-        <v>-5.109489051094891</v>
+        <v>-19.04761904761905</v>
       </c>
       <c r="L38" t="n">
         <v>859</v>
@@ -2377,7 +2399,7 @@
         <v>183</v>
       </c>
       <c r="K39" t="n">
-        <v>-21.66666666666667</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L39" t="n">
         <v>858.1</v>
@@ -2428,7 +2450,7 @@
         <v>187</v>
       </c>
       <c r="K40" t="n">
-        <v>-5.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>858.1</v>
@@ -2479,7 +2501,7 @@
         <v>193</v>
       </c>
       <c r="K41" t="n">
-        <v>-5.555555555555555</v>
+        <v>-10.63829787234043</v>
       </c>
       <c r="L41" t="n">
         <v>857.5</v>
@@ -2530,7 +2552,7 @@
         <v>195</v>
       </c>
       <c r="K42" t="n">
-        <v>-14.5631067961165</v>
+        <v>-24.44444444444444</v>
       </c>
       <c r="L42" t="n">
         <v>856.8</v>
@@ -2581,7 +2603,7 @@
         <v>197</v>
       </c>
       <c r="K43" t="n">
-        <v>-15.68627450980392</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L43" t="n">
         <v>855.9</v>
@@ -2632,7 +2654,7 @@
         <v>199</v>
       </c>
       <c r="K44" t="n">
-        <v>-28.26086956521739</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L44" t="n">
         <v>855.1</v>
@@ -2683,7 +2705,7 @@
         <v>200</v>
       </c>
       <c r="K45" t="n">
-        <v>-2.941176470588235</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L45" t="n">
         <v>855.2</v>
@@ -2734,7 +2756,7 @@
         <v>200</v>
       </c>
       <c r="K46" t="n">
-        <v>-7.692307692307693</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L46" t="n">
         <v>854.1</v>
@@ -2785,7 +2807,7 @@
         <v>201</v>
       </c>
       <c r="K47" t="n">
-        <v>-7.692307692307693</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L47" t="n">
         <v>853.5</v>
@@ -2836,7 +2858,7 @@
         <v>209</v>
       </c>
       <c r="K48" t="n">
-        <v>-24.63768115942029</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L48" t="n">
         <v>852.6</v>
@@ -2887,7 +2909,7 @@
         <v>214</v>
       </c>
       <c r="K49" t="n">
-        <v>-29.72972972972973</v>
+        <v>-62.96296296296296</v>
       </c>
       <c r="L49" t="n">
         <v>851.3</v>
@@ -2938,7 +2960,7 @@
         <v>216</v>
       </c>
       <c r="K50" t="n">
-        <v>-21.12676056338028</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L50" t="n">
         <v>849.8</v>
@@ -2989,7 +3011,7 @@
         <v>226</v>
       </c>
       <c r="K51" t="n">
-        <v>-30.8641975308642</v>
+        <v>-54.83870967741935</v>
       </c>
       <c r="L51" t="n">
         <v>847.9</v>
@@ -3040,7 +3062,7 @@
         <v>227</v>
       </c>
       <c r="K52" t="n">
-        <v>-30.8641975308642</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L52" t="n">
         <v>846.1</v>
@@ -3091,7 +3113,7 @@
         <v>238</v>
       </c>
       <c r="K53" t="n">
-        <v>-20.45454545454546</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L53" t="n">
         <v>845.2</v>
@@ -3142,7 +3164,7 @@
         <v>243</v>
       </c>
       <c r="K54" t="n">
-        <v>-15.21739130434783</v>
+        <v>-11.62790697674419</v>
       </c>
       <c r="L54" t="n">
         <v>844.6</v>
@@ -3193,7 +3215,7 @@
         <v>249</v>
       </c>
       <c r="K55" t="n">
-        <v>-11.36363636363636</v>
+        <v>-22.44897959183674</v>
       </c>
       <c r="L55" t="n">
         <v>843.5</v>
@@ -3244,7 +3266,7 @@
         <v>252</v>
       </c>
       <c r="K56" t="n">
-        <v>-31.64556962025317</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L56" t="n">
         <v>842.1</v>
@@ -3295,7 +3317,7 @@
         <v>259</v>
       </c>
       <c r="K57" t="n">
-        <v>-17.07317073170732</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>841.3</v>
@@ -3346,7 +3368,7 @@
         <v>263</v>
       </c>
       <c r="K58" t="n">
-        <v>-16.04938271604938</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="L58" t="n">
         <v>840.9</v>
@@ -3397,7 +3419,7 @@
         <v>263</v>
       </c>
       <c r="K59" t="n">
-        <v>-15</v>
+        <v>-2.127659574468085</v>
       </c>
       <c r="L59" t="n">
         <v>841</v>
@@ -3448,7 +3470,7 @@
         <v>268</v>
       </c>
       <c r="K60" t="n">
-        <v>-25.92592592592592</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L60" t="n">
         <v>840.4</v>
@@ -3499,7 +3521,7 @@
         <v>272</v>
       </c>
       <c r="K61" t="n">
-        <v>-13.92405063291139</v>
+        <v>20</v>
       </c>
       <c r="L61" t="n">
         <v>841.2</v>
@@ -3550,7 +3572,7 @@
         <v>274</v>
       </c>
       <c r="K62" t="n">
-        <v>-13.92405063291139</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L62" t="n">
         <v>841.9</v>
@@ -3601,7 +3623,7 @@
         <v>283</v>
       </c>
       <c r="K63" t="n">
-        <v>-4.651162790697675</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>842.4</v>
@@ -3652,7 +3674,7 @@
         <v>292</v>
       </c>
       <c r="K64" t="n">
-        <v>-16.12903225806452</v>
+        <v>-6.976744186046512</v>
       </c>
       <c r="L64" t="n">
         <v>841.5</v>
@@ -3703,7 +3725,7 @@
         <v>298</v>
       </c>
       <c r="K65" t="n">
-        <v>-8.163265306122449</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L65" t="n">
         <v>841.8</v>
@@ -3754,7 +3776,7 @@
         <v>303</v>
       </c>
       <c r="K66" t="n">
-        <v>-2.912621359223301</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L66" t="n">
         <v>842.9</v>
@@ -3805,7 +3827,7 @@
         <v>303</v>
       </c>
       <c r="K67" t="n">
-        <v>-3.92156862745098</v>
+        <v>20</v>
       </c>
       <c r="L67" t="n">
         <v>843.3</v>
@@ -3856,7 +3878,7 @@
         <v>306</v>
       </c>
       <c r="K68" t="n">
-        <v>7.216494845360824</v>
+        <v>25.58139534883721</v>
       </c>
       <c r="L68" t="n">
         <v>844.4</v>
@@ -3907,7 +3929,7 @@
         <v>308</v>
       </c>
       <c r="K69" t="n">
-        <v>14.8936170212766</v>
+        <v>45</v>
       </c>
       <c r="L69" t="n">
         <v>845.7</v>
@@ -3958,7 +3980,7 @@
         <v>336</v>
       </c>
       <c r="K70" t="n">
-        <v>-13.33333333333333</v>
+        <v>-21.875</v>
       </c>
       <c r="L70" t="n">
         <v>844.7</v>
@@ -4009,7 +4031,7 @@
         <v>350</v>
       </c>
       <c r="K71" t="n">
-        <v>6.451612903225806</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="L71" t="n">
         <v>844.7</v>
@@ -4060,7 +4082,7 @@
         <v>353</v>
       </c>
       <c r="K72" t="n">
-        <v>4.761904761904762</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L72" t="n">
         <v>844.6</v>
@@ -4111,7 +4133,7 @@
         <v>353</v>
       </c>
       <c r="K73" t="n">
-        <v>-4.347826086956522</v>
+        <v>-1.639344262295082</v>
       </c>
       <c r="L73" t="n">
         <v>843.6</v>
@@ -4162,7 +4184,7 @@
         <v>358</v>
       </c>
       <c r="K74" t="n">
-        <v>-4.347826086956522</v>
+        <v>-3.333333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>844</v>
@@ -4213,7 +4235,7 @@
         <v>360</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.9009009009009009</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L75" t="n">
         <v>843.6</v>
@@ -4264,7 +4286,7 @@
         <v>360</v>
       </c>
       <c r="K76" t="n">
-        <v>1.851851851851852</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L76" t="n">
         <v>842.7</v>
@@ -4315,7 +4337,7 @@
         <v>364</v>
       </c>
       <c r="K77" t="n">
-        <v>-8.571428571428571</v>
+        <v>-27.58620689655172</v>
       </c>
       <c r="L77" t="n">
         <v>841.4</v>
@@ -4366,7 +4388,7 @@
         <v>367</v>
       </c>
       <c r="K78" t="n">
-        <v>-7.692307692307693</v>
+        <v>-35.59322033898305</v>
       </c>
       <c r="L78" t="n">
         <v>839.5</v>
@@ -4417,7 +4439,7 @@
         <v>375</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L79" t="n">
         <v>838.2</v>
@@ -4468,7 +4490,7 @@
         <v>377</v>
       </c>
       <c r="K80" t="n">
-        <v>2.752293577981652</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L80" t="n">
         <v>839.5</v>
@@ -4519,7 +4541,7 @@
         <v>378</v>
       </c>
       <c r="K81" t="n">
-        <v>-1.886792452830189</v>
+        <v>4</v>
       </c>
       <c r="L81" t="n">
         <v>839.3</v>
@@ -4570,7 +4592,7 @@
         <v>381</v>
       </c>
       <c r="K82" t="n">
-        <v>2.803738317757009</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L82" t="n">
         <v>839.7</v>
@@ -4621,7 +4643,7 @@
         <v>385</v>
       </c>
       <c r="K83" t="n">
-        <v>-1.96078431372549</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L83" t="n">
         <v>840.5</v>
@@ -4672,7 +4694,7 @@
         <v>391</v>
       </c>
       <c r="K84" t="n">
-        <v>1.01010101010101</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L84" t="n">
         <v>840.2</v>
@@ -4723,7 +4745,7 @@
         <v>398</v>
       </c>
       <c r="K85" t="n">
-        <v>-12</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L85" t="n">
         <v>839.4</v>
@@ -4774,7 +4796,7 @@
         <v>404</v>
       </c>
       <c r="K86" t="n">
-        <v>-10.89108910891089</v>
+        <v>5</v>
       </c>
       <c r="L86" t="n">
         <v>839.2</v>
@@ -4825,7 +4847,7 @@
         <v>404</v>
       </c>
       <c r="K87" t="n">
-        <v>-10.89108910891089</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L87" t="n">
         <v>839.4</v>
@@ -4876,7 +4898,7 @@
         <v>406</v>
       </c>
       <c r="K88" t="n">
-        <v>-12</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L88" t="n">
         <v>840.1</v>
@@ -4927,7 +4949,7 @@
         <v>414</v>
       </c>
       <c r="K89" t="n">
-        <v>-5.660377358490567</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L89" t="n">
         <v>840.8</v>
@@ -4978,7 +5000,7 @@
         <v>424</v>
       </c>
       <c r="K90" t="n">
-        <v>36.36363636363637</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="L90" t="n">
         <v>842.7</v>
@@ -5029,7 +5051,7 @@
         <v>430</v>
       </c>
       <c r="K91" t="n">
-        <v>30</v>
+        <v>46.93877551020408</v>
       </c>
       <c r="L91" t="n">
         <v>845.3</v>
@@ -5080,7 +5102,7 @@
         <v>430</v>
       </c>
       <c r="K92" t="n">
-        <v>35.06493506493506</v>
+        <v>42.22222222222222</v>
       </c>
       <c r="L92" t="n">
         <v>847.6</v>
@@ -5131,7 +5153,7 @@
         <v>431</v>
       </c>
       <c r="K93" t="n">
-        <v>35.8974358974359</v>
+        <v>65</v>
       </c>
       <c r="L93" t="n">
         <v>849.6</v>
@@ -5182,7 +5204,7 @@
         <v>431</v>
       </c>
       <c r="K94" t="n">
-        <v>31.50684931506849</v>
+        <v>100</v>
       </c>
       <c r="L94" t="n">
         <v>852.2</v>
@@ -5233,7 +5255,7 @@
         <v>431</v>
       </c>
       <c r="K95" t="n">
-        <v>35.2112676056338</v>
+        <v>100</v>
       </c>
       <c r="L95" t="n">
         <v>855.5</v>
@@ -5284,7 +5306,7 @@
         <v>431</v>
       </c>
       <c r="K96" t="n">
-        <v>35.2112676056338</v>
+        <v>100</v>
       </c>
       <c r="L96" t="n">
         <v>858.2</v>
@@ -5335,7 +5357,7 @@
         <v>432</v>
       </c>
       <c r="K97" t="n">
-        <v>44.11764705882353</v>
+        <v>100</v>
       </c>
       <c r="L97" t="n">
         <v>861</v>
@@ -5386,7 +5408,7 @@
         <v>444</v>
       </c>
       <c r="K98" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L98" t="n">
         <v>862.4</v>
@@ -5437,7 +5459,7 @@
         <v>447</v>
       </c>
       <c r="K99" t="n">
-        <v>22.22222222222222</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L99" t="n">
         <v>863.3</v>
@@ -5488,7 +5510,7 @@
         <v>449</v>
       </c>
       <c r="K100" t="n">
-        <v>27.77777777777778</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L100" t="n">
         <v>863.4</v>
@@ -5539,7 +5561,7 @@
         <v>452</v>
       </c>
       <c r="K101" t="n">
-        <v>24.32432432432433</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L101" t="n">
         <v>862.6</v>
@@ -5590,7 +5612,7 @@
         <v>452</v>
       </c>
       <c r="K102" t="n">
-        <v>21.12676056338028</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L102" t="n">
         <v>861.8</v>
@@ -5641,7 +5663,7 @@
         <v>452</v>
       </c>
       <c r="K103" t="n">
-        <v>16.41791044776119</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L103" t="n">
         <v>860.9</v>
@@ -5692,7 +5714,7 @@
         <v>453</v>
       </c>
       <c r="K104" t="n">
-        <v>29.03225806451613</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L104" t="n">
         <v>860.1</v>
@@ -5743,7 +5765,7 @@
         <v>453</v>
       </c>
       <c r="K105" t="n">
-        <v>45.45454545454545</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L105" t="n">
         <v>859.3</v>
@@ -5794,7 +5816,7 @@
         <v>456</v>
       </c>
       <c r="K106" t="n">
-        <v>30.76923076923077</v>
+        <v>-50</v>
       </c>
       <c r="L106" t="n">
         <v>858.2</v>
@@ -5845,7 +5867,7 @@
         <v>457</v>
       </c>
       <c r="K107" t="n">
-        <v>28.30188679245283</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L107" t="n">
         <v>856.9</v>
@@ -5896,7 +5918,7 @@
         <v>457</v>
       </c>
       <c r="K108" t="n">
-        <v>25.49019607843137</v>
+        <v>-40</v>
       </c>
       <c r="L108" t="n">
         <v>856.8</v>
@@ -5947,7 +5969,7 @@
         <v>457</v>
       </c>
       <c r="K109" t="n">
-        <v>11.62790697674419</v>
+        <v>-75</v>
       </c>
       <c r="L109" t="n">
         <v>856.4</v>
@@ -5998,7 +6020,7 @@
         <v>457</v>
       </c>
       <c r="K110" t="n">
-        <v>-15.15151515151515</v>
+        <v>-60</v>
       </c>
       <c r="L110" t="n">
         <v>855.8</v>
@@ -6049,7 +6071,7 @@
         <v>457</v>
       </c>
       <c r="K111" t="n">
-        <v>-40.74074074074074</v>
+        <v>-60</v>
       </c>
       <c r="L111" t="n">
         <v>855.5</v>
@@ -6100,7 +6122,7 @@
         <v>457</v>
       </c>
       <c r="K112" t="n">
-        <v>-40.74074074074074</v>
+        <v>-60</v>
       </c>
       <c r="L112" t="n">
         <v>855.2</v>
@@ -6151,7 +6173,7 @@
         <v>463</v>
       </c>
       <c r="K113" t="n">
-        <v>-56.25</v>
+        <v>-100</v>
       </c>
       <c r="L113" t="n">
         <v>854.3</v>
@@ -6202,7 +6224,7 @@
         <v>463</v>
       </c>
       <c r="K114" t="n">
-        <v>-56.25</v>
+        <v>-100</v>
       </c>
       <c r="L114" t="n">
         <v>853.3</v>
@@ -6253,7 +6275,7 @@
         <v>471</v>
       </c>
       <c r="K115" t="n">
-        <v>-65</v>
+        <v>-100</v>
       </c>
       <c r="L115" t="n">
         <v>851.5</v>
@@ -6304,7 +6326,7 @@
         <v>478</v>
       </c>
       <c r="K116" t="n">
-        <v>-40.42553191489361</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L116" t="n">
         <v>850.7</v>
@@ -6355,7 +6377,7 @@
         <v>482</v>
       </c>
       <c r="K117" t="n">
-        <v>-48</v>
+        <v>-44</v>
       </c>
       <c r="L117" t="n">
         <v>849.6</v>
@@ -6406,7 +6428,7 @@
         <v>488</v>
       </c>
       <c r="K118" t="n">
-        <v>-13.63636363636363</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L118" t="n">
         <v>849.1</v>

--- a/BackTest/2019-10-22 BackTest WTC.xlsx
+++ b/BackTest/2019-10-22 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="C2" t="n">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="D2" t="n">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="E2" t="n">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="F2" t="n">
-        <v>566.5321</v>
+        <v>1016</v>
       </c>
       <c r="G2" t="n">
-        <v>821.3333333333334</v>
+        <v>-7783.364</v>
       </c>
       <c r="H2" t="n">
-        <v>814.7833333333333</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="C3" t="n">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="D3" t="n">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="E3" t="n">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="F3" t="n">
-        <v>406.8359</v>
+        <v>278.3812</v>
       </c>
       <c r="G3" t="n">
-        <v>822.5333333333333</v>
+        <v>-7504.982800000001</v>
       </c>
       <c r="H3" t="n">
-        <v>815.3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="K3" t="n">
-        <v>836</v>
-      </c>
-      <c r="L3" t="n">
-        <v>836</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>813</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,42 +507,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="C4" t="n">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="D4" t="n">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="E4" t="n">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="F4" t="n">
-        <v>407.0058</v>
+        <v>45.3999</v>
       </c>
       <c r="G4" t="n">
-        <v>823.4</v>
+        <v>-7504.982800000001</v>
       </c>
       <c r="H4" t="n">
-        <v>815.7833333333333</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>836</v>
-      </c>
-      <c r="M4" t="inlineStr">
+        <v>815</v>
+      </c>
+      <c r="K4" t="n">
+        <v>813</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -562,42 +550,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>842</v>
+        <v>815</v>
       </c>
       <c r="C5" t="n">
-        <v>842</v>
+        <v>815</v>
       </c>
       <c r="D5" t="n">
-        <v>842</v>
+        <v>815</v>
       </c>
       <c r="E5" t="n">
-        <v>842</v>
+        <v>815</v>
       </c>
       <c r="F5" t="n">
-        <v>246.7945</v>
+        <v>480.52</v>
       </c>
       <c r="G5" t="n">
-        <v>824.6666666666666</v>
+        <v>-7504.982800000001</v>
       </c>
       <c r="H5" t="n">
-        <v>816.3333333333334</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>836</v>
-      </c>
-      <c r="M5" t="inlineStr">
+        <v>815</v>
+      </c>
+      <c r="K5" t="n">
+        <v>813</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,36 +593,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="C6" t="n">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="D6" t="n">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="E6" t="n">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="F6" t="n">
-        <v>2066.0799</v>
+        <v>37.8099</v>
       </c>
       <c r="G6" t="n">
-        <v>826.3333333333334</v>
+        <v>-7467.1729</v>
       </c>
       <c r="H6" t="n">
-        <v>816.8833333333333</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>815</v>
+      </c>
+      <c r="K6" t="n">
+        <v>815</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -644,36 +632,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>843</v>
+        <v>813</v>
       </c>
       <c r="C7" t="n">
-        <v>843</v>
+        <v>813</v>
       </c>
       <c r="D7" t="n">
-        <v>843</v>
+        <v>813</v>
       </c>
       <c r="E7" t="n">
-        <v>843</v>
+        <v>813</v>
       </c>
       <c r="F7" t="n">
-        <v>90.52</v>
+        <v>2100.2402</v>
       </c>
       <c r="G7" t="n">
-        <v>827.9333333333333</v>
+        <v>-9567.413100000002</v>
       </c>
       <c r="H7" t="n">
-        <v>817.4333333333333</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+        <v>816</v>
+      </c>
+      <c r="K7" t="n">
+        <v>815</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -682,36 +675,41 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="C8" t="n">
-        <v>843</v>
+        <v>818</v>
       </c>
       <c r="D8" t="n">
-        <v>843</v>
+        <v>818</v>
       </c>
       <c r="E8" t="n">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="F8" t="n">
-        <v>147.5584</v>
+        <v>1224.0719</v>
       </c>
       <c r="G8" t="n">
-        <v>829.5333333333333</v>
+        <v>-8343.341200000003</v>
       </c>
       <c r="H8" t="n">
-        <v>818</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+        <v>813</v>
+      </c>
+      <c r="K8" t="n">
+        <v>815</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -720,36 +718,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>844</v>
+        <v>815</v>
       </c>
       <c r="C9" t="n">
-        <v>844</v>
+        <v>815</v>
       </c>
       <c r="D9" t="n">
-        <v>844</v>
+        <v>815</v>
       </c>
       <c r="E9" t="n">
-        <v>844</v>
+        <v>815</v>
       </c>
       <c r="F9" t="n">
-        <v>235.4</v>
+        <v>1097.1281</v>
       </c>
       <c r="G9" t="n">
-        <v>831.2</v>
+        <v>-9440.469300000002</v>
       </c>
       <c r="H9" t="n">
-        <v>818.6</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>818</v>
+      </c>
+      <c r="K9" t="n">
+        <v>818</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -758,36 +757,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>844</v>
+        <v>815</v>
       </c>
       <c r="C10" t="n">
-        <v>845</v>
+        <v>815</v>
       </c>
       <c r="D10" t="n">
-        <v>845</v>
+        <v>815</v>
       </c>
       <c r="E10" t="n">
-        <v>839</v>
+        <v>815</v>
       </c>
       <c r="F10" t="n">
-        <v>2676.1889</v>
+        <v>642.6022</v>
       </c>
       <c r="G10" t="n">
-        <v>833.0666666666667</v>
+        <v>-9440.469300000002</v>
       </c>
       <c r="H10" t="n">
-        <v>819.15</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+        <v>815</v>
+      </c>
+      <c r="K10" t="n">
+        <v>818</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -796,36 +800,41 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>845</v>
+        <v>819</v>
       </c>
       <c r="C11" t="n">
-        <v>850</v>
+        <v>819</v>
       </c>
       <c r="D11" t="n">
-        <v>850</v>
+        <v>819</v>
       </c>
       <c r="E11" t="n">
-        <v>845</v>
+        <v>819</v>
       </c>
       <c r="F11" t="n">
-        <v>2008.5698</v>
+        <v>50.4029</v>
       </c>
       <c r="G11" t="n">
-        <v>835</v>
+        <v>-9390.066400000003</v>
       </c>
       <c r="H11" t="n">
-        <v>819.8</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+        <v>815</v>
+      </c>
+      <c r="K11" t="n">
+        <v>818</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -834,36 +843,41 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>846</v>
+        <v>817</v>
       </c>
       <c r="C12" t="n">
-        <v>846</v>
+        <v>816</v>
       </c>
       <c r="D12" t="n">
-        <v>846</v>
+        <v>817</v>
       </c>
       <c r="E12" t="n">
-        <v>846</v>
+        <v>816</v>
       </c>
       <c r="F12" t="n">
-        <v>432.8575</v>
+        <v>2155</v>
       </c>
       <c r="G12" t="n">
-        <v>836.8666666666667</v>
+        <v>-11545.0664</v>
       </c>
       <c r="H12" t="n">
-        <v>820.35</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+        <v>819</v>
+      </c>
+      <c r="K12" t="n">
+        <v>818</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -872,36 +886,41 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="C13" t="n">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="D13" t="n">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="E13" t="n">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="F13" t="n">
-        <v>61.388</v>
+        <v>1558.7223</v>
       </c>
       <c r="G13" t="n">
-        <v>839.3333333333334</v>
+        <v>-13103.7887</v>
       </c>
       <c r="H13" t="n">
-        <v>820.9333333333333</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+        <v>816</v>
+      </c>
+      <c r="K13" t="n">
+        <v>818</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -910,36 +929,41 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="C14" t="n">
-        <v>852</v>
+        <v>815</v>
       </c>
       <c r="D14" t="n">
-        <v>852</v>
+        <v>815</v>
       </c>
       <c r="E14" t="n">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="F14" t="n">
-        <v>731.5819</v>
+        <v>941.2777</v>
       </c>
       <c r="G14" t="n">
-        <v>841.4</v>
+        <v>-13103.7887</v>
       </c>
       <c r="H14" t="n">
-        <v>821.6166666666667</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+        <v>815</v>
+      </c>
+      <c r="K14" t="n">
+        <v>818</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -948,36 +972,41 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>852</v>
+        <v>815</v>
       </c>
       <c r="C15" t="n">
-        <v>859</v>
+        <v>812</v>
       </c>
       <c r="D15" t="n">
-        <v>859</v>
+        <v>815</v>
       </c>
       <c r="E15" t="n">
-        <v>852</v>
+        <v>812</v>
       </c>
       <c r="F15" t="n">
-        <v>3800.3068</v>
+        <v>1165</v>
       </c>
       <c r="G15" t="n">
-        <v>843.6</v>
+        <v>-14268.7887</v>
       </c>
       <c r="H15" t="n">
-        <v>822.3666666666667</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+        <v>815</v>
+      </c>
+      <c r="K15" t="n">
+        <v>818</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -986,36 +1015,41 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>859</v>
+        <v>820</v>
       </c>
       <c r="C16" t="n">
-        <v>860</v>
+        <v>821</v>
       </c>
       <c r="D16" t="n">
-        <v>860</v>
+        <v>821</v>
       </c>
       <c r="E16" t="n">
-        <v>859</v>
+        <v>819</v>
       </c>
       <c r="F16" t="n">
-        <v>1255.6946</v>
+        <v>1365.2009</v>
       </c>
       <c r="G16" t="n">
-        <v>845.8666666666667</v>
+        <v>-12903.5878</v>
       </c>
       <c r="H16" t="n">
-        <v>823.2333333333333</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+        <v>812</v>
+      </c>
+      <c r="K16" t="n">
+        <v>818</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1024,36 +1058,41 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>858</v>
+        <v>823</v>
       </c>
       <c r="C17" t="n">
-        <v>858</v>
+        <v>823</v>
       </c>
       <c r="D17" t="n">
-        <v>858</v>
+        <v>823</v>
       </c>
       <c r="E17" t="n">
-        <v>858</v>
+        <v>823</v>
       </c>
       <c r="F17" t="n">
-        <v>305.4883</v>
+        <v>1645.2005</v>
       </c>
       <c r="G17" t="n">
-        <v>847.3333333333334</v>
+        <v>-11258.3873</v>
       </c>
       <c r="H17" t="n">
-        <v>824.0333333333333</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+        <v>821</v>
+      </c>
+      <c r="K17" t="n">
+        <v>818</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1062,36 +1101,41 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>861</v>
+        <v>824</v>
       </c>
       <c r="C18" t="n">
-        <v>865</v>
+        <v>825</v>
       </c>
       <c r="D18" t="n">
-        <v>865</v>
+        <v>825</v>
       </c>
       <c r="E18" t="n">
-        <v>861</v>
+        <v>824</v>
       </c>
       <c r="F18" t="n">
-        <v>1156.0693</v>
+        <v>540</v>
       </c>
       <c r="G18" t="n">
-        <v>848.9333333333333</v>
+        <v>-10718.3873</v>
       </c>
       <c r="H18" t="n">
-        <v>824.9666666666667</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+        <v>823</v>
+      </c>
+      <c r="K18" t="n">
+        <v>818</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,36 +1144,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>865</v>
+        <v>823</v>
       </c>
       <c r="C19" t="n">
-        <v>862</v>
+        <v>823</v>
       </c>
       <c r="D19" t="n">
-        <v>865</v>
+        <v>823</v>
       </c>
       <c r="E19" t="n">
-        <v>862</v>
+        <v>823</v>
       </c>
       <c r="F19" t="n">
-        <v>905.7058</v>
+        <v>798.9778</v>
       </c>
       <c r="G19" t="n">
-        <v>850.5333333333333</v>
+        <v>-11517.3651</v>
       </c>
       <c r="H19" t="n">
-        <v>825.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>818</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1138,36 +1185,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>865</v>
+        <v>818</v>
       </c>
       <c r="C20" t="n">
-        <v>880</v>
+        <v>818</v>
       </c>
       <c r="D20" t="n">
-        <v>883</v>
+        <v>818</v>
       </c>
       <c r="E20" t="n">
-        <v>857</v>
+        <v>818</v>
       </c>
       <c r="F20" t="n">
-        <v>11678.1877</v>
+        <v>85.5121</v>
       </c>
       <c r="G20" t="n">
-        <v>853.0666666666667</v>
+        <v>-11602.8772</v>
       </c>
       <c r="H20" t="n">
-        <v>827.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>818</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1176,36 +1226,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>868</v>
+        <v>819</v>
       </c>
       <c r="C21" t="n">
-        <v>864</v>
+        <v>819</v>
       </c>
       <c r="D21" t="n">
-        <v>868</v>
+        <v>819</v>
       </c>
       <c r="E21" t="n">
-        <v>864</v>
+        <v>819</v>
       </c>
       <c r="F21" t="n">
-        <v>1475.1261</v>
+        <v>89.20999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>854.4666666666667</v>
+        <v>-11513.6672</v>
       </c>
       <c r="H21" t="n">
-        <v>827.9</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+        <v>818</v>
+      </c>
+      <c r="K21" t="n">
+        <v>818</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1214,36 +1269,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>858</v>
+        <v>818</v>
       </c>
       <c r="C22" t="n">
-        <v>858</v>
+        <v>819</v>
       </c>
       <c r="D22" t="n">
-        <v>858</v>
+        <v>819</v>
       </c>
       <c r="E22" t="n">
-        <v>858</v>
+        <v>818</v>
       </c>
       <c r="F22" t="n">
-        <v>500</v>
+        <v>346.629</v>
       </c>
       <c r="G22" t="n">
-        <v>855.4666666666667</v>
+        <v>-11513.6672</v>
       </c>
       <c r="H22" t="n">
-        <v>828.6666666666666</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+        <v>819</v>
+      </c>
+      <c r="K22" t="n">
+        <v>818</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1252,36 +1312,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>863</v>
+        <v>819</v>
       </c>
       <c r="C23" t="n">
-        <v>865</v>
+        <v>819</v>
       </c>
       <c r="D23" t="n">
-        <v>866</v>
+        <v>819</v>
       </c>
       <c r="E23" t="n">
-        <v>861</v>
+        <v>819</v>
       </c>
       <c r="F23" t="n">
-        <v>1606.4166</v>
+        <v>15.13</v>
       </c>
       <c r="G23" t="n">
-        <v>856.9333333333333</v>
+        <v>-11513.6672</v>
       </c>
       <c r="H23" t="n">
-        <v>829.55</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+        <v>819</v>
+      </c>
+      <c r="K23" t="n">
+        <v>818</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1290,36 +1355,41 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>865</v>
+        <v>817</v>
       </c>
       <c r="C24" t="n">
-        <v>868</v>
+        <v>817</v>
       </c>
       <c r="D24" t="n">
-        <v>869</v>
+        <v>817</v>
       </c>
       <c r="E24" t="n">
-        <v>865</v>
+        <v>817</v>
       </c>
       <c r="F24" t="n">
-        <v>4642.5851</v>
+        <v>393.7436</v>
       </c>
       <c r="G24" t="n">
-        <v>858.5333333333333</v>
+        <v>-11907.4108</v>
       </c>
       <c r="H24" t="n">
-        <v>830.4666666666667</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+        <v>819</v>
+      </c>
+      <c r="K24" t="n">
+        <v>818</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1328,36 +1398,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>868</v>
+        <v>817</v>
       </c>
       <c r="C25" t="n">
-        <v>880</v>
+        <v>821</v>
       </c>
       <c r="D25" t="n">
-        <v>880</v>
+        <v>821</v>
       </c>
       <c r="E25" t="n">
-        <v>868</v>
+        <v>817</v>
       </c>
       <c r="F25" t="n">
-        <v>380.84</v>
+        <v>177.9</v>
       </c>
       <c r="G25" t="n">
-        <v>860.8666666666667</v>
+        <v>-11729.5108</v>
       </c>
       <c r="H25" t="n">
-        <v>831.6166666666667</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+        <v>817</v>
+      </c>
+      <c r="K25" t="n">
+        <v>818</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1366,36 +1441,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>868</v>
+        <v>818</v>
       </c>
       <c r="C26" t="n">
-        <v>855</v>
+        <v>818</v>
       </c>
       <c r="D26" t="n">
-        <v>868</v>
+        <v>818</v>
       </c>
       <c r="E26" t="n">
-        <v>851</v>
+        <v>818</v>
       </c>
       <c r="F26" t="n">
-        <v>354.8336</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>861.2</v>
+        <v>-11749.5108</v>
       </c>
       <c r="H26" t="n">
-        <v>832.3333333333334</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+        <v>821</v>
+      </c>
+      <c r="K26" t="n">
+        <v>818</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1404,36 +1484,41 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>877</v>
+        <v>809</v>
       </c>
       <c r="C27" t="n">
-        <v>858</v>
+        <v>809</v>
       </c>
       <c r="D27" t="n">
-        <v>877</v>
+        <v>809</v>
       </c>
       <c r="E27" t="n">
-        <v>857</v>
+        <v>809</v>
       </c>
       <c r="F27" t="n">
-        <v>5122.7311</v>
+        <v>41.0831</v>
       </c>
       <c r="G27" t="n">
-        <v>862</v>
+        <v>-11790.5939</v>
       </c>
       <c r="H27" t="n">
-        <v>833.0833333333334</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+        <v>818</v>
+      </c>
+      <c r="K27" t="n">
+        <v>818</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1442,36 +1527,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>863</v>
+        <v>820</v>
       </c>
       <c r="C28" t="n">
-        <v>859</v>
+        <v>821</v>
       </c>
       <c r="D28" t="n">
-        <v>863</v>
+        <v>821</v>
       </c>
       <c r="E28" t="n">
-        <v>854</v>
+        <v>820</v>
       </c>
       <c r="F28" t="n">
-        <v>3556.988</v>
+        <v>1118.94</v>
       </c>
       <c r="G28" t="n">
-        <v>862.8666666666667</v>
+        <v>-10671.6539</v>
       </c>
       <c r="H28" t="n">
-        <v>833.85</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+        <v>809</v>
+      </c>
+      <c r="K28" t="n">
+        <v>818</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1480,36 +1570,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>863</v>
+        <v>820</v>
       </c>
       <c r="C29" t="n">
-        <v>863</v>
+        <v>826</v>
       </c>
       <c r="D29" t="n">
-        <v>863</v>
+        <v>826</v>
       </c>
       <c r="E29" t="n">
-        <v>863</v>
+        <v>820</v>
       </c>
       <c r="F29" t="n">
-        <v>86.9743</v>
+        <v>1833.0209</v>
       </c>
       <c r="G29" t="n">
-        <v>863.6</v>
+        <v>-8838.633000000003</v>
       </c>
       <c r="H29" t="n">
-        <v>834.7</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+        <v>821</v>
+      </c>
+      <c r="K29" t="n">
+        <v>818</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,36 +1613,41 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>866</v>
+        <v>826</v>
       </c>
       <c r="C30" t="n">
-        <v>863</v>
+        <v>826</v>
       </c>
       <c r="D30" t="n">
-        <v>873</v>
+        <v>826</v>
       </c>
       <c r="E30" t="n">
-        <v>863</v>
+        <v>826</v>
       </c>
       <c r="F30" t="n">
-        <v>1841.3369</v>
+        <v>19.95</v>
       </c>
       <c r="G30" t="n">
-        <v>863.8666666666667</v>
+        <v>-8838.633000000003</v>
       </c>
       <c r="H30" t="n">
-        <v>835.55</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+        <v>826</v>
+      </c>
+      <c r="K30" t="n">
+        <v>818</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1556,36 +1656,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>868</v>
+        <v>836</v>
       </c>
       <c r="C31" t="n">
-        <v>858</v>
+        <v>836</v>
       </c>
       <c r="D31" t="n">
-        <v>868</v>
+        <v>836</v>
       </c>
       <c r="E31" t="n">
-        <v>858</v>
+        <v>836</v>
       </c>
       <c r="F31" t="n">
-        <v>519.0011</v>
+        <v>566.5321</v>
       </c>
       <c r="G31" t="n">
-        <v>863.7333333333333</v>
+        <v>-8272.100900000003</v>
       </c>
       <c r="H31" t="n">
-        <v>836.2666666666667</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+        <v>826</v>
+      </c>
+      <c r="K31" t="n">
+        <v>818</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1594,36 +1699,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="C32" t="n">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="D32" t="n">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="E32" t="n">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="F32" t="n">
-        <v>402.1155</v>
+        <v>406.8359</v>
       </c>
       <c r="G32" t="n">
-        <v>863.7333333333333</v>
+        <v>-7865.265000000003</v>
       </c>
       <c r="H32" t="n">
-        <v>836.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>818</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1632,36 +1740,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="C33" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="D33" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="E33" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="F33" t="n">
-        <v>1721.1359</v>
+        <v>407.0058</v>
       </c>
       <c r="G33" t="n">
-        <v>863.2</v>
+        <v>-8272.270800000004</v>
       </c>
       <c r="H33" t="n">
-        <v>837.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>818</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1670,36 +1781,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="C34" t="n">
-        <v>861</v>
+        <v>842</v>
       </c>
       <c r="D34" t="n">
-        <v>861</v>
+        <v>842</v>
       </c>
       <c r="E34" t="n">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="F34" t="n">
-        <v>1403.816</v>
+        <v>246.7945</v>
       </c>
       <c r="G34" t="n">
-        <v>863.1333333333333</v>
+        <v>-8025.476300000004</v>
       </c>
       <c r="H34" t="n">
-        <v>838.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>818</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,36 +1822,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="C35" t="n">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="D35" t="n">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="E35" t="n">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="F35" t="n">
-        <v>1160.0928</v>
+        <v>2066.0799</v>
       </c>
       <c r="G35" t="n">
-        <v>861.9333333333333</v>
+        <v>-5959.396400000003</v>
       </c>
       <c r="H35" t="n">
-        <v>839.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>818</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1746,36 +1863,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>866</v>
+        <v>843</v>
       </c>
       <c r="C36" t="n">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="D36" t="n">
-        <v>866</v>
+        <v>843</v>
       </c>
       <c r="E36" t="n">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="F36" t="n">
-        <v>2780.8503</v>
+        <v>90.52</v>
       </c>
       <c r="G36" t="n">
-        <v>861.1333333333333</v>
+        <v>-5959.396400000003</v>
       </c>
       <c r="H36" t="n">
-        <v>839.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>818</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1784,36 +1904,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="C37" t="n">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="D37" t="n">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="E37" t="n">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="F37" t="n">
-        <v>2157.411309280742</v>
+        <v>147.5584</v>
       </c>
       <c r="G37" t="n">
-        <v>861.5333333333333</v>
+        <v>-5959.396400000003</v>
       </c>
       <c r="H37" t="n">
-        <v>840.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>818</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,36 +1945,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="C38" t="n">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="D38" t="n">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="E38" t="n">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="F38" t="n">
-        <v>2473</v>
+        <v>235.4</v>
       </c>
       <c r="G38" t="n">
-        <v>861.2</v>
+        <v>-5723.996400000004</v>
       </c>
       <c r="H38" t="n">
-        <v>841.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>818</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1860,36 +1986,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C39" t="n">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="D39" t="n">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="E39" t="n">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="F39" t="n">
-        <v>1320.7479</v>
+        <v>2676.1889</v>
       </c>
       <c r="G39" t="n">
-        <v>860.3333333333334</v>
+        <v>-3047.807500000004</v>
       </c>
       <c r="H39" t="n">
-        <v>842.0833333333334</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>818</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1898,36 +2027,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>845</v>
+      </c>
+      <c r="C40" t="n">
         <v>850</v>
       </c>
-      <c r="C40" t="n">
-        <v>854</v>
-      </c>
       <c r="D40" t="n">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E40" t="n">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="F40" t="n">
-        <v>1417.0837</v>
+        <v>2008.5698</v>
       </c>
       <c r="G40" t="n">
-        <v>858.6</v>
+        <v>-1039.237700000004</v>
       </c>
       <c r="H40" t="n">
-        <v>842.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>818</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,36 +2068,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C41" t="n">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="D41" t="n">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="E41" t="n">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F41" t="n">
-        <v>3683.7091</v>
+        <v>432.8575</v>
       </c>
       <c r="G41" t="n">
-        <v>858.8</v>
+        <v>-1472.095200000004</v>
       </c>
       <c r="H41" t="n">
-        <v>843.45</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>818</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1974,36 +2109,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C42" t="n">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="D42" t="n">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="E42" t="n">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F42" t="n">
-        <v>956.8338</v>
+        <v>61.388</v>
       </c>
       <c r="G42" t="n">
-        <v>858.4</v>
+        <v>-1472.095200000004</v>
       </c>
       <c r="H42" t="n">
-        <v>844</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>818</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2012,36 +2150,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C43" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D43" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E43" t="n">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F43" t="n">
-        <v>209.1834</v>
+        <v>731.5819</v>
       </c>
       <c r="G43" t="n">
-        <v>857.8</v>
+        <v>-740.5133000000036</v>
       </c>
       <c r="H43" t="n">
-        <v>844.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>818</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2050,36 +2191,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C44" t="n">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="D44" t="n">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="E44" t="n">
         <v>852</v>
       </c>
       <c r="F44" t="n">
-        <v>1064.6121</v>
+        <v>3800.3068</v>
       </c>
       <c r="G44" t="n">
-        <v>857.0666666666667</v>
+        <v>3059.793499999996</v>
       </c>
       <c r="H44" t="n">
-        <v>845.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>818</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2088,36 +2232,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="C45" t="n">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="D45" t="n">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="E45" t="n">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="F45" t="n">
-        <v>613.8436</v>
+        <v>1255.6946</v>
       </c>
       <c r="G45" t="n">
-        <v>856.4666666666667</v>
+        <v>4315.488099999996</v>
       </c>
       <c r="H45" t="n">
-        <v>845.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>818</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2126,36 +2273,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="C46" t="n">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="D46" t="n">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="E46" t="n">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="F46" t="n">
-        <v>317.5784</v>
+        <v>305.4883</v>
       </c>
       <c r="G46" t="n">
-        <v>856.1333333333333</v>
+        <v>4009.999799999996</v>
       </c>
       <c r="H46" t="n">
-        <v>846.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>818</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2164,36 +2314,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="C47" t="n">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="D47" t="n">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="E47" t="n">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="F47" t="n">
-        <v>1334.7375</v>
+        <v>1156.0693</v>
       </c>
       <c r="G47" t="n">
-        <v>855.8</v>
+        <v>5166.069099999996</v>
       </c>
       <c r="H47" t="n">
-        <v>847.05</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>818</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2202,36 +2355,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>851</v>
+        <v>865</v>
       </c>
       <c r="C48" t="n">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="D48" t="n">
-        <v>854</v>
+        <v>865</v>
       </c>
       <c r="E48" t="n">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="F48" t="n">
-        <v>801</v>
+        <v>905.7058</v>
       </c>
       <c r="G48" t="n">
-        <v>855.6</v>
+        <v>4260.363299999996</v>
       </c>
       <c r="H48" t="n">
-        <v>847.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>818</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2240,36 +2396,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>854</v>
+        <v>865</v>
       </c>
       <c r="C49" t="n">
-        <v>846</v>
+        <v>880</v>
       </c>
       <c r="D49" t="n">
-        <v>854</v>
+        <v>883</v>
       </c>
       <c r="E49" t="n">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="F49" t="n">
-        <v>203.8273</v>
+        <v>11678.1877</v>
       </c>
       <c r="G49" t="n">
-        <v>854.6</v>
+        <v>15938.551</v>
       </c>
       <c r="H49" t="n">
-        <v>847.9166666666666</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>818</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2278,36 +2437,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>841</v>
+        <v>868</v>
       </c>
       <c r="C50" t="n">
-        <v>841</v>
+        <v>864</v>
       </c>
       <c r="D50" t="n">
-        <v>841</v>
+        <v>868</v>
       </c>
       <c r="E50" t="n">
-        <v>841</v>
+        <v>864</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>1475.1261</v>
       </c>
       <c r="G50" t="n">
-        <v>853.2</v>
+        <v>14463.4249</v>
       </c>
       <c r="H50" t="n">
-        <v>848.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>818</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2316,36 +2478,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>838</v>
+        <v>858</v>
       </c>
       <c r="C51" t="n">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D51" t="n">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="E51" t="n">
-        <v>838</v>
+        <v>858</v>
       </c>
       <c r="F51" t="n">
-        <v>603.0928</v>
+        <v>500</v>
       </c>
       <c r="G51" t="n">
-        <v>852.6</v>
+        <v>13963.4249</v>
       </c>
       <c r="H51" t="n">
-        <v>848.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>818</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,36 +2519,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>833</v>
+        <v>863</v>
       </c>
       <c r="C52" t="n">
-        <v>833</v>
+        <v>865</v>
       </c>
       <c r="D52" t="n">
-        <v>833</v>
+        <v>866</v>
       </c>
       <c r="E52" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>1606.4166</v>
       </c>
       <c r="G52" t="n">
-        <v>850.5333333333333</v>
+        <v>15569.8415</v>
       </c>
       <c r="H52" t="n">
-        <v>848.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>818</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2392,36 +2560,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>832</v>
+        <v>865</v>
       </c>
       <c r="C53" t="n">
-        <v>832</v>
+        <v>868</v>
       </c>
       <c r="D53" t="n">
-        <v>832</v>
+        <v>869</v>
       </c>
       <c r="E53" t="n">
-        <v>832</v>
+        <v>865</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>4642.5851</v>
       </c>
       <c r="G53" t="n">
-        <v>848.6666666666666</v>
+        <v>20212.4266</v>
       </c>
       <c r="H53" t="n">
-        <v>849.0833333333334</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>818</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2430,36 +2601,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>843</v>
+        <v>868</v>
       </c>
       <c r="C54" t="n">
-        <v>843</v>
+        <v>880</v>
       </c>
       <c r="D54" t="n">
-        <v>843</v>
+        <v>880</v>
       </c>
       <c r="E54" t="n">
-        <v>843</v>
+        <v>868</v>
       </c>
       <c r="F54" t="n">
-        <v>568.7536</v>
+        <v>380.84</v>
       </c>
       <c r="G54" t="n">
-        <v>847.8666666666667</v>
+        <v>20593.2666</v>
       </c>
       <c r="H54" t="n">
-        <v>849.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>818</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2468,36 +2642,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>848</v>
+        <v>868</v>
       </c>
       <c r="C55" t="n">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="D55" t="n">
-        <v>848</v>
+        <v>868</v>
       </c>
       <c r="E55" t="n">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="F55" t="n">
-        <v>154.6399</v>
+        <v>354.8336</v>
       </c>
       <c r="G55" t="n">
-        <v>847.4666666666667</v>
+        <v>20238.433</v>
       </c>
       <c r="H55" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>818</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2506,36 +2683,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>842</v>
+        <v>877</v>
       </c>
       <c r="C56" t="n">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="D56" t="n">
-        <v>842</v>
+        <v>877</v>
       </c>
       <c r="E56" t="n">
-        <v>842</v>
+        <v>857</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>5122.7311</v>
       </c>
       <c r="G56" t="n">
-        <v>846.4</v>
+        <v>25361.1641</v>
       </c>
       <c r="H56" t="n">
-        <v>850.35</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>818</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2544,36 +2724,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>842</v>
+        <v>863</v>
       </c>
       <c r="C57" t="n">
-        <v>839</v>
+        <v>859</v>
       </c>
       <c r="D57" t="n">
-        <v>842</v>
+        <v>863</v>
       </c>
       <c r="E57" t="n">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="F57" t="n">
-        <v>446.8836</v>
+        <v>3556.988</v>
       </c>
       <c r="G57" t="n">
-        <v>845.5333333333333</v>
+        <v>28918.1521</v>
       </c>
       <c r="H57" t="n">
-        <v>850.7</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>818</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2582,36 +2765,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>844</v>
+        <v>863</v>
       </c>
       <c r="C58" t="n">
-        <v>846</v>
+        <v>863</v>
       </c>
       <c r="D58" t="n">
-        <v>846</v>
+        <v>863</v>
       </c>
       <c r="E58" t="n">
-        <v>844</v>
+        <v>863</v>
       </c>
       <c r="F58" t="n">
-        <v>971.5945</v>
+        <v>86.9743</v>
       </c>
       <c r="G58" t="n">
-        <v>845.2666666666667</v>
+        <v>29005.1264</v>
       </c>
       <c r="H58" t="n">
-        <v>851.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>818</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,36 +2806,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>842</v>
+        <v>866</v>
       </c>
       <c r="C59" t="n">
-        <v>842</v>
+        <v>863</v>
       </c>
       <c r="D59" t="n">
-        <v>842</v>
+        <v>873</v>
       </c>
       <c r="E59" t="n">
-        <v>842</v>
+        <v>863</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>1841.3369</v>
       </c>
       <c r="G59" t="n">
-        <v>844.6</v>
+        <v>29005.1264</v>
       </c>
       <c r="H59" t="n">
-        <v>851.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>818</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2658,36 +2847,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>842</v>
+        <v>868</v>
       </c>
       <c r="C60" t="n">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="D60" t="n">
-        <v>842</v>
+        <v>868</v>
       </c>
       <c r="E60" t="n">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="F60" t="n">
-        <v>110.4061</v>
+        <v>519.0011</v>
       </c>
       <c r="G60" t="n">
-        <v>843.8</v>
+        <v>28486.1253</v>
       </c>
       <c r="H60" t="n">
-        <v>851.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>818</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2696,36 +2888,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>837</v>
+        <v>862</v>
       </c>
       <c r="C61" t="n">
-        <v>837</v>
+        <v>858</v>
       </c>
       <c r="D61" t="n">
-        <v>837</v>
+        <v>862</v>
       </c>
       <c r="E61" t="n">
-        <v>837</v>
+        <v>858</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>402.1155</v>
       </c>
       <c r="G61" t="n">
-        <v>842.7333333333333</v>
+        <v>28486.1253</v>
       </c>
       <c r="H61" t="n">
-        <v>852.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>818</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2734,36 +2929,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="C62" t="n">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="D62" t="n">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="E62" t="n">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="F62" t="n">
-        <v>318.75</v>
+        <v>1721.1359</v>
       </c>
       <c r="G62" t="n">
-        <v>841.9333333333333</v>
+        <v>26764.9894</v>
       </c>
       <c r="H62" t="n">
-        <v>852.2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>818</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2772,36 +2970,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="C63" t="n">
-        <v>839</v>
+        <v>861</v>
       </c>
       <c r="D63" t="n">
-        <v>840</v>
+        <v>861</v>
       </c>
       <c r="E63" t="n">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="F63" t="n">
-        <v>162.1515</v>
+        <v>1403.816</v>
       </c>
       <c r="G63" t="n">
-        <v>840.9333333333333</v>
+        <v>28168.8054</v>
       </c>
       <c r="H63" t="n">
-        <v>852.1666666666666</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>818</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2810,36 +3011,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>840</v>
+        <v>862</v>
       </c>
       <c r="C64" t="n">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="D64" t="n">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="E64" t="n">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="F64" t="n">
-        <v>2030.8232</v>
+        <v>1160.0928</v>
       </c>
       <c r="G64" t="n">
-        <v>841.0666666666667</v>
+        <v>29328.8982</v>
       </c>
       <c r="H64" t="n">
-        <v>852.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>818</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,36 +3052,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>844</v>
+        <v>866</v>
       </c>
       <c r="C65" t="n">
-        <v>839</v>
+        <v>852</v>
       </c>
       <c r="D65" t="n">
-        <v>845</v>
+        <v>866</v>
       </c>
       <c r="E65" t="n">
-        <v>839</v>
+        <v>852</v>
       </c>
       <c r="F65" t="n">
-        <v>443.7751</v>
+        <v>2780.8503</v>
       </c>
       <c r="G65" t="n">
-        <v>840.9333333333333</v>
+        <v>26548.0479</v>
       </c>
       <c r="H65" t="n">
-        <v>852.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>818</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2886,36 +3093,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="C66" t="n">
-        <v>845</v>
+        <v>864</v>
       </c>
       <c r="D66" t="n">
-        <v>845</v>
+        <v>864</v>
       </c>
       <c r="E66" t="n">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="F66" t="n">
-        <v>196.9599</v>
+        <v>2157.411309280742</v>
       </c>
       <c r="G66" t="n">
-        <v>841.0666666666667</v>
+        <v>28705.45920928074</v>
       </c>
       <c r="H66" t="n">
-        <v>852.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>818</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2924,36 +3134,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="C67" t="n">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="D67" t="n">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="E67" t="n">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F67" t="n">
-        <v>400.1069</v>
+        <v>2473</v>
       </c>
       <c r="G67" t="n">
-        <v>842.2</v>
+        <v>26232.45920928074</v>
       </c>
       <c r="H67" t="n">
-        <v>852.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>818</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2962,36 +3175,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="C68" t="n">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="D68" t="n">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="E68" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F68" t="n">
-        <v>22.8625</v>
+        <v>1320.7479</v>
       </c>
       <c r="G68" t="n">
-        <v>843.4</v>
+        <v>24911.71130928074</v>
       </c>
       <c r="H68" t="n">
-        <v>852.55</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>818</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3000,36 +3216,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C69" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D69" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E69" t="n">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F69" t="n">
-        <v>807.11</v>
+        <v>1417.0837</v>
       </c>
       <c r="G69" t="n">
-        <v>844.0666666666667</v>
+        <v>23494.62760928074</v>
       </c>
       <c r="H69" t="n">
-        <v>852.7</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>818</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,36 +3257,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C70" t="n">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D70" t="n">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="E70" t="n">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="F70" t="n">
-        <v>633.0853</v>
+        <v>3683.7091</v>
       </c>
       <c r="G70" t="n">
-        <v>844.5333333333333</v>
+        <v>27178.33670928074</v>
       </c>
       <c r="H70" t="n">
-        <v>852.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>818</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3076,36 +3298,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C71" t="n">
-        <v>827</v>
+        <v>852</v>
       </c>
       <c r="D71" t="n">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="E71" t="n">
-        <v>827</v>
+        <v>847</v>
       </c>
       <c r="F71" t="n">
-        <v>1676.1426</v>
+        <v>956.8338</v>
       </c>
       <c r="G71" t="n">
-        <v>843.5333333333333</v>
+        <v>26221.50290928074</v>
       </c>
       <c r="H71" t="n">
-        <v>852.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>818</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3114,36 +3339,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="C72" t="n">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="D72" t="n">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="E72" t="n">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="F72" t="n">
-        <v>74.64579999999999</v>
+        <v>209.1834</v>
       </c>
       <c r="G72" t="n">
-        <v>843.6666666666666</v>
+        <v>26012.31950928074</v>
       </c>
       <c r="H72" t="n">
-        <v>852.4</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>818</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3152,36 +3380,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="C73" t="n">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="D73" t="n">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="E73" t="n">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="F73" t="n">
-        <v>1.8633</v>
+        <v>1064.6121</v>
       </c>
       <c r="G73" t="n">
-        <v>843.1333333333333</v>
+        <v>27076.93160928074</v>
       </c>
       <c r="H73" t="n">
-        <v>852.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>818</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3190,36 +3421,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="C74" t="n">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="D74" t="n">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="E74" t="n">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="F74" t="n">
-        <v>405.8188</v>
+        <v>613.8436</v>
       </c>
       <c r="G74" t="n">
-        <v>842.8666666666667</v>
+        <v>27690.77520928074</v>
       </c>
       <c r="H74" t="n">
-        <v>852.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>818</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3228,36 +3462,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>836</v>
+        <v>853</v>
       </c>
       <c r="C75" t="n">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="D75" t="n">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="E75" t="n">
-        <v>836</v>
+        <v>853</v>
       </c>
       <c r="F75" t="n">
-        <v>1875.9067</v>
+        <v>317.5784</v>
       </c>
       <c r="G75" t="n">
-        <v>842.9333333333333</v>
+        <v>27373.19680928074</v>
       </c>
       <c r="H75" t="n">
-        <v>851.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>818</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,36 +3503,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="C76" t="n">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="D76" t="n">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="E76" t="n">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="F76" t="n">
-        <v>950.1187</v>
+        <v>1334.7375</v>
       </c>
       <c r="G76" t="n">
-        <v>843.2</v>
+        <v>27373.19680928074</v>
       </c>
       <c r="H76" t="n">
-        <v>851.45</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>818</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,36 +3544,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="C77" t="n">
-        <v>841</v>
+        <v>854</v>
       </c>
       <c r="D77" t="n">
-        <v>841</v>
+        <v>854</v>
       </c>
       <c r="E77" t="n">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="F77" t="n">
-        <v>88.5</v>
+        <v>801</v>
       </c>
       <c r="G77" t="n">
-        <v>843.2</v>
+        <v>28174.19680928074</v>
       </c>
       <c r="H77" t="n">
-        <v>851.1666666666666</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>818</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3342,36 +3585,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>837</v>
+        <v>854</v>
       </c>
       <c r="C78" t="n">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="D78" t="n">
-        <v>837</v>
+        <v>854</v>
       </c>
       <c r="E78" t="n">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="F78" t="n">
-        <v>4113.4202</v>
+        <v>203.8273</v>
       </c>
       <c r="G78" t="n">
-        <v>843.0666666666667</v>
+        <v>27970.36950928074</v>
       </c>
       <c r="H78" t="n">
-        <v>850.7</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>818</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3380,36 +3626,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="C79" t="n">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="D79" t="n">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="E79" t="n">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="F79" t="n">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>842.1333333333333</v>
+        <v>27969.36950928074</v>
       </c>
       <c r="H79" t="n">
-        <v>850.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>818</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3418,36 +3667,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C80" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D80" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E80" t="n">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F80" t="n">
-        <v>5400</v>
+        <v>603.0928</v>
       </c>
       <c r="G80" t="n">
-        <v>842.3333333333334</v>
+        <v>28572.46230928074</v>
       </c>
       <c r="H80" t="n">
-        <v>849.6</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>818</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3456,36 +3708,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C81" t="n">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="D81" t="n">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="E81" t="n">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="F81" t="n">
-        <v>20.9679</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>842</v>
+        <v>28571.46230928074</v>
       </c>
       <c r="H81" t="n">
-        <v>849.2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>818</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,36 +3749,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="C82" t="n">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="D82" t="n">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="E82" t="n">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="F82" t="n">
-        <v>1156.8693</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>841.2666666666667</v>
+        <v>28570.46230928074</v>
       </c>
       <c r="H82" t="n">
-        <v>848.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>818</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3532,36 +3790,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C83" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D83" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E83" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F83" t="n">
-        <v>21.3704</v>
+        <v>568.7536</v>
       </c>
       <c r="G83" t="n">
-        <v>840.7333333333333</v>
+        <v>29139.21590928074</v>
       </c>
       <c r="H83" t="n">
-        <v>848.5</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>818</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3570,36 +3831,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="C84" t="n">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D84" t="n">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="E84" t="n">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="F84" t="n">
-        <v>783.8507</v>
+        <v>154.6399</v>
       </c>
       <c r="G84" t="n">
-        <v>840.2666666666667</v>
+        <v>29293.85580928074</v>
       </c>
       <c r="H84" t="n">
-        <v>848.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>818</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3608,36 +3872,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C85" t="n">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D85" t="n">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E85" t="n">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F85" t="n">
-        <v>40.9712</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>839.2666666666667</v>
+        <v>29292.85580928074</v>
       </c>
       <c r="H85" t="n">
-        <v>847.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>818</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3646,36 +3913,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="C86" t="n">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="D86" t="n">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="E86" t="n">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="F86" t="n">
-        <v>242.4942</v>
+        <v>446.8836</v>
       </c>
       <c r="G86" t="n">
-        <v>839.6666666666666</v>
+        <v>28845.97220928074</v>
       </c>
       <c r="H86" t="n">
-        <v>847.1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>818</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,36 +3954,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="C87" t="n">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="D87" t="n">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="E87" t="n">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="F87" t="n">
-        <v>660.9712</v>
+        <v>971.5945</v>
       </c>
       <c r="G87" t="n">
-        <v>839.5333333333333</v>
+        <v>29817.56670928073</v>
       </c>
       <c r="H87" t="n">
-        <v>846.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>818</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3722,36 +3995,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C88" t="n">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="D88" t="n">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="E88" t="n">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="F88" t="n">
-        <v>214.9494</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>839.6</v>
+        <v>29816.56670928073</v>
       </c>
       <c r="H88" t="n">
-        <v>846.45</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>818</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,36 +4036,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C89" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D89" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E89" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F89" t="n">
-        <v>809.8672</v>
+        <v>110.4061</v>
       </c>
       <c r="G89" t="n">
-        <v>839.8</v>
+        <v>29816.56670928073</v>
       </c>
       <c r="H89" t="n">
-        <v>846.0833333333334</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>818</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3798,36 +4077,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C90" t="n">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="D90" t="n">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="E90" t="n">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="F90" t="n">
-        <v>2065</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>840.2</v>
+        <v>29815.56670928073</v>
       </c>
       <c r="H90" t="n">
-        <v>845.85</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>818</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3836,36 +4118,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="C91" t="n">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="D91" t="n">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="E91" t="n">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="F91" t="n">
-        <v>140.1799</v>
+        <v>318.75</v>
       </c>
       <c r="G91" t="n">
-        <v>841.4</v>
+        <v>30134.31670928073</v>
       </c>
       <c r="H91" t="n">
-        <v>845.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>818</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3874,36 +4159,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="C92" t="n">
-        <v>865</v>
+        <v>839</v>
       </c>
       <c r="D92" t="n">
-        <v>866</v>
+        <v>840</v>
       </c>
       <c r="E92" t="n">
-        <v>859</v>
+        <v>839</v>
       </c>
       <c r="F92" t="n">
-        <v>3170.5085</v>
+        <v>162.1515</v>
       </c>
       <c r="G92" t="n">
-        <v>843</v>
+        <v>29972.16520928073</v>
       </c>
       <c r="H92" t="n">
-        <v>845.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>818</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,36 +4200,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>865</v>
+        <v>840</v>
       </c>
       <c r="C93" t="n">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="D93" t="n">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="E93" t="n">
-        <v>865</v>
+        <v>839</v>
       </c>
       <c r="F93" t="n">
-        <v>441.4578</v>
+        <v>2030.8232</v>
       </c>
       <c r="G93" t="n">
-        <v>844.8666666666667</v>
+        <v>32002.98840928073</v>
       </c>
       <c r="H93" t="n">
-        <v>846.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>818</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3950,36 +4241,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="C94" t="n">
-        <v>866</v>
+        <v>839</v>
       </c>
       <c r="D94" t="n">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="E94" t="n">
-        <v>864</v>
+        <v>839</v>
       </c>
       <c r="F94" t="n">
-        <v>937.6209</v>
+        <v>443.7751</v>
       </c>
       <c r="G94" t="n">
-        <v>847</v>
+        <v>31559.21330928073</v>
       </c>
       <c r="H94" t="n">
-        <v>846.2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>818</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3988,36 +4282,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="C95" t="n">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="D95" t="n">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="E95" t="n">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="F95" t="n">
-        <v>22.7424</v>
+        <v>196.9599</v>
       </c>
       <c r="G95" t="n">
-        <v>848.6</v>
+        <v>31756.17320928074</v>
       </c>
       <c r="H95" t="n">
-        <v>846.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>818</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4026,36 +4323,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="C96" t="n">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="D96" t="n">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="E96" t="n">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="F96" t="n">
-        <v>5462.3972</v>
+        <v>400.1069</v>
       </c>
       <c r="G96" t="n">
-        <v>850.3333333333334</v>
+        <v>32156.28010928073</v>
       </c>
       <c r="H96" t="n">
-        <v>846.5</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>818</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4064,36 +4364,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="C97" t="n">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="D97" t="n">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="E97" t="n">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="F97" t="n">
-        <v>477.9826</v>
+        <v>22.8625</v>
       </c>
       <c r="G97" t="n">
-        <v>852.1333333333333</v>
+        <v>32156.28010928073</v>
       </c>
       <c r="H97" t="n">
-        <v>846.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>818</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4102,36 +4405,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="C98" t="n">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="D98" t="n">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="E98" t="n">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="F98" t="n">
-        <v>11.53402537485582</v>
+        <v>807.11</v>
       </c>
       <c r="G98" t="n">
-        <v>853.8</v>
+        <v>32963.39010928074</v>
       </c>
       <c r="H98" t="n">
-        <v>846.65</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>818</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,36 +4446,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C99" t="n">
         <v>855</v>
       </c>
       <c r="D99" t="n">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E99" t="n">
         <v>855</v>
       </c>
       <c r="F99" t="n">
-        <v>1598.5039</v>
+        <v>633.0853</v>
       </c>
       <c r="G99" t="n">
-        <v>854.4</v>
+        <v>33596.47540928073</v>
       </c>
       <c r="H99" t="n">
-        <v>846.65</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>818</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,36 +4487,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="C100" t="n">
-        <v>858</v>
+        <v>827</v>
       </c>
       <c r="D100" t="n">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="E100" t="n">
-        <v>858</v>
+        <v>827</v>
       </c>
       <c r="F100" t="n">
-        <v>81.709</v>
+        <v>1676.1426</v>
       </c>
       <c r="G100" t="n">
-        <v>855.6</v>
+        <v>31920.33280928074</v>
       </c>
       <c r="H100" t="n">
-        <v>846.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>818</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4216,36 +4528,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="C101" t="n">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="D101" t="n">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="E101" t="n">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="F101" t="n">
-        <v>171.328</v>
+        <v>74.64579999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>857.4</v>
+        <v>31994.97860928073</v>
       </c>
       <c r="H101" t="n">
-        <v>846.75</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>818</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4254,36 +4569,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="C102" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="D102" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="E102" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="F102" t="n">
-        <v>89.02670000000001</v>
+        <v>1.8633</v>
       </c>
       <c r="G102" t="n">
-        <v>858.6</v>
+        <v>31993.11530928073</v>
       </c>
       <c r="H102" t="n">
-        <v>846.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>818</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4292,36 +4610,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="C103" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="D103" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="E103" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="F103" t="n">
-        <v>48.8972</v>
+        <v>405.8188</v>
       </c>
       <c r="G103" t="n">
-        <v>859.8</v>
+        <v>31993.11530928073</v>
       </c>
       <c r="H103" t="n">
-        <v>846.95</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>818</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4330,36 +4651,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="C104" t="n">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="D104" t="n">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="E104" t="n">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="F104" t="n">
-        <v>462.0761</v>
+        <v>1875.9067</v>
       </c>
       <c r="G104" t="n">
-        <v>860.8666666666667</v>
+        <v>33869.02200928074</v>
       </c>
       <c r="H104" t="n">
-        <v>847.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>818</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,36 +4692,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="C105" t="n">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="D105" t="n">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="E105" t="n">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="F105" t="n">
-        <v>26.2097</v>
+        <v>950.1187</v>
       </c>
       <c r="G105" t="n">
-        <v>861.4666666666667</v>
+        <v>32918.90330928074</v>
       </c>
       <c r="H105" t="n">
-        <v>847.1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>818</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4406,36 +4733,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="C106" t="n">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="D106" t="n">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="E106" t="n">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="F106" t="n">
-        <v>1452.6124</v>
+        <v>88.5</v>
       </c>
       <c r="G106" t="n">
-        <v>861.4</v>
+        <v>32918.90330928074</v>
       </c>
       <c r="H106" t="n">
-        <v>847.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>818</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4444,36 +4774,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>859</v>
+        <v>837</v>
       </c>
       <c r="C107" t="n">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="D107" t="n">
-        <v>859</v>
+        <v>837</v>
       </c>
       <c r="E107" t="n">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="F107" t="n">
-        <v>177.5593</v>
+        <v>4113.4202</v>
       </c>
       <c r="G107" t="n">
-        <v>860.7333333333333</v>
+        <v>28805.48310928074</v>
       </c>
       <c r="H107" t="n">
-        <v>847.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>818</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4482,36 +4815,1144 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>834</v>
+      </c>
+      <c r="C108" t="n">
+        <v>834</v>
+      </c>
+      <c r="D108" t="n">
+        <v>834</v>
+      </c>
+      <c r="E108" t="n">
+        <v>834</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G108" t="n">
+        <v>26805.48310928074</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>818</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>834</v>
+      </c>
+      <c r="C109" t="n">
+        <v>842</v>
+      </c>
+      <c r="D109" t="n">
+        <v>842</v>
+      </c>
+      <c r="E109" t="n">
+        <v>834</v>
+      </c>
+      <c r="F109" t="n">
+        <v>5400</v>
+      </c>
+      <c r="G109" t="n">
+        <v>32205.48310928074</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>818</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>840</v>
+      </c>
+      <c r="C110" t="n">
+        <v>840</v>
+      </c>
+      <c r="D110" t="n">
+        <v>840</v>
+      </c>
+      <c r="E110" t="n">
+        <v>840</v>
+      </c>
+      <c r="F110" t="n">
+        <v>20.9679</v>
+      </c>
+      <c r="G110" t="n">
+        <v>32184.51520928074</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>818</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>840</v>
+      </c>
+      <c r="C111" t="n">
+        <v>839</v>
+      </c>
+      <c r="D111" t="n">
+        <v>840</v>
+      </c>
+      <c r="E111" t="n">
+        <v>839</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1156.8693</v>
+      </c>
+      <c r="G111" t="n">
+        <v>31027.64590928074</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>818</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>842</v>
+      </c>
+      <c r="C112" t="n">
+        <v>842</v>
+      </c>
+      <c r="D112" t="n">
+        <v>842</v>
+      </c>
+      <c r="E112" t="n">
+        <v>842</v>
+      </c>
+      <c r="F112" t="n">
+        <v>21.3704</v>
+      </c>
+      <c r="G112" t="n">
+        <v>31049.01630928074</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>818</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>843</v>
+      </c>
+      <c r="C113" t="n">
+        <v>846</v>
+      </c>
+      <c r="D113" t="n">
+        <v>846</v>
+      </c>
+      <c r="E113" t="n">
+        <v>843</v>
+      </c>
+      <c r="F113" t="n">
+        <v>783.8507</v>
+      </c>
+      <c r="G113" t="n">
+        <v>31832.86700928074</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>818</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>840</v>
+      </c>
+      <c r="C114" t="n">
+        <v>840</v>
+      </c>
+      <c r="D114" t="n">
+        <v>840</v>
+      </c>
+      <c r="E114" t="n">
+        <v>840</v>
+      </c>
+      <c r="F114" t="n">
+        <v>40.9712</v>
+      </c>
+      <c r="G114" t="n">
+        <v>31791.89580928074</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>818</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>833</v>
+      </c>
+      <c r="C115" t="n">
+        <v>833</v>
+      </c>
+      <c r="D115" t="n">
+        <v>833</v>
+      </c>
+      <c r="E115" t="n">
+        <v>833</v>
+      </c>
+      <c r="F115" t="n">
+        <v>242.4942</v>
+      </c>
+      <c r="G115" t="n">
+        <v>31549.40160928074</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>818</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>838</v>
+      </c>
+      <c r="C116" t="n">
+        <v>839</v>
+      </c>
+      <c r="D116" t="n">
+        <v>839</v>
+      </c>
+      <c r="E116" t="n">
+        <v>838</v>
+      </c>
+      <c r="F116" t="n">
+        <v>660.9712</v>
+      </c>
+      <c r="G116" t="n">
+        <v>32210.37280928074</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>818</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>839</v>
+      </c>
+      <c r="C117" t="n">
+        <v>839</v>
+      </c>
+      <c r="D117" t="n">
+        <v>839</v>
+      </c>
+      <c r="E117" t="n">
+        <v>839</v>
+      </c>
+      <c r="F117" t="n">
+        <v>214.9494</v>
+      </c>
+      <c r="G117" t="n">
+        <v>32210.37280928074</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>818</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>841</v>
+      </c>
+      <c r="C118" t="n">
+        <v>841</v>
+      </c>
+      <c r="D118" t="n">
+        <v>841</v>
+      </c>
+      <c r="E118" t="n">
+        <v>841</v>
+      </c>
+      <c r="F118" t="n">
+        <v>809.8672</v>
+      </c>
+      <c r="G118" t="n">
+        <v>33020.24000928074</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>818</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>846</v>
+      </c>
+      <c r="C119" t="n">
+        <v>849</v>
+      </c>
+      <c r="D119" t="n">
+        <v>849</v>
+      </c>
+      <c r="E119" t="n">
+        <v>846</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2065</v>
+      </c>
+      <c r="G119" t="n">
+        <v>35085.24000928074</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>818</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>859</v>
+      </c>
+      <c r="C120" t="n">
+        <v>859</v>
+      </c>
+      <c r="D120" t="n">
+        <v>859</v>
+      </c>
+      <c r="E120" t="n">
+        <v>859</v>
+      </c>
+      <c r="F120" t="n">
+        <v>140.1799</v>
+      </c>
+      <c r="G120" t="n">
+        <v>35225.41990928074</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>818</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>859</v>
+      </c>
+      <c r="C121" t="n">
+        <v>865</v>
+      </c>
+      <c r="D121" t="n">
+        <v>866</v>
+      </c>
+      <c r="E121" t="n">
+        <v>859</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3170.5085</v>
+      </c>
+      <c r="G121" t="n">
+        <v>38395.92840928074</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>818</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>865</v>
+      </c>
+      <c r="C122" t="n">
+        <v>865</v>
+      </c>
+      <c r="D122" t="n">
+        <v>865</v>
+      </c>
+      <c r="E122" t="n">
+        <v>865</v>
+      </c>
+      <c r="F122" t="n">
+        <v>441.4578</v>
+      </c>
+      <c r="G122" t="n">
+        <v>38395.92840928074</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>818</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>864</v>
+      </c>
+      <c r="C123" t="n">
+        <v>866</v>
+      </c>
+      <c r="D123" t="n">
+        <v>866</v>
+      </c>
+      <c r="E123" t="n">
+        <v>864</v>
+      </c>
+      <c r="F123" t="n">
+        <v>937.6209</v>
+      </c>
+      <c r="G123" t="n">
+        <v>39333.54930928074</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>818</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1.053679706601467</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>866</v>
+      </c>
+      <c r="C124" t="n">
+        <v>866</v>
+      </c>
+      <c r="D124" t="n">
+        <v>866</v>
+      </c>
+      <c r="E124" t="n">
+        <v>866</v>
+      </c>
+      <c r="F124" t="n">
+        <v>22.7424</v>
+      </c>
+      <c r="G124" t="n">
+        <v>39333.54930928074</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>866</v>
+      </c>
+      <c r="C125" t="n">
+        <v>866</v>
+      </c>
+      <c r="D125" t="n">
+        <v>866</v>
+      </c>
+      <c r="E125" t="n">
+        <v>866</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5462.3972</v>
+      </c>
+      <c r="G125" t="n">
+        <v>39333.54930928074</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>866</v>
+      </c>
+      <c r="C126" t="n">
+        <v>866</v>
+      </c>
+      <c r="D126" t="n">
+        <v>866</v>
+      </c>
+      <c r="E126" t="n">
+        <v>866</v>
+      </c>
+      <c r="F126" t="n">
+        <v>477.9826</v>
+      </c>
+      <c r="G126" t="n">
+        <v>39333.54930928074</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>867</v>
+      </c>
+      <c r="C127" t="n">
+        <v>867</v>
+      </c>
+      <c r="D127" t="n">
+        <v>867</v>
+      </c>
+      <c r="E127" t="n">
+        <v>867</v>
+      </c>
+      <c r="F127" t="n">
+        <v>11.53402537485582</v>
+      </c>
+      <c r="G127" t="n">
+        <v>39345.0833346556</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>858</v>
+      </c>
+      <c r="C128" t="n">
+        <v>855</v>
+      </c>
+      <c r="D128" t="n">
+        <v>858</v>
+      </c>
+      <c r="E128" t="n">
+        <v>855</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1598.5039</v>
+      </c>
+      <c r="G128" t="n">
+        <v>37746.57943465559</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>858</v>
+      </c>
+      <c r="C129" t="n">
+        <v>858</v>
+      </c>
+      <c r="D129" t="n">
+        <v>858</v>
+      </c>
+      <c r="E129" t="n">
+        <v>858</v>
+      </c>
+      <c r="F129" t="n">
+        <v>81.709</v>
+      </c>
+      <c r="G129" t="n">
+        <v>37828.28843465559</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>860</v>
+      </c>
+      <c r="C130" t="n">
+        <v>860</v>
+      </c>
+      <c r="D130" t="n">
+        <v>860</v>
+      </c>
+      <c r="E130" t="n">
+        <v>860</v>
+      </c>
+      <c r="F130" t="n">
+        <v>171.328</v>
+      </c>
+      <c r="G130" t="n">
+        <v>37999.6164346556</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>857</v>
+      </c>
+      <c r="C131" t="n">
+        <v>857</v>
+      </c>
+      <c r="D131" t="n">
+        <v>857</v>
+      </c>
+      <c r="E131" t="n">
+        <v>857</v>
+      </c>
+      <c r="F131" t="n">
+        <v>89.02670000000001</v>
+      </c>
+      <c r="G131" t="n">
+        <v>37910.58973465559</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>857</v>
+      </c>
+      <c r="C132" t="n">
+        <v>857</v>
+      </c>
+      <c r="D132" t="n">
+        <v>857</v>
+      </c>
+      <c r="E132" t="n">
+        <v>857</v>
+      </c>
+      <c r="F132" t="n">
+        <v>48.8972</v>
+      </c>
+      <c r="G132" t="n">
+        <v>37910.58973465559</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>857</v>
+      </c>
+      <c r="C133" t="n">
+        <v>857</v>
+      </c>
+      <c r="D133" t="n">
+        <v>857</v>
+      </c>
+      <c r="E133" t="n">
+        <v>857</v>
+      </c>
+      <c r="F133" t="n">
+        <v>462.0761</v>
+      </c>
+      <c r="G133" t="n">
+        <v>37910.58973465559</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>858</v>
+      </c>
+      <c r="C134" t="n">
+        <v>858</v>
+      </c>
+      <c r="D134" t="n">
+        <v>858</v>
+      </c>
+      <c r="E134" t="n">
+        <v>858</v>
+      </c>
+      <c r="F134" t="n">
+        <v>26.2097</v>
+      </c>
+      <c r="G134" t="n">
+        <v>37936.79943465559</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
         <v>854</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C135" t="n">
+        <v>858</v>
+      </c>
+      <c r="D135" t="n">
+        <v>858</v>
+      </c>
+      <c r="E135" t="n">
         <v>854</v>
       </c>
-      <c r="D108" t="n">
+      <c r="F135" t="n">
+        <v>1452.6124</v>
+      </c>
+      <c r="G135" t="n">
+        <v>37936.79943465559</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>859</v>
+      </c>
+      <c r="C136" t="n">
+        <v>855</v>
+      </c>
+      <c r="D136" t="n">
+        <v>859</v>
+      </c>
+      <c r="E136" t="n">
+        <v>855</v>
+      </c>
+      <c r="F136" t="n">
+        <v>177.5593</v>
+      </c>
+      <c r="G136" t="n">
+        <v>37759.24013465559</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
         <v>854</v>
       </c>
-      <c r="E108" t="n">
+      <c r="C137" t="n">
         <v>854</v>
       </c>
-      <c r="F108" t="n">
+      <c r="D137" t="n">
+        <v>854</v>
+      </c>
+      <c r="E137" t="n">
+        <v>854</v>
+      </c>
+      <c r="F137" t="n">
         <v>262.7</v>
       </c>
-      <c r="G108" t="n">
-        <v>860</v>
-      </c>
-      <c r="H108" t="n">
-        <v>847.2166666666667</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="G137" t="n">
+        <v>37496.5401346556</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-22 BackTest WTC.xlsx
+++ b/BackTest/2019-10-22 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -501,6 +507,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -544,6 +551,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -587,6 +595,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -626,6 +635,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -669,6 +679,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -712,6 +723,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -751,6 +763,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -794,6 +807,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -837,6 +851,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -880,6 +895,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -923,6 +939,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -966,6 +983,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1009,6 +1027,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1052,6 +1071,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1095,6 +1115,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1138,6 +1159,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1179,6 +1201,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1220,6 +1243,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1263,6 +1287,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1306,6 +1331,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1349,6 +1375,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1392,6 +1419,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1435,6 +1463,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1478,6 +1507,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1521,6 +1551,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1564,6 +1595,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1607,6 +1639,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1650,6 +1683,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1693,6 +1727,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1734,6 +1769,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1775,6 +1811,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1816,6 +1853,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1857,6 +1895,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1898,6 +1937,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1939,6 +1979,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1980,6 +2021,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2021,6 +2063,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2062,6 +2105,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2103,6 +2147,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2144,6 +2189,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2185,6 +2231,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2226,6 +2273,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2267,6 +2315,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2308,6 +2357,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2349,6 +2399,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2390,6 +2441,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2431,6 +2483,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2472,6 +2525,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2513,6 +2567,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2554,6 +2609,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2595,6 +2651,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2636,6 +2693,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2677,6 +2735,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2718,6 +2777,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2759,6 +2819,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2800,6 +2861,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2841,6 +2903,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2882,6 +2945,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2923,6 +2987,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2964,6 +3029,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3005,6 +3071,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3046,6 +3113,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3087,6 +3155,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3128,6 +3197,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3169,6 +3239,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3210,6 +3281,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3251,6 +3323,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3292,6 +3365,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3333,6 +3407,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3374,6 +3449,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3415,6 +3491,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3456,6 +3533,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3497,6 +3575,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3538,6 +3617,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3579,6 +3659,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3620,6 +3701,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3661,6 +3743,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3702,6 +3785,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3743,6 +3827,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3784,6 +3869,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3825,6 +3911,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3866,6 +3953,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3907,6 +3995,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3948,6 +4037,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3989,6 +4079,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4030,6 +4121,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4071,6 +4163,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4112,6 +4205,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4153,6 +4247,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4194,6 +4289,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4235,6 +4331,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4276,6 +4373,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4317,6 +4415,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4358,6 +4457,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4399,6 +4499,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4440,6 +4541,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4481,6 +4583,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4522,6 +4625,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4563,6 +4667,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4604,6 +4709,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4645,6 +4751,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4686,6 +4793,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4727,6 +4835,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4768,6 +4877,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4809,6 +4919,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4850,6 +4961,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4891,6 +5003,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4932,6 +5045,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4973,6 +5087,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5014,6 +5129,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5055,6 +5171,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5096,6 +5213,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5137,6 +5255,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5178,6 +5297,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5219,6 +5339,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5260,6 +5381,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5301,6 +5423,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5342,6 +5465,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5369,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
@@ -5377,11 +5501,14 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>1</v>
+        <v>1.052457212713936</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1.007380073800738</v>
       </c>
     </row>
     <row r="122">
@@ -5410,20 +5537,15 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>818</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5454,17 +5576,12 @@
         <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>818</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>1.053679706601467</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5500,6 +5617,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5535,6 +5653,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5570,6 +5689,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5605,6 +5725,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5640,6 +5761,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5675,6 +5797,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5702,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5710,6 +5833,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5745,6 +5869,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5780,6 +5905,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5815,6 +5941,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5850,6 +5977,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5885,6 +6013,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5920,6 +6049,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5955,6 +6085,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-22 BackTest WTC.xlsx
+++ b/BackTest/2019-10-22 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N137"/>
+  <dimension ref="A1:N166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="C2" t="n">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D2" t="n">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="E2" t="n">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F2" t="n">
-        <v>1016</v>
+        <v>331.4737</v>
       </c>
       <c r="G2" t="n">
-        <v>-7783.364</v>
+        <v>-3706.714899999999</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="C3" t="n">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="D3" t="n">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="E3" t="n">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F3" t="n">
-        <v>278.3812</v>
+        <v>254.92</v>
       </c>
       <c r="G3" t="n">
-        <v>-7504.982800000001</v>
+        <v>-3706.714899999999</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="K3" t="n">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
@@ -514,22 +514,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C4" t="n">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="D4" t="n">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="E4" t="n">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="F4" t="n">
-        <v>45.3999</v>
+        <v>179.0499</v>
       </c>
       <c r="G4" t="n">
-        <v>-7504.982800000001</v>
+        <v>-3527.665</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="K4" t="n">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -558,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C5" t="n">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="D5" t="n">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="E5" t="n">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="F5" t="n">
-        <v>480.52</v>
+        <v>627.2593000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>-7504.982800000001</v>
+        <v>-3527.665</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="K5" t="n">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -602,22 +602,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="C6" t="n">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D6" t="n">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="E6" t="n">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F6" t="n">
-        <v>37.8099</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="n">
-        <v>-7467.1729</v>
+        <v>-4527.664999999999</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="K6" t="n">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
@@ -642,22 +642,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C7" t="n">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="D7" t="n">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E7" t="n">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="F7" t="n">
-        <v>2100.2402</v>
+        <v>292.6498</v>
       </c>
       <c r="G7" t="n">
-        <v>-9567.413100000002</v>
+        <v>-4820.314799999999</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -666,14 +666,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="K7" t="n">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -686,22 +686,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C8" t="n">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D8" t="n">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="E8" t="n">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="F8" t="n">
-        <v>1224.0719</v>
+        <v>62.3642</v>
       </c>
       <c r="G8" t="n">
-        <v>-8343.341200000003</v>
+        <v>-4757.950599999999</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -710,14 +710,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="K8" t="n">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -730,22 +730,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C9" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D9" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E9" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F9" t="n">
-        <v>1097.1281</v>
+        <v>657</v>
       </c>
       <c r="G9" t="n">
-        <v>-9440.469300000002</v>
+        <v>-5414.950599999999</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -754,12 +754,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="K9" t="n">
-        <v>818</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -770,38 +774,36 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C10" t="n">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D10" t="n">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E10" t="n">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F10" t="n">
-        <v>642.6022</v>
+        <v>44.1025</v>
       </c>
       <c r="G10" t="n">
-        <v>-9440.469300000002</v>
+        <v>-5370.848099999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>815</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -814,38 +816,36 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="C11" t="n">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="D11" t="n">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="E11" t="n">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="F11" t="n">
-        <v>50.4029</v>
+        <v>812.7906</v>
       </c>
       <c r="G11" t="n">
-        <v>-9390.066400000003</v>
+        <v>-6183.6387</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>815</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -858,38 +858,36 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="C12" t="n">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="D12" t="n">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="E12" t="n">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="F12" t="n">
-        <v>2155</v>
+        <v>432.5099</v>
       </c>
       <c r="G12" t="n">
-        <v>-11545.0664</v>
+        <v>-6183.6387</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>819</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -902,34 +900,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C13" t="n">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D13" t="n">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E13" t="n">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F13" t="n">
-        <v>1558.7223</v>
+        <v>958.3737</v>
       </c>
       <c r="G13" t="n">
-        <v>-13103.7887</v>
+        <v>-5225.264999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>816</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -946,34 +942,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="C14" t="n">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D14" t="n">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="E14" t="n">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="F14" t="n">
-        <v>941.2777</v>
+        <v>1292.2209</v>
       </c>
       <c r="G14" t="n">
-        <v>-13103.7887</v>
+        <v>-6517.4859</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>815</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -990,22 +984,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C15" t="n">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D15" t="n">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="E15" t="n">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F15" t="n">
-        <v>1165</v>
+        <v>22.4103</v>
       </c>
       <c r="G15" t="n">
-        <v>-14268.7887</v>
+        <v>-6495.0756</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1014,10 +1008,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="K15" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1034,34 +1028,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="C16" t="n">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="D16" t="n">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="E16" t="n">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="F16" t="n">
-        <v>1365.2009</v>
+        <v>450.2038</v>
       </c>
       <c r="G16" t="n">
-        <v>-12903.5878</v>
+        <v>-6945.2794</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>812</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1078,22 +1070,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="C17" t="n">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="D17" t="n">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="E17" t="n">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="F17" t="n">
-        <v>1645.2005</v>
+        <v>782.7882</v>
       </c>
       <c r="G17" t="n">
-        <v>-11258.3873</v>
+        <v>-7728.0676</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1102,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="K17" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1122,22 +1114,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="C18" t="n">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="D18" t="n">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="E18" t="n">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="F18" t="n">
-        <v>540</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>-10718.3873</v>
+        <v>-7725.0676</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1146,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="K18" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1166,32 +1158,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="C19" t="n">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="D19" t="n">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="E19" t="n">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="F19" t="n">
-        <v>798.9778</v>
+        <v>36.6987</v>
       </c>
       <c r="G19" t="n">
-        <v>-11517.3651</v>
+        <v>-7725.0676</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>811</v>
+      </c>
       <c r="K19" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1208,32 +1202,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C20" t="n">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D20" t="n">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="E20" t="n">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="F20" t="n">
-        <v>85.5121</v>
+        <v>672.6618</v>
       </c>
       <c r="G20" t="n">
-        <v>-11602.8772</v>
+        <v>-7052.4058</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>811</v>
+      </c>
       <c r="K20" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1250,22 +1246,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="C21" t="n">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D21" t="n">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="E21" t="n">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="F21" t="n">
-        <v>89.20999999999999</v>
+        <v>102.5364</v>
       </c>
       <c r="G21" t="n">
-        <v>-11513.6672</v>
+        <v>-7052.4058</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1274,10 +1270,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="K21" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1294,22 +1290,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C22" t="n">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="D22" t="n">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="E22" t="n">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="F22" t="n">
-        <v>346.629</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>-11513.6672</v>
+        <v>-7050.4058</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1318,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="K22" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1338,22 +1334,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="C23" t="n">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="D23" t="n">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="E23" t="n">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="F23" t="n">
-        <v>15.13</v>
+        <v>500</v>
       </c>
       <c r="G23" t="n">
-        <v>-11513.6672</v>
+        <v>-7550.4058</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1362,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="K23" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1382,22 +1378,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C24" t="n">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="D24" t="n">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="E24" t="n">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="F24" t="n">
-        <v>393.7436</v>
+        <v>574.8799</v>
       </c>
       <c r="G24" t="n">
-        <v>-11907.4108</v>
+        <v>-6975.525900000001</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1406,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="K24" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1426,22 +1422,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C25" t="n">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D25" t="n">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="E25" t="n">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F25" t="n">
-        <v>177.9</v>
+        <v>323.2598</v>
       </c>
       <c r="G25" t="n">
-        <v>-11729.5108</v>
+        <v>-6652.266100000001</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1450,10 +1446,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="K25" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1470,22 +1466,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C26" t="n">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="D26" t="n">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="E26" t="n">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>2.8968</v>
       </c>
       <c r="G26" t="n">
-        <v>-11749.5108</v>
+        <v>-6652.266100000001</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1494,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="K26" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1514,22 +1510,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C27" t="n">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D27" t="n">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="E27" t="n">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="F27" t="n">
-        <v>41.0831</v>
+        <v>534.2388</v>
       </c>
       <c r="G27" t="n">
-        <v>-11790.5939</v>
+        <v>-7186.504900000001</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1538,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="K27" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1558,22 +1554,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="C28" t="n">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="D28" t="n">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="E28" t="n">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="F28" t="n">
-        <v>1118.94</v>
+        <v>1350.2884</v>
       </c>
       <c r="G28" t="n">
-        <v>-10671.6539</v>
+        <v>-7186.504900000001</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1582,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="K28" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1602,22 +1598,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C29" t="n">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="D29" t="n">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="E29" t="n">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F29" t="n">
-        <v>1833.0209</v>
+        <v>419.1409</v>
       </c>
       <c r="G29" t="n">
-        <v>-8838.633000000003</v>
+        <v>-6767.364</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1626,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="K29" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1646,22 +1642,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="C30" t="n">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="D30" t="n">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="E30" t="n">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="F30" t="n">
-        <v>19.95</v>
+        <v>658.7889</v>
       </c>
       <c r="G30" t="n">
-        <v>-8838.633000000003</v>
+        <v>-6767.364</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1670,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="K30" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1690,22 +1686,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="C31" t="n">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="D31" t="n">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="E31" t="n">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="F31" t="n">
-        <v>566.5321</v>
+        <v>1016</v>
       </c>
       <c r="G31" t="n">
-        <v>-8272.100900000003</v>
+        <v>-7783.364</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1714,10 +1710,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="K31" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1734,32 +1730,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="C32" t="n">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="D32" t="n">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="E32" t="n">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8359</v>
+        <v>278.3812</v>
       </c>
       <c r="G32" t="n">
-        <v>-7865.265000000003</v>
+        <v>-7504.982800000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>813</v>
+      </c>
       <c r="K32" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1776,32 +1774,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="C33" t="n">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="D33" t="n">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="E33" t="n">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="F33" t="n">
-        <v>407.0058</v>
+        <v>45.3999</v>
       </c>
       <c r="G33" t="n">
-        <v>-8272.270800000004</v>
+        <v>-7504.982800000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>815</v>
+      </c>
       <c r="K33" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1818,32 +1818,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>842</v>
+        <v>815</v>
       </c>
       <c r="C34" t="n">
-        <v>842</v>
+        <v>815</v>
       </c>
       <c r="D34" t="n">
-        <v>842</v>
+        <v>815</v>
       </c>
       <c r="E34" t="n">
-        <v>842</v>
+        <v>815</v>
       </c>
       <c r="F34" t="n">
-        <v>246.7945</v>
+        <v>480.52</v>
       </c>
       <c r="G34" t="n">
-        <v>-8025.476300000004</v>
+        <v>-7504.982800000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>815</v>
+      </c>
       <c r="K34" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1860,32 +1862,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="C35" t="n">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="D35" t="n">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="E35" t="n">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="F35" t="n">
-        <v>2066.0799</v>
+        <v>37.8099</v>
       </c>
       <c r="G35" t="n">
-        <v>-5959.396400000003</v>
+        <v>-7467.1729</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>815</v>
+      </c>
       <c r="K35" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1902,32 +1906,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>843</v>
+        <v>813</v>
       </c>
       <c r="C36" t="n">
-        <v>843</v>
+        <v>813</v>
       </c>
       <c r="D36" t="n">
-        <v>843</v>
+        <v>813</v>
       </c>
       <c r="E36" t="n">
-        <v>843</v>
+        <v>813</v>
       </c>
       <c r="F36" t="n">
-        <v>90.52</v>
+        <v>2100.2402</v>
       </c>
       <c r="G36" t="n">
-        <v>-5959.396400000003</v>
+        <v>-9567.413100000002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>816</v>
+      </c>
       <c r="K36" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1944,32 +1950,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="C37" t="n">
-        <v>843</v>
+        <v>818</v>
       </c>
       <c r="D37" t="n">
-        <v>843</v>
+        <v>818</v>
       </c>
       <c r="E37" t="n">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="F37" t="n">
-        <v>147.5584</v>
+        <v>1224.0719</v>
       </c>
       <c r="G37" t="n">
-        <v>-5959.396400000003</v>
+        <v>-8343.341200000003</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>813</v>
+      </c>
       <c r="K37" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1986,22 +1994,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>844</v>
+        <v>815</v>
       </c>
       <c r="C38" t="n">
-        <v>844</v>
+        <v>815</v>
       </c>
       <c r="D38" t="n">
-        <v>844</v>
+        <v>815</v>
       </c>
       <c r="E38" t="n">
-        <v>844</v>
+        <v>815</v>
       </c>
       <c r="F38" t="n">
-        <v>235.4</v>
+        <v>1097.1281</v>
       </c>
       <c r="G38" t="n">
-        <v>-5723.996400000004</v>
+        <v>-9440.469300000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2011,7 +2019,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2028,22 +2036,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>844</v>
+        <v>815</v>
       </c>
       <c r="C39" t="n">
-        <v>845</v>
+        <v>815</v>
       </c>
       <c r="D39" t="n">
-        <v>845</v>
+        <v>815</v>
       </c>
       <c r="E39" t="n">
-        <v>839</v>
+        <v>815</v>
       </c>
       <c r="F39" t="n">
-        <v>2676.1889</v>
+        <v>642.6022</v>
       </c>
       <c r="G39" t="n">
-        <v>-3047.807500000004</v>
+        <v>-9440.469300000002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2053,7 +2061,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2070,22 +2078,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>845</v>
+        <v>819</v>
       </c>
       <c r="C40" t="n">
-        <v>850</v>
+        <v>819</v>
       </c>
       <c r="D40" t="n">
-        <v>850</v>
+        <v>819</v>
       </c>
       <c r="E40" t="n">
-        <v>845</v>
+        <v>819</v>
       </c>
       <c r="F40" t="n">
-        <v>2008.5698</v>
+        <v>50.4029</v>
       </c>
       <c r="G40" t="n">
-        <v>-1039.237700000004</v>
+        <v>-9390.066400000003</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2095,7 +2103,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2112,22 +2120,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>846</v>
+        <v>817</v>
       </c>
       <c r="C41" t="n">
-        <v>846</v>
+        <v>816</v>
       </c>
       <c r="D41" t="n">
-        <v>846</v>
+        <v>817</v>
       </c>
       <c r="E41" t="n">
-        <v>846</v>
+        <v>816</v>
       </c>
       <c r="F41" t="n">
-        <v>432.8575</v>
+        <v>2155</v>
       </c>
       <c r="G41" t="n">
-        <v>-1472.095200000004</v>
+        <v>-11545.0664</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2137,7 +2145,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2154,22 +2162,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="C42" t="n">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="D42" t="n">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="E42" t="n">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="F42" t="n">
-        <v>61.388</v>
+        <v>1558.7223</v>
       </c>
       <c r="G42" t="n">
-        <v>-1472.095200000004</v>
+        <v>-13103.7887</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2179,7 +2187,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2196,22 +2204,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="C43" t="n">
-        <v>852</v>
+        <v>815</v>
       </c>
       <c r="D43" t="n">
-        <v>852</v>
+        <v>815</v>
       </c>
       <c r="E43" t="n">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="F43" t="n">
-        <v>731.5819</v>
+        <v>941.2777</v>
       </c>
       <c r="G43" t="n">
-        <v>-740.5133000000036</v>
+        <v>-13103.7887</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2221,7 +2229,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2238,22 +2246,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>852</v>
+        <v>815</v>
       </c>
       <c r="C44" t="n">
-        <v>859</v>
+        <v>812</v>
       </c>
       <c r="D44" t="n">
-        <v>859</v>
+        <v>815</v>
       </c>
       <c r="E44" t="n">
-        <v>852</v>
+        <v>812</v>
       </c>
       <c r="F44" t="n">
-        <v>3800.3068</v>
+        <v>1165</v>
       </c>
       <c r="G44" t="n">
-        <v>3059.793499999996</v>
+        <v>-14268.7887</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2263,7 +2271,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2280,22 +2288,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>859</v>
+        <v>820</v>
       </c>
       <c r="C45" t="n">
-        <v>860</v>
+        <v>821</v>
       </c>
       <c r="D45" t="n">
-        <v>860</v>
+        <v>821</v>
       </c>
       <c r="E45" t="n">
-        <v>859</v>
+        <v>819</v>
       </c>
       <c r="F45" t="n">
-        <v>1255.6946</v>
+        <v>1365.2009</v>
       </c>
       <c r="G45" t="n">
-        <v>4315.488099999996</v>
+        <v>-12903.5878</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2305,7 +2313,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2322,22 +2330,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>858</v>
+        <v>823</v>
       </c>
       <c r="C46" t="n">
-        <v>858</v>
+        <v>823</v>
       </c>
       <c r="D46" t="n">
-        <v>858</v>
+        <v>823</v>
       </c>
       <c r="E46" t="n">
-        <v>858</v>
+        <v>823</v>
       </c>
       <c r="F46" t="n">
-        <v>305.4883</v>
+        <v>1645.2005</v>
       </c>
       <c r="G46" t="n">
-        <v>4009.999799999996</v>
+        <v>-11258.3873</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2347,7 +2355,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2364,22 +2372,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>861</v>
+        <v>824</v>
       </c>
       <c r="C47" t="n">
-        <v>865</v>
+        <v>825</v>
       </c>
       <c r="D47" t="n">
-        <v>865</v>
+        <v>825</v>
       </c>
       <c r="E47" t="n">
-        <v>861</v>
+        <v>824</v>
       </c>
       <c r="F47" t="n">
-        <v>1156.0693</v>
+        <v>540</v>
       </c>
       <c r="G47" t="n">
-        <v>5166.069099999996</v>
+        <v>-10718.3873</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2389,7 +2397,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2406,22 +2414,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>865</v>
+        <v>823</v>
       </c>
       <c r="C48" t="n">
-        <v>862</v>
+        <v>823</v>
       </c>
       <c r="D48" t="n">
-        <v>865</v>
+        <v>823</v>
       </c>
       <c r="E48" t="n">
-        <v>862</v>
+        <v>823</v>
       </c>
       <c r="F48" t="n">
-        <v>905.7058</v>
+        <v>798.9778</v>
       </c>
       <c r="G48" t="n">
-        <v>4260.363299999996</v>
+        <v>-11517.3651</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2431,7 +2439,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2448,22 +2456,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>865</v>
+        <v>818</v>
       </c>
       <c r="C49" t="n">
-        <v>880</v>
+        <v>818</v>
       </c>
       <c r="D49" t="n">
-        <v>883</v>
+        <v>818</v>
       </c>
       <c r="E49" t="n">
-        <v>857</v>
+        <v>818</v>
       </c>
       <c r="F49" t="n">
-        <v>11678.1877</v>
+        <v>85.5121</v>
       </c>
       <c r="G49" t="n">
-        <v>15938.551</v>
+        <v>-11602.8772</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2473,7 +2481,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2490,22 +2498,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>868</v>
+        <v>819</v>
       </c>
       <c r="C50" t="n">
-        <v>864</v>
+        <v>819</v>
       </c>
       <c r="D50" t="n">
-        <v>868</v>
+        <v>819</v>
       </c>
       <c r="E50" t="n">
-        <v>864</v>
+        <v>819</v>
       </c>
       <c r="F50" t="n">
-        <v>1475.1261</v>
+        <v>89.20999999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>14463.4249</v>
+        <v>-11513.6672</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2515,7 +2523,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2532,22 +2540,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>858</v>
+        <v>818</v>
       </c>
       <c r="C51" t="n">
-        <v>858</v>
+        <v>819</v>
       </c>
       <c r="D51" t="n">
-        <v>858</v>
+        <v>819</v>
       </c>
       <c r="E51" t="n">
-        <v>858</v>
+        <v>818</v>
       </c>
       <c r="F51" t="n">
-        <v>500</v>
+        <v>346.629</v>
       </c>
       <c r="G51" t="n">
-        <v>13963.4249</v>
+        <v>-11513.6672</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2557,7 +2565,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2574,22 +2582,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>863</v>
+        <v>819</v>
       </c>
       <c r="C52" t="n">
-        <v>865</v>
+        <v>819</v>
       </c>
       <c r="D52" t="n">
-        <v>866</v>
+        <v>819</v>
       </c>
       <c r="E52" t="n">
-        <v>861</v>
+        <v>819</v>
       </c>
       <c r="F52" t="n">
-        <v>1606.4166</v>
+        <v>15.13</v>
       </c>
       <c r="G52" t="n">
-        <v>15569.8415</v>
+        <v>-11513.6672</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2599,7 +2607,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2616,22 +2624,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>865</v>
+        <v>817</v>
       </c>
       <c r="C53" t="n">
-        <v>868</v>
+        <v>817</v>
       </c>
       <c r="D53" t="n">
-        <v>869</v>
+        <v>817</v>
       </c>
       <c r="E53" t="n">
-        <v>865</v>
+        <v>817</v>
       </c>
       <c r="F53" t="n">
-        <v>4642.5851</v>
+        <v>393.7436</v>
       </c>
       <c r="G53" t="n">
-        <v>20212.4266</v>
+        <v>-11907.4108</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2641,7 +2649,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2658,22 +2666,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>868</v>
+        <v>817</v>
       </c>
       <c r="C54" t="n">
-        <v>880</v>
+        <v>821</v>
       </c>
       <c r="D54" t="n">
-        <v>880</v>
+        <v>821</v>
       </c>
       <c r="E54" t="n">
-        <v>868</v>
+        <v>817</v>
       </c>
       <c r="F54" t="n">
-        <v>380.84</v>
+        <v>177.9</v>
       </c>
       <c r="G54" t="n">
-        <v>20593.2666</v>
+        <v>-11729.5108</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2683,7 +2691,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2700,22 +2708,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>868</v>
+        <v>818</v>
       </c>
       <c r="C55" t="n">
-        <v>855</v>
+        <v>818</v>
       </c>
       <c r="D55" t="n">
-        <v>868</v>
+        <v>818</v>
       </c>
       <c r="E55" t="n">
-        <v>851</v>
+        <v>818</v>
       </c>
       <c r="F55" t="n">
-        <v>354.8336</v>
+        <v>20</v>
       </c>
       <c r="G55" t="n">
-        <v>20238.433</v>
+        <v>-11749.5108</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2725,7 +2733,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2742,22 +2750,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>877</v>
+        <v>809</v>
       </c>
       <c r="C56" t="n">
-        <v>858</v>
+        <v>809</v>
       </c>
       <c r="D56" t="n">
-        <v>877</v>
+        <v>809</v>
       </c>
       <c r="E56" t="n">
-        <v>857</v>
+        <v>809</v>
       </c>
       <c r="F56" t="n">
-        <v>5122.7311</v>
+        <v>41.0831</v>
       </c>
       <c r="G56" t="n">
-        <v>25361.1641</v>
+        <v>-11790.5939</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2767,7 +2775,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2784,22 +2792,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>863</v>
+        <v>820</v>
       </c>
       <c r="C57" t="n">
-        <v>859</v>
+        <v>821</v>
       </c>
       <c r="D57" t="n">
-        <v>863</v>
+        <v>821</v>
       </c>
       <c r="E57" t="n">
-        <v>854</v>
+        <v>820</v>
       </c>
       <c r="F57" t="n">
-        <v>3556.988</v>
+        <v>1118.94</v>
       </c>
       <c r="G57" t="n">
-        <v>28918.1521</v>
+        <v>-10671.6539</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2809,7 +2817,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2826,22 +2834,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>863</v>
+        <v>820</v>
       </c>
       <c r="C58" t="n">
-        <v>863</v>
+        <v>826</v>
       </c>
       <c r="D58" t="n">
-        <v>863</v>
+        <v>826</v>
       </c>
       <c r="E58" t="n">
-        <v>863</v>
+        <v>820</v>
       </c>
       <c r="F58" t="n">
-        <v>86.9743</v>
+        <v>1833.0209</v>
       </c>
       <c r="G58" t="n">
-        <v>29005.1264</v>
+        <v>-8838.633000000003</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2851,7 +2859,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2868,22 +2876,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>866</v>
+        <v>826</v>
       </c>
       <c r="C59" t="n">
-        <v>863</v>
+        <v>826</v>
       </c>
       <c r="D59" t="n">
-        <v>873</v>
+        <v>826</v>
       </c>
       <c r="E59" t="n">
-        <v>863</v>
+        <v>826</v>
       </c>
       <c r="F59" t="n">
-        <v>1841.3369</v>
+        <v>19.95</v>
       </c>
       <c r="G59" t="n">
-        <v>29005.1264</v>
+        <v>-8838.633000000003</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2893,7 +2901,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2910,22 +2918,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>868</v>
+        <v>836</v>
       </c>
       <c r="C60" t="n">
-        <v>858</v>
+        <v>836</v>
       </c>
       <c r="D60" t="n">
-        <v>868</v>
+        <v>836</v>
       </c>
       <c r="E60" t="n">
-        <v>858</v>
+        <v>836</v>
       </c>
       <c r="F60" t="n">
-        <v>519.0011</v>
+        <v>566.5321</v>
       </c>
       <c r="G60" t="n">
-        <v>28486.1253</v>
+        <v>-8272.100900000003</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2935,7 +2943,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2952,22 +2960,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="C61" t="n">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="D61" t="n">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="E61" t="n">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="F61" t="n">
-        <v>402.1155</v>
+        <v>406.8359</v>
       </c>
       <c r="G61" t="n">
-        <v>28486.1253</v>
+        <v>-7865.265000000003</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2977,7 +2985,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2994,22 +3002,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="C62" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="D62" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="E62" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="F62" t="n">
-        <v>1721.1359</v>
+        <v>407.0058</v>
       </c>
       <c r="G62" t="n">
-        <v>26764.9894</v>
+        <v>-8272.270800000004</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3019,7 +3027,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3036,22 +3044,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="C63" t="n">
-        <v>861</v>
+        <v>842</v>
       </c>
       <c r="D63" t="n">
-        <v>861</v>
+        <v>842</v>
       </c>
       <c r="E63" t="n">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="F63" t="n">
-        <v>1403.816</v>
+        <v>246.7945</v>
       </c>
       <c r="G63" t="n">
-        <v>28168.8054</v>
+        <v>-8025.476300000004</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3061,7 +3069,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3078,22 +3086,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="C64" t="n">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="D64" t="n">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="E64" t="n">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="F64" t="n">
-        <v>1160.0928</v>
+        <v>2066.0799</v>
       </c>
       <c r="G64" t="n">
-        <v>29328.8982</v>
+        <v>-5959.396400000003</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3103,7 +3111,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3120,22 +3128,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>866</v>
+        <v>843</v>
       </c>
       <c r="C65" t="n">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="D65" t="n">
-        <v>866</v>
+        <v>843</v>
       </c>
       <c r="E65" t="n">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="F65" t="n">
-        <v>2780.8503</v>
+        <v>90.52</v>
       </c>
       <c r="G65" t="n">
-        <v>26548.0479</v>
+        <v>-5959.396400000003</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3145,7 +3153,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3162,22 +3170,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="C66" t="n">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="D66" t="n">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="E66" t="n">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="F66" t="n">
-        <v>2157.411309280742</v>
+        <v>147.5584</v>
       </c>
       <c r="G66" t="n">
-        <v>28705.45920928074</v>
+        <v>-5959.396400000003</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3187,7 +3195,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3204,22 +3212,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="C67" t="n">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="D67" t="n">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="E67" t="n">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="F67" t="n">
-        <v>2473</v>
+        <v>235.4</v>
       </c>
       <c r="G67" t="n">
-        <v>26232.45920928074</v>
+        <v>-5723.996400000004</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3229,7 +3237,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3246,22 +3254,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C68" t="n">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="D68" t="n">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="E68" t="n">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="F68" t="n">
-        <v>1320.7479</v>
+        <v>2676.1889</v>
       </c>
       <c r="G68" t="n">
-        <v>24911.71130928074</v>
+        <v>-3047.807500000004</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3271,7 +3279,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3288,22 +3296,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>845</v>
+      </c>
+      <c r="C69" t="n">
         <v>850</v>
       </c>
-      <c r="C69" t="n">
-        <v>854</v>
-      </c>
       <c r="D69" t="n">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E69" t="n">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="F69" t="n">
-        <v>1417.0837</v>
+        <v>2008.5698</v>
       </c>
       <c r="G69" t="n">
-        <v>23494.62760928074</v>
+        <v>-1039.237700000004</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3313,7 +3321,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3330,22 +3338,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C70" t="n">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="D70" t="n">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="E70" t="n">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F70" t="n">
-        <v>3683.7091</v>
+        <v>432.8575</v>
       </c>
       <c r="G70" t="n">
-        <v>27178.33670928074</v>
+        <v>-1472.095200000004</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3355,7 +3363,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3372,22 +3380,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C71" t="n">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="D71" t="n">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="E71" t="n">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F71" t="n">
-        <v>956.8338</v>
+        <v>61.388</v>
       </c>
       <c r="G71" t="n">
-        <v>26221.50290928074</v>
+        <v>-1472.095200000004</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3397,7 +3405,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3414,22 +3422,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C72" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D72" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E72" t="n">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F72" t="n">
-        <v>209.1834</v>
+        <v>731.5819</v>
       </c>
       <c r="G72" t="n">
-        <v>26012.31950928074</v>
+        <v>-740.5133000000036</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3439,7 +3447,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3456,22 +3464,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C73" t="n">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="D73" t="n">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="E73" t="n">
         <v>852</v>
       </c>
       <c r="F73" t="n">
-        <v>1064.6121</v>
+        <v>3800.3068</v>
       </c>
       <c r="G73" t="n">
-        <v>27076.93160928074</v>
+        <v>3059.793499999996</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3481,7 +3489,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3498,22 +3506,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="C74" t="n">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="D74" t="n">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="E74" t="n">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="F74" t="n">
-        <v>613.8436</v>
+        <v>1255.6946</v>
       </c>
       <c r="G74" t="n">
-        <v>27690.77520928074</v>
+        <v>4315.488099999996</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3523,7 +3531,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3540,22 +3548,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="C75" t="n">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="D75" t="n">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="E75" t="n">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="F75" t="n">
-        <v>317.5784</v>
+        <v>305.4883</v>
       </c>
       <c r="G75" t="n">
-        <v>27373.19680928074</v>
+        <v>4009.999799999996</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3565,7 +3573,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3582,22 +3590,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="C76" t="n">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="D76" t="n">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="E76" t="n">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="F76" t="n">
-        <v>1334.7375</v>
+        <v>1156.0693</v>
       </c>
       <c r="G76" t="n">
-        <v>27373.19680928074</v>
+        <v>5166.069099999996</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3607,7 +3615,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3624,22 +3632,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>851</v>
+        <v>865</v>
       </c>
       <c r="C77" t="n">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="D77" t="n">
-        <v>854</v>
+        <v>865</v>
       </c>
       <c r="E77" t="n">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="F77" t="n">
-        <v>801</v>
+        <v>905.7058</v>
       </c>
       <c r="G77" t="n">
-        <v>28174.19680928074</v>
+        <v>4260.363299999996</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3649,7 +3657,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3666,22 +3674,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>854</v>
+        <v>865</v>
       </c>
       <c r="C78" t="n">
-        <v>846</v>
+        <v>880</v>
       </c>
       <c r="D78" t="n">
-        <v>854</v>
+        <v>883</v>
       </c>
       <c r="E78" t="n">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="F78" t="n">
-        <v>203.8273</v>
+        <v>11678.1877</v>
       </c>
       <c r="G78" t="n">
-        <v>27970.36950928074</v>
+        <v>15938.551</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3691,7 +3699,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3708,22 +3716,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>841</v>
+        <v>868</v>
       </c>
       <c r="C79" t="n">
-        <v>841</v>
+        <v>864</v>
       </c>
       <c r="D79" t="n">
-        <v>841</v>
+        <v>868</v>
       </c>
       <c r="E79" t="n">
-        <v>841</v>
+        <v>864</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>1475.1261</v>
       </c>
       <c r="G79" t="n">
-        <v>27969.36950928074</v>
+        <v>14463.4249</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3733,7 +3741,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3750,22 +3758,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>838</v>
+        <v>858</v>
       </c>
       <c r="C80" t="n">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D80" t="n">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="E80" t="n">
-        <v>838</v>
+        <v>858</v>
       </c>
       <c r="F80" t="n">
-        <v>603.0928</v>
+        <v>500</v>
       </c>
       <c r="G80" t="n">
-        <v>28572.46230928074</v>
+        <v>13963.4249</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3775,7 +3783,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3792,22 +3800,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>833</v>
+        <v>863</v>
       </c>
       <c r="C81" t="n">
-        <v>833</v>
+        <v>865</v>
       </c>
       <c r="D81" t="n">
-        <v>833</v>
+        <v>866</v>
       </c>
       <c r="E81" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>1606.4166</v>
       </c>
       <c r="G81" t="n">
-        <v>28571.46230928074</v>
+        <v>15569.8415</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3817,7 +3825,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3834,22 +3842,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>832</v>
+        <v>865</v>
       </c>
       <c r="C82" t="n">
-        <v>832</v>
+        <v>868</v>
       </c>
       <c r="D82" t="n">
-        <v>832</v>
+        <v>869</v>
       </c>
       <c r="E82" t="n">
-        <v>832</v>
+        <v>865</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>4642.5851</v>
       </c>
       <c r="G82" t="n">
-        <v>28570.46230928074</v>
+        <v>20212.4266</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3859,7 +3867,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3876,22 +3884,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>843</v>
+        <v>868</v>
       </c>
       <c r="C83" t="n">
-        <v>843</v>
+        <v>880</v>
       </c>
       <c r="D83" t="n">
-        <v>843</v>
+        <v>880</v>
       </c>
       <c r="E83" t="n">
-        <v>843</v>
+        <v>868</v>
       </c>
       <c r="F83" t="n">
-        <v>568.7536</v>
+        <v>380.84</v>
       </c>
       <c r="G83" t="n">
-        <v>29139.21590928074</v>
+        <v>20593.2666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3901,7 +3909,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3918,22 +3926,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>848</v>
+        <v>868</v>
       </c>
       <c r="C84" t="n">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="D84" t="n">
-        <v>848</v>
+        <v>868</v>
       </c>
       <c r="E84" t="n">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="F84" t="n">
-        <v>154.6399</v>
+        <v>354.8336</v>
       </c>
       <c r="G84" t="n">
-        <v>29293.85580928074</v>
+        <v>20238.433</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3943,7 +3951,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3960,22 +3968,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>842</v>
+        <v>877</v>
       </c>
       <c r="C85" t="n">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="D85" t="n">
-        <v>842</v>
+        <v>877</v>
       </c>
       <c r="E85" t="n">
-        <v>842</v>
+        <v>857</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>5122.7311</v>
       </c>
       <c r="G85" t="n">
-        <v>29292.85580928074</v>
+        <v>25361.1641</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3985,7 +3993,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -4002,22 +4010,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>842</v>
+        <v>863</v>
       </c>
       <c r="C86" t="n">
-        <v>839</v>
+        <v>859</v>
       </c>
       <c r="D86" t="n">
-        <v>842</v>
+        <v>863</v>
       </c>
       <c r="E86" t="n">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="F86" t="n">
-        <v>446.8836</v>
+        <v>3556.988</v>
       </c>
       <c r="G86" t="n">
-        <v>28845.97220928074</v>
+        <v>28918.1521</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4027,7 +4035,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4044,22 +4052,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>844</v>
+        <v>863</v>
       </c>
       <c r="C87" t="n">
-        <v>846</v>
+        <v>863</v>
       </c>
       <c r="D87" t="n">
-        <v>846</v>
+        <v>863</v>
       </c>
       <c r="E87" t="n">
-        <v>844</v>
+        <v>863</v>
       </c>
       <c r="F87" t="n">
-        <v>971.5945</v>
+        <v>86.9743</v>
       </c>
       <c r="G87" t="n">
-        <v>29817.56670928073</v>
+        <v>29005.1264</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4069,7 +4077,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4086,22 +4094,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>842</v>
+        <v>866</v>
       </c>
       <c r="C88" t="n">
-        <v>842</v>
+        <v>863</v>
       </c>
       <c r="D88" t="n">
-        <v>842</v>
+        <v>873</v>
       </c>
       <c r="E88" t="n">
-        <v>842</v>
+        <v>863</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>1841.3369</v>
       </c>
       <c r="G88" t="n">
-        <v>29816.56670928073</v>
+        <v>29005.1264</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4111,7 +4119,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4128,22 +4136,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>842</v>
+        <v>868</v>
       </c>
       <c r="C89" t="n">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="D89" t="n">
-        <v>842</v>
+        <v>868</v>
       </c>
       <c r="E89" t="n">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="F89" t="n">
-        <v>110.4061</v>
+        <v>519.0011</v>
       </c>
       <c r="G89" t="n">
-        <v>29816.56670928073</v>
+        <v>28486.1253</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4153,7 +4161,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4170,22 +4178,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>837</v>
+        <v>862</v>
       </c>
       <c r="C90" t="n">
-        <v>837</v>
+        <v>858</v>
       </c>
       <c r="D90" t="n">
-        <v>837</v>
+        <v>862</v>
       </c>
       <c r="E90" t="n">
-        <v>837</v>
+        <v>858</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>402.1155</v>
       </c>
       <c r="G90" t="n">
-        <v>29815.56670928073</v>
+        <v>28486.1253</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4195,7 +4203,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4212,22 +4220,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="C91" t="n">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="D91" t="n">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="E91" t="n">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="F91" t="n">
-        <v>318.75</v>
+        <v>1721.1359</v>
       </c>
       <c r="G91" t="n">
-        <v>30134.31670928073</v>
+        <v>26764.9894</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4237,7 +4245,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4254,22 +4262,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="C92" t="n">
-        <v>839</v>
+        <v>861</v>
       </c>
       <c r="D92" t="n">
-        <v>840</v>
+        <v>861</v>
       </c>
       <c r="E92" t="n">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="F92" t="n">
-        <v>162.1515</v>
+        <v>1403.816</v>
       </c>
       <c r="G92" t="n">
-        <v>29972.16520928073</v>
+        <v>28168.8054</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4279,7 +4287,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4296,22 +4304,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>840</v>
+        <v>862</v>
       </c>
       <c r="C93" t="n">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="D93" t="n">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="E93" t="n">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="F93" t="n">
-        <v>2030.8232</v>
+        <v>1160.0928</v>
       </c>
       <c r="G93" t="n">
-        <v>32002.98840928073</v>
+        <v>29328.8982</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4321,7 +4329,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4338,22 +4346,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>844</v>
+        <v>866</v>
       </c>
       <c r="C94" t="n">
-        <v>839</v>
+        <v>852</v>
       </c>
       <c r="D94" t="n">
-        <v>845</v>
+        <v>866</v>
       </c>
       <c r="E94" t="n">
-        <v>839</v>
+        <v>852</v>
       </c>
       <c r="F94" t="n">
-        <v>443.7751</v>
+        <v>2780.8503</v>
       </c>
       <c r="G94" t="n">
-        <v>31559.21330928073</v>
+        <v>26548.0479</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4363,7 +4371,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4380,22 +4388,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="C95" t="n">
-        <v>845</v>
+        <v>864</v>
       </c>
       <c r="D95" t="n">
-        <v>845</v>
+        <v>864</v>
       </c>
       <c r="E95" t="n">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="F95" t="n">
-        <v>196.9599</v>
+        <v>2157.411309280742</v>
       </c>
       <c r="G95" t="n">
-        <v>31756.17320928074</v>
+        <v>28705.45920928074</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4405,7 +4413,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4422,22 +4430,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="C96" t="n">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="D96" t="n">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="E96" t="n">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F96" t="n">
-        <v>400.1069</v>
+        <v>2473</v>
       </c>
       <c r="G96" t="n">
-        <v>32156.28010928073</v>
+        <v>26232.45920928074</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4447,7 +4455,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4464,22 +4472,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="C97" t="n">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="D97" t="n">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="E97" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F97" t="n">
-        <v>22.8625</v>
+        <v>1320.7479</v>
       </c>
       <c r="G97" t="n">
-        <v>32156.28010928073</v>
+        <v>24911.71130928074</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4489,7 +4497,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4506,22 +4514,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C98" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D98" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E98" t="n">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F98" t="n">
-        <v>807.11</v>
+        <v>1417.0837</v>
       </c>
       <c r="G98" t="n">
-        <v>32963.39010928074</v>
+        <v>23494.62760928074</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4531,7 +4539,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4548,22 +4556,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C99" t="n">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D99" t="n">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="E99" t="n">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="F99" t="n">
-        <v>633.0853</v>
+        <v>3683.7091</v>
       </c>
       <c r="G99" t="n">
-        <v>33596.47540928073</v>
+        <v>27178.33670928074</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4573,7 +4581,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4590,22 +4598,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C100" t="n">
-        <v>827</v>
+        <v>852</v>
       </c>
       <c r="D100" t="n">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="E100" t="n">
-        <v>827</v>
+        <v>847</v>
       </c>
       <c r="F100" t="n">
-        <v>1676.1426</v>
+        <v>956.8338</v>
       </c>
       <c r="G100" t="n">
-        <v>31920.33280928074</v>
+        <v>26221.50290928074</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4615,7 +4623,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4632,22 +4640,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="C101" t="n">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="D101" t="n">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="E101" t="n">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="F101" t="n">
-        <v>74.64579999999999</v>
+        <v>209.1834</v>
       </c>
       <c r="G101" t="n">
-        <v>31994.97860928073</v>
+        <v>26012.31950928074</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4657,7 +4665,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4674,22 +4682,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="C102" t="n">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="D102" t="n">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="E102" t="n">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="F102" t="n">
-        <v>1.8633</v>
+        <v>1064.6121</v>
       </c>
       <c r="G102" t="n">
-        <v>31993.11530928073</v>
+        <v>27076.93160928074</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4699,7 +4707,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4716,22 +4724,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="C103" t="n">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="D103" t="n">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="E103" t="n">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="F103" t="n">
-        <v>405.8188</v>
+        <v>613.8436</v>
       </c>
       <c r="G103" t="n">
-        <v>31993.11530928073</v>
+        <v>27690.77520928074</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4741,7 +4749,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4758,22 +4766,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>836</v>
+        <v>853</v>
       </c>
       <c r="C104" t="n">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="D104" t="n">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="E104" t="n">
-        <v>836</v>
+        <v>853</v>
       </c>
       <c r="F104" t="n">
-        <v>1875.9067</v>
+        <v>317.5784</v>
       </c>
       <c r="G104" t="n">
-        <v>33869.02200928074</v>
+        <v>27373.19680928074</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4783,7 +4791,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4800,22 +4808,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="C105" t="n">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="D105" t="n">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="E105" t="n">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="F105" t="n">
-        <v>950.1187</v>
+        <v>1334.7375</v>
       </c>
       <c r="G105" t="n">
-        <v>32918.90330928074</v>
+        <v>27373.19680928074</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4825,7 +4833,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4842,22 +4850,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="C106" t="n">
-        <v>841</v>
+        <v>854</v>
       </c>
       <c r="D106" t="n">
-        <v>841</v>
+        <v>854</v>
       </c>
       <c r="E106" t="n">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="F106" t="n">
-        <v>88.5</v>
+        <v>801</v>
       </c>
       <c r="G106" t="n">
-        <v>32918.90330928074</v>
+        <v>28174.19680928074</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4867,7 +4875,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4884,22 +4892,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>837</v>
+        <v>854</v>
       </c>
       <c r="C107" t="n">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="D107" t="n">
-        <v>837</v>
+        <v>854</v>
       </c>
       <c r="E107" t="n">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="F107" t="n">
-        <v>4113.4202</v>
+        <v>203.8273</v>
       </c>
       <c r="G107" t="n">
-        <v>28805.48310928074</v>
+        <v>27970.36950928074</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4909,7 +4917,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4926,22 +4934,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="C108" t="n">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="D108" t="n">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="E108" t="n">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="F108" t="n">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>26805.48310928074</v>
+        <v>27969.36950928074</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4951,7 +4959,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4968,22 +4976,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C109" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D109" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E109" t="n">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F109" t="n">
-        <v>5400</v>
+        <v>603.0928</v>
       </c>
       <c r="G109" t="n">
-        <v>32205.48310928074</v>
+        <v>28572.46230928074</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4993,7 +5001,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -5010,22 +5018,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C110" t="n">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="D110" t="n">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="E110" t="n">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="F110" t="n">
-        <v>20.9679</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>32184.51520928074</v>
+        <v>28571.46230928074</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -5035,7 +5043,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -5052,22 +5060,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="C111" t="n">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="D111" t="n">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="E111" t="n">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="F111" t="n">
-        <v>1156.8693</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>31027.64590928074</v>
+        <v>28570.46230928074</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5077,7 +5085,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5094,22 +5102,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C112" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D112" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E112" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F112" t="n">
-        <v>21.3704</v>
+        <v>568.7536</v>
       </c>
       <c r="G112" t="n">
-        <v>31049.01630928074</v>
+        <v>29139.21590928074</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5119,7 +5127,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5136,22 +5144,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="C113" t="n">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D113" t="n">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="E113" t="n">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="F113" t="n">
-        <v>783.8507</v>
+        <v>154.6399</v>
       </c>
       <c r="G113" t="n">
-        <v>31832.86700928074</v>
+        <v>29293.85580928074</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5161,7 +5169,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5178,22 +5186,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C114" t="n">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D114" t="n">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E114" t="n">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F114" t="n">
-        <v>40.9712</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>31791.89580928074</v>
+        <v>29292.85580928074</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5203,7 +5211,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5220,22 +5228,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="C115" t="n">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="D115" t="n">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="E115" t="n">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="F115" t="n">
-        <v>242.4942</v>
+        <v>446.8836</v>
       </c>
       <c r="G115" t="n">
-        <v>31549.40160928074</v>
+        <v>28845.97220928074</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5245,7 +5253,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5262,22 +5270,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="C116" t="n">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="D116" t="n">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="E116" t="n">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="F116" t="n">
-        <v>660.9712</v>
+        <v>971.5945</v>
       </c>
       <c r="G116" t="n">
-        <v>32210.37280928074</v>
+        <v>29817.56670928073</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5287,7 +5295,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5304,22 +5312,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C117" t="n">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="D117" t="n">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="E117" t="n">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="F117" t="n">
-        <v>214.9494</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>32210.37280928074</v>
+        <v>29816.56670928073</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5329,7 +5337,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5346,22 +5354,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C118" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D118" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E118" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F118" t="n">
-        <v>809.8672</v>
+        <v>110.4061</v>
       </c>
       <c r="G118" t="n">
-        <v>33020.24000928074</v>
+        <v>29816.56670928073</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5371,7 +5379,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5388,22 +5396,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C119" t="n">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="D119" t="n">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="E119" t="n">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="F119" t="n">
-        <v>2065</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>35085.24000928074</v>
+        <v>29815.56670928073</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5413,7 +5421,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5430,22 +5438,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="C120" t="n">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="D120" t="n">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="E120" t="n">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="F120" t="n">
-        <v>140.1799</v>
+        <v>318.75</v>
       </c>
       <c r="G120" t="n">
-        <v>35225.41990928074</v>
+        <v>30134.31670928073</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5455,7 +5463,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5472,76 +5480,80 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="C121" t="n">
-        <v>865</v>
+        <v>839</v>
       </c>
       <c r="D121" t="n">
-        <v>866</v>
+        <v>840</v>
       </c>
       <c r="E121" t="n">
-        <v>859</v>
+        <v>839</v>
       </c>
       <c r="F121" t="n">
-        <v>3170.5085</v>
+        <v>162.1515</v>
       </c>
       <c r="G121" t="n">
-        <v>38395.92840928074</v>
+        <v>29972.16520928073</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>1.052457212713936</v>
-      </c>
-      <c r="N121" t="n">
-        <v>1.007380073800738</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>865</v>
+        <v>840</v>
       </c>
       <c r="C122" t="n">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="D122" t="n">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="E122" t="n">
-        <v>865</v>
+        <v>839</v>
       </c>
       <c r="F122" t="n">
-        <v>441.4578</v>
+        <v>2030.8232</v>
       </c>
       <c r="G122" t="n">
-        <v>38395.92840928074</v>
+        <v>32002.98840928073</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>810</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5552,32 +5564,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="C123" t="n">
-        <v>866</v>
+        <v>839</v>
       </c>
       <c r="D123" t="n">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="E123" t="n">
-        <v>864</v>
+        <v>839</v>
       </c>
       <c r="F123" t="n">
-        <v>937.6209</v>
+        <v>443.7751</v>
       </c>
       <c r="G123" t="n">
-        <v>39333.54930928074</v>
+        <v>31559.21330928073</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>810</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5588,32 +5606,38 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="C124" t="n">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="D124" t="n">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="E124" t="n">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="F124" t="n">
-        <v>22.7424</v>
+        <v>196.9599</v>
       </c>
       <c r="G124" t="n">
-        <v>39333.54930928074</v>
+        <v>31756.17320928074</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>810</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5624,32 +5648,38 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="C125" t="n">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="D125" t="n">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="E125" t="n">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="F125" t="n">
-        <v>5462.3972</v>
+        <v>400.1069</v>
       </c>
       <c r="G125" t="n">
-        <v>39333.54930928074</v>
+        <v>32156.28010928073</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>810</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5660,32 +5690,38 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="C126" t="n">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="D126" t="n">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="E126" t="n">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="F126" t="n">
-        <v>477.9826</v>
+        <v>22.8625</v>
       </c>
       <c r="G126" t="n">
-        <v>39333.54930928074</v>
+        <v>32156.28010928073</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>810</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5696,32 +5732,38 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="C127" t="n">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="D127" t="n">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="E127" t="n">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="F127" t="n">
-        <v>11.53402537485582</v>
+        <v>807.11</v>
       </c>
       <c r="G127" t="n">
-        <v>39345.0833346556</v>
+        <v>32963.39010928074</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>810</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5732,32 +5774,38 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C128" t="n">
         <v>855</v>
       </c>
       <c r="D128" t="n">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E128" t="n">
         <v>855</v>
       </c>
       <c r="F128" t="n">
-        <v>1598.5039</v>
+        <v>633.0853</v>
       </c>
       <c r="G128" t="n">
-        <v>37746.57943465559</v>
+        <v>33596.47540928073</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>810</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5768,32 +5816,38 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="C129" t="n">
-        <v>858</v>
+        <v>827</v>
       </c>
       <c r="D129" t="n">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="E129" t="n">
-        <v>858</v>
+        <v>827</v>
       </c>
       <c r="F129" t="n">
-        <v>81.709</v>
+        <v>1676.1426</v>
       </c>
       <c r="G129" t="n">
-        <v>37828.28843465559</v>
+        <v>31920.33280928074</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>810</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5804,32 +5858,38 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="C130" t="n">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="D130" t="n">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="E130" t="n">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="F130" t="n">
-        <v>171.328</v>
+        <v>74.64579999999999</v>
       </c>
       <c r="G130" t="n">
-        <v>37999.6164346556</v>
+        <v>31994.97860928073</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>810</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5840,32 +5900,38 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="C131" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="D131" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="E131" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="F131" t="n">
-        <v>89.02670000000001</v>
+        <v>1.8633</v>
       </c>
       <c r="G131" t="n">
-        <v>37910.58973465559</v>
+        <v>31993.11530928073</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>810</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5876,32 +5942,38 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="C132" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="D132" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="E132" t="n">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="F132" t="n">
-        <v>48.8972</v>
+        <v>405.8188</v>
       </c>
       <c r="G132" t="n">
-        <v>37910.58973465559</v>
+        <v>31993.11530928073</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>810</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5912,32 +5984,38 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="C133" t="n">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="D133" t="n">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="E133" t="n">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="F133" t="n">
-        <v>462.0761</v>
+        <v>1875.9067</v>
       </c>
       <c r="G133" t="n">
-        <v>37910.58973465559</v>
+        <v>33869.02200928074</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>810</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5948,32 +6026,38 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="C134" t="n">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="D134" t="n">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="E134" t="n">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="F134" t="n">
-        <v>26.2097</v>
+        <v>950.1187</v>
       </c>
       <c r="G134" t="n">
-        <v>37936.79943465559</v>
+        <v>32918.90330928074</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>810</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5984,32 +6068,38 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="C135" t="n">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="D135" t="n">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="E135" t="n">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="F135" t="n">
-        <v>1452.6124</v>
+        <v>88.5</v>
       </c>
       <c r="G135" t="n">
-        <v>37936.79943465559</v>
+        <v>32918.90330928074</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>810</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -6020,32 +6110,38 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>859</v>
+        <v>837</v>
       </c>
       <c r="C136" t="n">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="D136" t="n">
-        <v>859</v>
+        <v>837</v>
       </c>
       <c r="E136" t="n">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="F136" t="n">
-        <v>177.5593</v>
+        <v>4113.4202</v>
       </c>
       <c r="G136" t="n">
-        <v>37759.24013465559</v>
+        <v>28805.48310928074</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>810</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6056,36 +6152,1184 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>834</v>
+      </c>
+      <c r="C137" t="n">
+        <v>834</v>
+      </c>
+      <c r="D137" t="n">
+        <v>834</v>
+      </c>
+      <c r="E137" t="n">
+        <v>834</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G137" t="n">
+        <v>26805.48310928074</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>810</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>834</v>
+      </c>
+      <c r="C138" t="n">
+        <v>842</v>
+      </c>
+      <c r="D138" t="n">
+        <v>842</v>
+      </c>
+      <c r="E138" t="n">
+        <v>834</v>
+      </c>
+      <c r="F138" t="n">
+        <v>5400</v>
+      </c>
+      <c r="G138" t="n">
+        <v>32205.48310928074</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>810</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>840</v>
+      </c>
+      <c r="C139" t="n">
+        <v>840</v>
+      </c>
+      <c r="D139" t="n">
+        <v>840</v>
+      </c>
+      <c r="E139" t="n">
+        <v>840</v>
+      </c>
+      <c r="F139" t="n">
+        <v>20.9679</v>
+      </c>
+      <c r="G139" t="n">
+        <v>32184.51520928074</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>810</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>840</v>
+      </c>
+      <c r="C140" t="n">
+        <v>839</v>
+      </c>
+      <c r="D140" t="n">
+        <v>840</v>
+      </c>
+      <c r="E140" t="n">
+        <v>839</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1156.8693</v>
+      </c>
+      <c r="G140" t="n">
+        <v>31027.64590928074</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>810</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>842</v>
+      </c>
+      <c r="C141" t="n">
+        <v>842</v>
+      </c>
+      <c r="D141" t="n">
+        <v>842</v>
+      </c>
+      <c r="E141" t="n">
+        <v>842</v>
+      </c>
+      <c r="F141" t="n">
+        <v>21.3704</v>
+      </c>
+      <c r="G141" t="n">
+        <v>31049.01630928074</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>810</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>843</v>
+      </c>
+      <c r="C142" t="n">
+        <v>846</v>
+      </c>
+      <c r="D142" t="n">
+        <v>846</v>
+      </c>
+      <c r="E142" t="n">
+        <v>843</v>
+      </c>
+      <c r="F142" t="n">
+        <v>783.8507</v>
+      </c>
+      <c r="G142" t="n">
+        <v>31832.86700928074</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>810</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>840</v>
+      </c>
+      <c r="C143" t="n">
+        <v>840</v>
+      </c>
+      <c r="D143" t="n">
+        <v>840</v>
+      </c>
+      <c r="E143" t="n">
+        <v>840</v>
+      </c>
+      <c r="F143" t="n">
+        <v>40.9712</v>
+      </c>
+      <c r="G143" t="n">
+        <v>31791.89580928074</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>810</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>833</v>
+      </c>
+      <c r="C144" t="n">
+        <v>833</v>
+      </c>
+      <c r="D144" t="n">
+        <v>833</v>
+      </c>
+      <c r="E144" t="n">
+        <v>833</v>
+      </c>
+      <c r="F144" t="n">
+        <v>242.4942</v>
+      </c>
+      <c r="G144" t="n">
+        <v>31549.40160928074</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>810</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>838</v>
+      </c>
+      <c r="C145" t="n">
+        <v>839</v>
+      </c>
+      <c r="D145" t="n">
+        <v>839</v>
+      </c>
+      <c r="E145" t="n">
+        <v>838</v>
+      </c>
+      <c r="F145" t="n">
+        <v>660.9712</v>
+      </c>
+      <c r="G145" t="n">
+        <v>32210.37280928074</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>810</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>839</v>
+      </c>
+      <c r="C146" t="n">
+        <v>839</v>
+      </c>
+      <c r="D146" t="n">
+        <v>839</v>
+      </c>
+      <c r="E146" t="n">
+        <v>839</v>
+      </c>
+      <c r="F146" t="n">
+        <v>214.9494</v>
+      </c>
+      <c r="G146" t="n">
+        <v>32210.37280928074</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>810</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>841</v>
+      </c>
+      <c r="C147" t="n">
+        <v>841</v>
+      </c>
+      <c r="D147" t="n">
+        <v>841</v>
+      </c>
+      <c r="E147" t="n">
+        <v>841</v>
+      </c>
+      <c r="F147" t="n">
+        <v>809.8672</v>
+      </c>
+      <c r="G147" t="n">
+        <v>33020.24000928074</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>810</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>846</v>
+      </c>
+      <c r="C148" t="n">
+        <v>849</v>
+      </c>
+      <c r="D148" t="n">
+        <v>849</v>
+      </c>
+      <c r="E148" t="n">
+        <v>846</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2065</v>
+      </c>
+      <c r="G148" t="n">
+        <v>35085.24000928074</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>810</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>859</v>
+      </c>
+      <c r="C149" t="n">
+        <v>859</v>
+      </c>
+      <c r="D149" t="n">
+        <v>859</v>
+      </c>
+      <c r="E149" t="n">
+        <v>859</v>
+      </c>
+      <c r="F149" t="n">
+        <v>140.1799</v>
+      </c>
+      <c r="G149" t="n">
+        <v>35225.41990928074</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>810</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>859</v>
+      </c>
+      <c r="C150" t="n">
+        <v>865</v>
+      </c>
+      <c r="D150" t="n">
+        <v>866</v>
+      </c>
+      <c r="E150" t="n">
+        <v>859</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3170.5085</v>
+      </c>
+      <c r="G150" t="n">
+        <v>38395.92840928074</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>810</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>865</v>
+      </c>
+      <c r="C151" t="n">
+        <v>865</v>
+      </c>
+      <c r="D151" t="n">
+        <v>865</v>
+      </c>
+      <c r="E151" t="n">
+        <v>865</v>
+      </c>
+      <c r="F151" t="n">
+        <v>441.4578</v>
+      </c>
+      <c r="G151" t="n">
+        <v>38395.92840928074</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>810</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>864</v>
+      </c>
+      <c r="C152" t="n">
+        <v>866</v>
+      </c>
+      <c r="D152" t="n">
+        <v>866</v>
+      </c>
+      <c r="E152" t="n">
+        <v>864</v>
+      </c>
+      <c r="F152" t="n">
+        <v>937.6209</v>
+      </c>
+      <c r="G152" t="n">
+        <v>39333.54930928074</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>810</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>866</v>
+      </c>
+      <c r="C153" t="n">
+        <v>866</v>
+      </c>
+      <c r="D153" t="n">
+        <v>866</v>
+      </c>
+      <c r="E153" t="n">
+        <v>866</v>
+      </c>
+      <c r="F153" t="n">
+        <v>22.7424</v>
+      </c>
+      <c r="G153" t="n">
+        <v>39333.54930928074</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>810</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1.064135802469136</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1.00123609394314</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>866</v>
+      </c>
+      <c r="C154" t="n">
+        <v>866</v>
+      </c>
+      <c r="D154" t="n">
+        <v>866</v>
+      </c>
+      <c r="E154" t="n">
+        <v>866</v>
+      </c>
+      <c r="F154" t="n">
+        <v>5462.3972</v>
+      </c>
+      <c r="G154" t="n">
+        <v>39333.54930928074</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>866</v>
+      </c>
+      <c r="C155" t="n">
+        <v>866</v>
+      </c>
+      <c r="D155" t="n">
+        <v>866</v>
+      </c>
+      <c r="E155" t="n">
+        <v>866</v>
+      </c>
+      <c r="F155" t="n">
+        <v>477.9826</v>
+      </c>
+      <c r="G155" t="n">
+        <v>39333.54930928074</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>867</v>
+      </c>
+      <c r="C156" t="n">
+        <v>867</v>
+      </c>
+      <c r="D156" t="n">
+        <v>867</v>
+      </c>
+      <c r="E156" t="n">
+        <v>867</v>
+      </c>
+      <c r="F156" t="n">
+        <v>11.53402537485582</v>
+      </c>
+      <c r="G156" t="n">
+        <v>39345.0833346556</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>858</v>
+      </c>
+      <c r="C157" t="n">
+        <v>855</v>
+      </c>
+      <c r="D157" t="n">
+        <v>858</v>
+      </c>
+      <c r="E157" t="n">
+        <v>855</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1598.5039</v>
+      </c>
+      <c r="G157" t="n">
+        <v>37746.57943465559</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>858</v>
+      </c>
+      <c r="C158" t="n">
+        <v>858</v>
+      </c>
+      <c r="D158" t="n">
+        <v>858</v>
+      </c>
+      <c r="E158" t="n">
+        <v>858</v>
+      </c>
+      <c r="F158" t="n">
+        <v>81.709</v>
+      </c>
+      <c r="G158" t="n">
+        <v>37828.28843465559</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>860</v>
+      </c>
+      <c r="C159" t="n">
+        <v>860</v>
+      </c>
+      <c r="D159" t="n">
+        <v>860</v>
+      </c>
+      <c r="E159" t="n">
+        <v>860</v>
+      </c>
+      <c r="F159" t="n">
+        <v>171.328</v>
+      </c>
+      <c r="G159" t="n">
+        <v>37999.6164346556</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>857</v>
+      </c>
+      <c r="C160" t="n">
+        <v>857</v>
+      </c>
+      <c r="D160" t="n">
+        <v>857</v>
+      </c>
+      <c r="E160" t="n">
+        <v>857</v>
+      </c>
+      <c r="F160" t="n">
+        <v>89.02670000000001</v>
+      </c>
+      <c r="G160" t="n">
+        <v>37910.58973465559</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>857</v>
+      </c>
+      <c r="C161" t="n">
+        <v>857</v>
+      </c>
+      <c r="D161" t="n">
+        <v>857</v>
+      </c>
+      <c r="E161" t="n">
+        <v>857</v>
+      </c>
+      <c r="F161" t="n">
+        <v>48.8972</v>
+      </c>
+      <c r="G161" t="n">
+        <v>37910.58973465559</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>857</v>
+      </c>
+      <c r="C162" t="n">
+        <v>857</v>
+      </c>
+      <c r="D162" t="n">
+        <v>857</v>
+      </c>
+      <c r="E162" t="n">
+        <v>857</v>
+      </c>
+      <c r="F162" t="n">
+        <v>462.0761</v>
+      </c>
+      <c r="G162" t="n">
+        <v>37910.58973465559</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>858</v>
+      </c>
+      <c r="C163" t="n">
+        <v>858</v>
+      </c>
+      <c r="D163" t="n">
+        <v>858</v>
+      </c>
+      <c r="E163" t="n">
+        <v>858</v>
+      </c>
+      <c r="F163" t="n">
+        <v>26.2097</v>
+      </c>
+      <c r="G163" t="n">
+        <v>37936.79943465559</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
         <v>854</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C164" t="n">
+        <v>858</v>
+      </c>
+      <c r="D164" t="n">
+        <v>858</v>
+      </c>
+      <c r="E164" t="n">
         <v>854</v>
       </c>
-      <c r="D137" t="n">
+      <c r="F164" t="n">
+        <v>1452.6124</v>
+      </c>
+      <c r="G164" t="n">
+        <v>37936.79943465559</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>859</v>
+      </c>
+      <c r="C165" t="n">
+        <v>855</v>
+      </c>
+      <c r="D165" t="n">
+        <v>859</v>
+      </c>
+      <c r="E165" t="n">
+        <v>855</v>
+      </c>
+      <c r="F165" t="n">
+        <v>177.5593</v>
+      </c>
+      <c r="G165" t="n">
+        <v>37759.24013465559</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
         <v>854</v>
       </c>
-      <c r="E137" t="n">
+      <c r="C166" t="n">
         <v>854</v>
       </c>
-      <c r="F137" t="n">
+      <c r="D166" t="n">
+        <v>854</v>
+      </c>
+      <c r="E166" t="n">
+        <v>854</v>
+      </c>
+      <c r="F166" t="n">
         <v>262.7</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G166" t="n">
         <v>37496.5401346556</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-22 BackTest WTC.xlsx
+++ b/BackTest/2019-10-22 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N166"/>
+  <dimension ref="A1:M166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-3706.714899999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-3706.714899999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="J3" t="n">
         <v>809</v>
       </c>
-      <c r="K3" t="n">
-        <v>809</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-3527.665</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="J4" t="n">
         <v>809</v>
       </c>
-      <c r="K4" t="n">
-        <v>809</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-3527.665</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="J5" t="n">
-        <v>810</v>
-      </c>
-      <c r="K5" t="n">
         <v>809</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>-4527.664999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="J6" t="n">
         <v>810</v>
       </c>
-      <c r="K6" t="n">
-        <v>810</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,23 @@
         <v>-4820.314799999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="J7" t="n">
-        <v>809</v>
-      </c>
-      <c r="K7" t="n">
-        <v>810</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>810</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +681,23 @@
         <v>-4757.950599999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>808</v>
       </c>
       <c r="J8" t="n">
-        <v>808</v>
-      </c>
-      <c r="K8" t="n">
-        <v>810</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,26 +722,21 @@
         <v>-5414.950599999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>812</v>
-      </c>
-      <c r="K9" t="n">
-        <v>810</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -794,22 +763,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>810</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>810</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,22 +802,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>810</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>810</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -878,22 +841,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>810</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>810</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -920,22 +880,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>810</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>810</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -962,22 +919,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>810</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>810</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1002,26 +956,21 @@
         <v>-6495.0756</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>808</v>
-      </c>
-      <c r="K15" t="n">
-        <v>810</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1048,22 +997,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>810</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>810</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1088,26 +1034,21 @@
         <v>-7728.0676</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>809</v>
-      </c>
-      <c r="K17" t="n">
-        <v>810</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1132,26 +1073,21 @@
         <v>-7725.0676</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>808</v>
-      </c>
-      <c r="K18" t="n">
-        <v>810</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1176,26 +1112,21 @@
         <v>-7725.0676</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>811</v>
-      </c>
-      <c r="K19" t="n">
-        <v>810</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1220,26 +1151,21 @@
         <v>-7052.4058</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>811</v>
-      </c>
-      <c r="K20" t="n">
-        <v>810</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1264,26 +1190,23 @@
         <v>-7052.4058</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="J21" t="n">
-        <v>812</v>
-      </c>
-      <c r="K21" t="n">
-        <v>810</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1308,26 +1231,23 @@
         <v>-7050.4058</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="J22" t="n">
-        <v>812</v>
-      </c>
-      <c r="K22" t="n">
-        <v>810</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1352,26 +1272,23 @@
         <v>-7550.4058</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="J23" t="n">
-        <v>813</v>
-      </c>
-      <c r="K23" t="n">
-        <v>810</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1396,26 +1313,23 @@
         <v>-6975.525900000001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="J24" t="n">
-        <v>811</v>
-      </c>
-      <c r="K24" t="n">
-        <v>810</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1440,26 +1354,23 @@
         <v>-6652.266100000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="J25" t="n">
-        <v>812</v>
-      </c>
-      <c r="K25" t="n">
-        <v>810</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1484,26 +1395,23 @@
         <v>-6652.266100000001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="J26" t="n">
-        <v>813</v>
-      </c>
-      <c r="K26" t="n">
-        <v>810</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1528,26 +1436,23 @@
         <v>-7186.504900000001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="J27" t="n">
-        <v>813</v>
-      </c>
-      <c r="K27" t="n">
-        <v>810</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1572,26 +1477,23 @@
         <v>-7186.504900000001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="J28" t="n">
-        <v>812</v>
-      </c>
-      <c r="K28" t="n">
-        <v>810</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1616,26 +1518,23 @@
         <v>-6767.364</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="J29" t="n">
-        <v>812</v>
-      </c>
-      <c r="K29" t="n">
-        <v>810</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1660,26 +1559,23 @@
         <v>-6767.364</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="J30" t="n">
-        <v>815</v>
-      </c>
-      <c r="K30" t="n">
-        <v>810</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1704,26 +1600,23 @@
         <v>-7783.364</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="J31" t="n">
-        <v>815</v>
-      </c>
-      <c r="K31" t="n">
-        <v>810</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1748,26 +1641,23 @@
         <v>-7504.982800000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="J32" t="n">
-        <v>813</v>
-      </c>
-      <c r="K32" t="n">
-        <v>810</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1792,26 +1682,21 @@
         <v>-7504.982800000001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>815</v>
-      </c>
-      <c r="K33" t="n">
-        <v>810</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1836,26 +1721,21 @@
         <v>-7504.982800000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>815</v>
-      </c>
-      <c r="K34" t="n">
-        <v>810</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1880,26 +1760,21 @@
         <v>-7467.1729</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>815</v>
-      </c>
-      <c r="K35" t="n">
-        <v>810</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1924,26 +1799,21 @@
         <v>-9567.413100000002</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>816</v>
-      </c>
-      <c r="K36" t="n">
-        <v>810</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1968,26 +1838,21 @@
         <v>-8343.341200000003</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>813</v>
-      </c>
-      <c r="K37" t="n">
-        <v>810</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2014,22 +1879,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>810</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>810</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2056,22 +1918,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>810</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>810</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2098,22 +1957,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>810</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>810</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2140,22 +1996,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>810</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>810</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2182,22 +2035,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>810</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>810</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2224,22 +2074,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>810</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>810</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2266,22 +2113,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>810</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>810</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2308,22 +2152,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>810</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>810</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2350,22 +2191,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>810</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>810</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2392,22 +2230,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>810</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>810</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2434,22 +2269,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>810</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>810</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2476,22 +2308,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>810</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>810</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2518,22 +2347,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>810</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>810</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2560,22 +2386,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>810</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>810</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2602,22 +2425,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>810</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>810</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2644,22 +2464,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>810</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>810</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2686,22 +2503,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>810</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>810</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2728,22 +2542,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>810</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>810</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2770,22 +2581,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>810</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>810</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2812,22 +2620,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>810</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>810</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2854,22 +2659,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>810</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>810</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2896,22 +2698,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>810</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>810</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2938,22 +2737,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>810</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>810</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2980,22 +2776,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>810</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>810</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3022,22 +2815,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>810</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>810</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3064,22 +2854,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>810</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>810</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3104,24 +2891,21 @@
         <v>-5959.396400000003</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>810</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>810</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3148,22 +2932,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>810</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>810</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3188,24 +2969,21 @@
         <v>-5959.396400000003</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>810</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>810</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3232,22 +3010,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>810</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>810</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3274,22 +3049,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>810</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>810</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3316,22 +3088,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>810</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>810</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3358,22 +3127,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>810</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>810</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3400,22 +3166,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>810</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>810</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3442,22 +3205,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>810</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>810</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3484,22 +3244,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>810</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>810</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3526,22 +3283,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>810</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>810</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3568,22 +3322,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>810</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>810</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3610,22 +3361,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>810</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>810</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3652,22 +3400,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>810</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>810</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3694,22 +3439,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>810</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>810</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3736,22 +3478,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>810</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>810</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3776,24 +3515,21 @@
         <v>13963.4249</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>810</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>810</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3818,24 +3554,23 @@
         <v>15569.8415</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>810</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>810</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1.062901234567901</v>
       </c>
       <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>1.00123609394314</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3862,22 +3597,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>810</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3904,22 +3630,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>810</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3946,22 +3663,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>810</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3988,22 +3696,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>810</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4030,22 +3729,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>810</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4072,22 +3762,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>810</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4114,22 +3795,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>810</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4156,22 +3828,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>810</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4198,22 +3861,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>810</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4240,22 +3894,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>810</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4282,22 +3927,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>810</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4324,22 +3960,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>810</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4366,22 +3993,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>810</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4406,24 +4024,15 @@
         <v>28705.45920928074</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>810</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4448,24 +4057,15 @@
         <v>26232.45920928074</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>810</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4492,22 +4092,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>810</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4534,22 +4125,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>810</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4576,22 +4158,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>810</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4618,22 +4191,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>810</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4660,22 +4224,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>810</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4702,22 +4257,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>810</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4744,22 +4290,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>810</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4786,22 +4323,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>810</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4828,22 +4356,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>810</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4870,22 +4389,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>810</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4912,22 +4422,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>810</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4954,22 +4455,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>810</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4996,22 +4488,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>810</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5038,22 +4521,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>810</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5080,22 +4554,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>810</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5122,22 +4587,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>810</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5164,22 +4620,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>810</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5206,22 +4653,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>810</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5248,22 +4686,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>810</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5290,22 +4719,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>810</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5332,22 +4752,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>810</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5374,22 +4785,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>810</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5416,22 +4818,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>810</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5458,22 +4851,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>810</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5500,22 +4884,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>810</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5542,22 +4917,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>810</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5584,22 +4950,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>810</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5626,22 +4983,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>810</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5668,22 +5016,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>810</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5710,22 +5049,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>810</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5752,22 +5082,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>810</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5794,22 +5115,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>810</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5836,22 +5148,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>810</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5878,22 +5181,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>810</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5920,22 +5214,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>810</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5962,22 +5247,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>810</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6004,22 +5280,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>810</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6046,22 +5313,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>810</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6088,22 +5346,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>810</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6130,22 +5379,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>810</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6172,22 +5412,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>810</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6214,22 +5445,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>810</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6256,22 +5478,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>810</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6298,22 +5511,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>810</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6340,22 +5544,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>810</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6382,22 +5577,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>810</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6424,22 +5610,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>810</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6466,22 +5643,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>810</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6508,22 +5676,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>810</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6550,22 +5709,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>810</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6592,22 +5742,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>810</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6634,22 +5775,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>810</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6676,22 +5808,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>810</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6718,22 +5841,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>810</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6758,24 +5872,15 @@
         <v>38395.92840928074</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>810</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6800,24 +5905,15 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>810</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6842,26 +5938,15 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>810</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1.064135802469136</v>
-      </c>
-      <c r="N153" t="n">
-        <v>1.00123609394314</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6886,18 +5971,15 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6922,18 +6004,15 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6958,18 +6037,15 @@
         <v>39345.0833346556</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6994,18 +6070,15 @@
         <v>37746.57943465559</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7030,18 +6103,15 @@
         <v>37828.28843465559</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7066,18 +6136,15 @@
         <v>37999.6164346556</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7102,18 +6169,15 @@
         <v>37910.58973465559</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7138,18 +6202,15 @@
         <v>37910.58973465559</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7174,18 +6235,15 @@
         <v>37910.58973465559</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7210,18 +6268,15 @@
         <v>37936.79943465559</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7246,18 +6301,15 @@
         <v>37936.79943465559</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7284,16 +6336,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7318,20 +6367,17 @@
         <v>37496.5401346556</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest WTC.xlsx
+++ b/BackTest/2019-10-22 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3706.714899999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3706.714899999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>809</v>
@@ -521,7 +521,7 @@
         <v>-3527.665</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>809</v>
@@ -562,7 +562,7 @@
         <v>-3527.665</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>810</v>
@@ -603,7 +603,7 @@
         <v>-4527.664999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>810</v>
@@ -640,7 +640,7 @@
         <v>-4820.314799999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>809</v>
@@ -681,7 +681,7 @@
         <v>-4757.950599999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>808</v>
@@ -722,9 +722,11 @@
         <v>-5414.950599999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>812</v>
+      </c>
       <c r="J9" t="n">
         <v>810</v>
       </c>
@@ -761,9 +763,11 @@
         <v>-5370.848099999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>811</v>
+      </c>
       <c r="J10" t="n">
         <v>810</v>
       </c>
@@ -800,9 +804,11 @@
         <v>-6183.6387</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>813</v>
+      </c>
       <c r="J11" t="n">
         <v>810</v>
       </c>
@@ -839,9 +845,11 @@
         <v>-6183.6387</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>811</v>
+      </c>
       <c r="J12" t="n">
         <v>810</v>
       </c>
@@ -878,9 +886,11 @@
         <v>-5225.264999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>811</v>
+      </c>
       <c r="J13" t="n">
         <v>810</v>
       </c>
@@ -917,9 +927,11 @@
         <v>-6517.4859</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>814</v>
+      </c>
       <c r="J14" t="n">
         <v>810</v>
       </c>
@@ -956,9 +968,11 @@
         <v>-6495.0756</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>808</v>
+      </c>
       <c r="J15" t="n">
         <v>810</v>
       </c>
@@ -995,9 +1009,11 @@
         <v>-6945.2794</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>810</v>
+      </c>
       <c r="J16" t="n">
         <v>810</v>
       </c>
@@ -1034,9 +1050,11 @@
         <v>-7728.0676</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>809</v>
+      </c>
       <c r="J17" t="n">
         <v>810</v>
       </c>
@@ -1073,9 +1091,11 @@
         <v>-7725.0676</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>808</v>
+      </c>
       <c r="J18" t="n">
         <v>810</v>
       </c>
@@ -1112,9 +1132,11 @@
         <v>-7725.0676</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>811</v>
+      </c>
       <c r="J19" t="n">
         <v>810</v>
       </c>
@@ -1151,9 +1173,11 @@
         <v>-7052.4058</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>811</v>
+      </c>
       <c r="J20" t="n">
         <v>810</v>
       </c>
@@ -1190,7 +1214,7 @@
         <v>-7052.4058</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>812</v>
@@ -1231,7 +1255,7 @@
         <v>-7050.4058</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>812</v>
@@ -1272,7 +1296,7 @@
         <v>-7550.4058</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>813</v>
@@ -1313,7 +1337,7 @@
         <v>-6975.525900000001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>811</v>
@@ -1354,7 +1378,7 @@
         <v>-6652.266100000001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>812</v>
@@ -1395,7 +1419,7 @@
         <v>-6652.266100000001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>813</v>
@@ -1436,7 +1460,7 @@
         <v>-7186.504900000001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>813</v>
@@ -1477,7 +1501,7 @@
         <v>-7186.504900000001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>812</v>
@@ -1518,7 +1542,7 @@
         <v>-6767.364</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>812</v>
@@ -1559,7 +1583,7 @@
         <v>-6767.364</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>815</v>
@@ -1600,7 +1624,7 @@
         <v>-7783.364</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>815</v>
@@ -1641,7 +1665,7 @@
         <v>-7504.982800000001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>813</v>
@@ -1682,9 +1706,11 @@
         <v>-7504.982800000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>815</v>
+      </c>
       <c r="J33" t="n">
         <v>810</v>
       </c>
@@ -1721,9 +1747,11 @@
         <v>-7504.982800000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>815</v>
+      </c>
       <c r="J34" t="n">
         <v>810</v>
       </c>
@@ -1760,9 +1788,11 @@
         <v>-7467.1729</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>815</v>
+      </c>
       <c r="J35" t="n">
         <v>810</v>
       </c>
@@ -1799,9 +1829,11 @@
         <v>-9567.413100000002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>816</v>
+      </c>
       <c r="J36" t="n">
         <v>810</v>
       </c>
@@ -1838,9 +1870,11 @@
         <v>-8343.341200000003</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>813</v>
+      </c>
       <c r="J37" t="n">
         <v>810</v>
       </c>
@@ -1877,9 +1911,11 @@
         <v>-9440.469300000002</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>818</v>
+      </c>
       <c r="J38" t="n">
         <v>810</v>
       </c>
@@ -1916,9 +1952,11 @@
         <v>-9440.469300000002</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>815</v>
+      </c>
       <c r="J39" t="n">
         <v>810</v>
       </c>
@@ -1955,9 +1993,11 @@
         <v>-9390.066400000003</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>815</v>
+      </c>
       <c r="J40" t="n">
         <v>810</v>
       </c>
@@ -1994,9 +2034,11 @@
         <v>-11545.0664</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>819</v>
+      </c>
       <c r="J41" t="n">
         <v>810</v>
       </c>
@@ -2033,9 +2075,11 @@
         <v>-13103.7887</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>816</v>
+      </c>
       <c r="J42" t="n">
         <v>810</v>
       </c>
@@ -2111,9 +2155,11 @@
         <v>-14268.7887</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>815</v>
+      </c>
       <c r="J44" t="n">
         <v>810</v>
       </c>
@@ -2150,9 +2196,11 @@
         <v>-12903.5878</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>812</v>
+      </c>
       <c r="J45" t="n">
         <v>810</v>
       </c>
@@ -2345,9 +2393,11 @@
         <v>-11513.6672</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>818</v>
+      </c>
       <c r="J50" t="n">
         <v>810</v>
       </c>
@@ -2384,9 +2434,11 @@
         <v>-11513.6672</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>819</v>
+      </c>
       <c r="J51" t="n">
         <v>810</v>
       </c>
@@ -2423,9 +2475,11 @@
         <v>-11513.6672</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>819</v>
+      </c>
       <c r="J52" t="n">
         <v>810</v>
       </c>
@@ -2462,9 +2516,11 @@
         <v>-11907.4108</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>819</v>
+      </c>
       <c r="J53" t="n">
         <v>810</v>
       </c>
@@ -2501,9 +2557,11 @@
         <v>-11729.5108</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>817</v>
+      </c>
       <c r="J54" t="n">
         <v>810</v>
       </c>
@@ -2540,9 +2598,11 @@
         <v>-11749.5108</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>821</v>
+      </c>
       <c r="J55" t="n">
         <v>810</v>
       </c>
@@ -2579,9 +2639,11 @@
         <v>-11790.5939</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>818</v>
+      </c>
       <c r="J56" t="n">
         <v>810</v>
       </c>
@@ -2618,9 +2680,11 @@
         <v>-10671.6539</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>809</v>
+      </c>
       <c r="J57" t="n">
         <v>810</v>
       </c>
@@ -2657,9 +2721,11 @@
         <v>-8838.633000000003</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>821</v>
+      </c>
       <c r="J58" t="n">
         <v>810</v>
       </c>
@@ -2696,9 +2762,11 @@
         <v>-8838.633000000003</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>826</v>
+      </c>
       <c r="J59" t="n">
         <v>810</v>
       </c>
@@ -2891,7 +2959,7 @@
         <v>-5959.396400000003</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
@@ -2969,7 +3037,7 @@
         <v>-5959.396400000003</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
@@ -3515,7 +3583,7 @@
         <v>13963.4249</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
@@ -3554,7 +3622,7 @@
         <v>15569.8415</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
@@ -3562,15 +3630,13 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.062901234567901</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.00123609394314</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3598,8 +3664,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>810</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3631,8 +3703,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>810</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3664,8 +3742,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>810</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3697,8 +3781,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>810</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3730,8 +3820,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>810</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3763,8 +3859,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>810</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3796,8 +3898,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>810</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3829,8 +3937,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>810</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3862,8 +3976,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>810</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3895,8 +4015,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>810</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3928,8 +4054,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>810</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3961,8 +4093,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>810</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3994,8 +4132,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>810</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4024,11 +4168,17 @@
         <v>28705.45920928074</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>810</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4057,11 +4207,17 @@
         <v>26232.45920928074</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>810</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4090,15 +4246,23 @@
         <v>24911.71130928074</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>810</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>1.050555555555556</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.00123609394314</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4123,7 +4287,7 @@
         <v>23494.62760928074</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4156,7 +4320,7 @@
         <v>27178.33670928074</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4189,7 +4353,7 @@
         <v>26221.50290928074</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4222,7 +4386,7 @@
         <v>26012.31950928074</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4255,7 +4419,7 @@
         <v>27076.93160928074</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4288,7 +4452,7 @@
         <v>27690.77520928074</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4321,7 +4485,7 @@
         <v>27373.19680928074</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4354,7 +4518,7 @@
         <v>27373.19680928074</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4387,7 +4551,7 @@
         <v>28174.19680928074</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4420,7 +4584,7 @@
         <v>27970.36950928074</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4453,7 +4617,7 @@
         <v>27969.36950928074</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4486,7 +4650,7 @@
         <v>28572.46230928074</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4519,7 +4683,7 @@
         <v>28571.46230928074</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4552,7 +4716,7 @@
         <v>28570.46230928074</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4585,7 +4749,7 @@
         <v>29139.21590928074</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4618,7 +4782,7 @@
         <v>29293.85580928074</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4651,7 +4815,7 @@
         <v>29292.85580928074</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4717,7 +4881,7 @@
         <v>29817.56670928073</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4783,7 +4947,7 @@
         <v>29816.56670928073</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4849,7 +5013,7 @@
         <v>30134.31670928073</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4882,7 +5046,7 @@
         <v>29972.16520928073</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4915,7 +5079,7 @@
         <v>32002.98840928073</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4948,7 +5112,7 @@
         <v>31559.21330928073</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4981,7 +5145,7 @@
         <v>31756.17320928074</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5014,7 +5178,7 @@
         <v>32156.28010928073</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5047,7 +5211,7 @@
         <v>32156.28010928073</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5080,7 +5244,7 @@
         <v>32963.39010928074</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5113,7 +5277,7 @@
         <v>33596.47540928073</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5179,7 +5343,7 @@
         <v>31994.97860928073</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5245,7 +5409,7 @@
         <v>31993.11530928073</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5278,7 +5442,7 @@
         <v>33869.02200928074</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5311,7 +5475,7 @@
         <v>32918.90330928074</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5344,7 +5508,7 @@
         <v>32918.90330928074</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5443,7 +5607,7 @@
         <v>32205.48310928074</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5476,7 +5640,7 @@
         <v>32184.51520928074</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5509,7 +5673,7 @@
         <v>31027.64590928074</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5542,7 +5706,7 @@
         <v>31049.01630928074</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5575,7 +5739,7 @@
         <v>31832.86700928074</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5608,7 +5772,7 @@
         <v>31791.89580928074</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5641,7 +5805,7 @@
         <v>31549.40160928074</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5674,7 +5838,7 @@
         <v>32210.37280928074</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5707,7 +5871,7 @@
         <v>32210.37280928074</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5773,7 +5937,7 @@
         <v>35085.24000928074</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5806,7 +5970,7 @@
         <v>35225.41990928074</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5839,7 +6003,7 @@
         <v>38395.92840928074</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5872,7 +6036,7 @@
         <v>38395.92840928074</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5905,7 +6069,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5938,7 +6102,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5971,7 +6135,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6004,7 +6168,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6037,7 +6201,7 @@
         <v>39345.0833346556</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6070,7 +6234,7 @@
         <v>37746.57943465559</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6103,7 +6267,7 @@
         <v>37828.28843465559</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6136,7 +6300,7 @@
         <v>37999.6164346556</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6169,7 +6333,7 @@
         <v>37910.58973465559</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6202,7 +6366,7 @@
         <v>37910.58973465559</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6235,7 +6399,7 @@
         <v>37910.58973465559</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6268,7 +6432,7 @@
         <v>37936.79943465559</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6301,7 +6465,7 @@
         <v>37936.79943465559</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6334,7 +6498,7 @@
         <v>37759.24013465559</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6367,7 +6531,7 @@
         <v>37496.5401346556</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6378,6 +6542,6 @@
       <c r="M166" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest WTC.xlsx
+++ b/BackTest/2019-10-22 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -603,14 +603,10 @@
         <v>-4527.664999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>810</v>
-      </c>
-      <c r="J6" t="n">
-        <v>810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -645,9 +641,7 @@
       <c r="I7" t="n">
         <v>809</v>
       </c>
-      <c r="J7" t="n">
-        <v>810</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -686,9 +680,7 @@
       <c r="I8" t="n">
         <v>808</v>
       </c>
-      <c r="J8" t="n">
-        <v>810</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -727,9 +719,7 @@
       <c r="I9" t="n">
         <v>812</v>
       </c>
-      <c r="J9" t="n">
-        <v>810</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -768,9 +758,7 @@
       <c r="I10" t="n">
         <v>811</v>
       </c>
-      <c r="J10" t="n">
-        <v>810</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -809,9 +797,7 @@
       <c r="I11" t="n">
         <v>813</v>
       </c>
-      <c r="J11" t="n">
-        <v>810</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -850,9 +836,7 @@
       <c r="I12" t="n">
         <v>811</v>
       </c>
-      <c r="J12" t="n">
-        <v>810</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -891,9 +875,7 @@
       <c r="I13" t="n">
         <v>811</v>
       </c>
-      <c r="J13" t="n">
-        <v>810</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -932,9 +914,7 @@
       <c r="I14" t="n">
         <v>814</v>
       </c>
-      <c r="J14" t="n">
-        <v>810</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -973,9 +953,7 @@
       <c r="I15" t="n">
         <v>808</v>
       </c>
-      <c r="J15" t="n">
-        <v>810</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1014,9 +992,7 @@
       <c r="I16" t="n">
         <v>810</v>
       </c>
-      <c r="J16" t="n">
-        <v>810</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1055,9 +1031,7 @@
       <c r="I17" t="n">
         <v>809</v>
       </c>
-      <c r="J17" t="n">
-        <v>810</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1096,9 +1070,7 @@
       <c r="I18" t="n">
         <v>808</v>
       </c>
-      <c r="J18" t="n">
-        <v>810</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1137,9 +1109,7 @@
       <c r="I19" t="n">
         <v>811</v>
       </c>
-      <c r="J19" t="n">
-        <v>810</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1178,9 +1148,7 @@
       <c r="I20" t="n">
         <v>811</v>
       </c>
-      <c r="J20" t="n">
-        <v>810</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1219,9 +1187,7 @@
       <c r="I21" t="n">
         <v>812</v>
       </c>
-      <c r="J21" t="n">
-        <v>810</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1260,9 +1226,7 @@
       <c r="I22" t="n">
         <v>812</v>
       </c>
-      <c r="J22" t="n">
-        <v>810</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1301,9 +1265,7 @@
       <c r="I23" t="n">
         <v>813</v>
       </c>
-      <c r="J23" t="n">
-        <v>810</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1342,9 +1304,7 @@
       <c r="I24" t="n">
         <v>811</v>
       </c>
-      <c r="J24" t="n">
-        <v>810</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1378,14 +1338,10 @@
         <v>-6652.266100000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>812</v>
-      </c>
-      <c r="J25" t="n">
-        <v>810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1419,14 +1375,10 @@
         <v>-6652.266100000001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>813</v>
-      </c>
-      <c r="J26" t="n">
-        <v>810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1460,14 +1412,10 @@
         <v>-7186.504900000001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>813</v>
-      </c>
-      <c r="J27" t="n">
-        <v>810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1506,9 +1454,7 @@
       <c r="I28" t="n">
         <v>812</v>
       </c>
-      <c r="J28" t="n">
-        <v>810</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1542,14 +1488,10 @@
         <v>-6767.364</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>812</v>
-      </c>
-      <c r="J29" t="n">
-        <v>810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1583,14 +1525,10 @@
         <v>-6767.364</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>815</v>
-      </c>
-      <c r="J30" t="n">
-        <v>810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1624,14 +1562,10 @@
         <v>-7783.364</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>815</v>
-      </c>
-      <c r="J31" t="n">
-        <v>810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1670,9 +1604,7 @@
       <c r="I32" t="n">
         <v>813</v>
       </c>
-      <c r="J32" t="n">
-        <v>810</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1711,9 +1643,7 @@
       <c r="I33" t="n">
         <v>815</v>
       </c>
-      <c r="J33" t="n">
-        <v>810</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1752,9 +1682,7 @@
       <c r="I34" t="n">
         <v>815</v>
       </c>
-      <c r="J34" t="n">
-        <v>810</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1788,14 +1716,10 @@
         <v>-7467.1729</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>815</v>
-      </c>
-      <c r="J35" t="n">
-        <v>810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1829,14 +1753,10 @@
         <v>-9567.413100000002</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>816</v>
-      </c>
-      <c r="J36" t="n">
-        <v>810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1870,14 +1790,10 @@
         <v>-8343.341200000003</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>813</v>
-      </c>
-      <c r="J37" t="n">
-        <v>810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1911,14 +1827,10 @@
         <v>-9440.469300000002</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>818</v>
-      </c>
-      <c r="J38" t="n">
-        <v>810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1952,14 +1864,10 @@
         <v>-9440.469300000002</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>815</v>
-      </c>
-      <c r="J39" t="n">
-        <v>810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1998,9 +1906,7 @@
       <c r="I40" t="n">
         <v>815</v>
       </c>
-      <c r="J40" t="n">
-        <v>810</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2034,14 +1940,10 @@
         <v>-11545.0664</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>819</v>
-      </c>
-      <c r="J41" t="n">
-        <v>810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2075,14 +1977,10 @@
         <v>-13103.7887</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>816</v>
-      </c>
-      <c r="J42" t="n">
-        <v>810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2116,12 +2014,12 @@
         <v>-13103.7887</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>810</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>815</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2160,9 +2058,7 @@
       <c r="I44" t="n">
         <v>815</v>
       </c>
-      <c r="J44" t="n">
-        <v>810</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2201,9 +2097,7 @@
       <c r="I45" t="n">
         <v>812</v>
       </c>
-      <c r="J45" t="n">
-        <v>810</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2237,12 +2131,12 @@
         <v>-11258.3873</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>810</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>821</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2279,9 +2173,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>810</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2318,9 +2210,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>810</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2357,9 +2247,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>810</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2393,14 +2281,10 @@
         <v>-11513.6672</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>818</v>
-      </c>
-      <c r="J50" t="n">
-        <v>810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2434,14 +2318,10 @@
         <v>-11513.6672</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>819</v>
-      </c>
-      <c r="J51" t="n">
-        <v>810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2475,14 +2355,10 @@
         <v>-11513.6672</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>819</v>
-      </c>
-      <c r="J52" t="n">
-        <v>810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2521,9 +2397,7 @@
       <c r="I53" t="n">
         <v>819</v>
       </c>
-      <c r="J53" t="n">
-        <v>810</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2562,9 +2436,7 @@
       <c r="I54" t="n">
         <v>817</v>
       </c>
-      <c r="J54" t="n">
-        <v>810</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2603,9 +2475,7 @@
       <c r="I55" t="n">
         <v>821</v>
       </c>
-      <c r="J55" t="n">
-        <v>810</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2644,9 +2514,7 @@
       <c r="I56" t="n">
         <v>818</v>
       </c>
-      <c r="J56" t="n">
-        <v>810</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2685,9 +2553,7 @@
       <c r="I57" t="n">
         <v>809</v>
       </c>
-      <c r="J57" t="n">
-        <v>810</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2726,9 +2592,7 @@
       <c r="I58" t="n">
         <v>821</v>
       </c>
-      <c r="J58" t="n">
-        <v>810</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2762,14 +2626,10 @@
         <v>-8838.633000000003</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>826</v>
-      </c>
-      <c r="J59" t="n">
-        <v>810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2806,9 +2666,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>810</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2845,9 +2703,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>810</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2881,20 +2737,16 @@
         <v>-8272.270800000004</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>810</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -2923,14 +2775,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>810</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2959,17 +2805,11 @@
         <v>-5959.396400000003</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>810</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2998,17 +2838,11 @@
         <v>-5959.396400000003</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>810</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3037,17 +2871,11 @@
         <v>-5959.396400000003</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>810</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3076,17 +2904,11 @@
         <v>-5723.996400000004</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>810</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3115,17 +2937,11 @@
         <v>-3047.807500000004</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>810</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3154,17 +2970,11 @@
         <v>-1039.237700000004</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>810</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3193,17 +3003,11 @@
         <v>-1472.095200000004</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>810</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3232,17 +3036,11 @@
         <v>-1472.095200000004</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>810</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3271,17 +3069,11 @@
         <v>-740.5133000000036</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>810</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3310,17 +3102,11 @@
         <v>3059.793499999996</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>810</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3349,17 +3135,11 @@
         <v>4315.488099999996</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>810</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3391,14 +3171,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>810</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3430,14 +3204,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>810</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3469,14 +3237,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>810</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3508,14 +3270,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>810</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3547,14 +3303,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>810</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3586,14 +3336,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>810</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3625,14 +3369,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>810</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3664,14 +3402,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>810</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3703,14 +3435,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>810</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3742,14 +3468,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>810</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3781,14 +3501,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>810</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3820,14 +3534,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>810</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3859,14 +3567,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>810</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3898,14 +3600,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>810</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3937,14 +3633,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>810</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3976,14 +3666,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>810</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -4015,14 +3699,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>810</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4054,14 +3732,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>810</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4093,14 +3765,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>810</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4132,14 +3798,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>810</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4171,14 +3831,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>810</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4210,14 +3864,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>810</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4246,23 +3894,15 @@
         <v>24911.71130928074</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>810</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>1.050555555555556</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.00123609394314</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4287,7 +3927,7 @@
         <v>23494.62760928074</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4320,7 +3960,7 @@
         <v>27178.33670928074</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4353,7 +3993,7 @@
         <v>26221.50290928074</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4386,7 +4026,7 @@
         <v>26012.31950928074</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4419,7 +4059,7 @@
         <v>27076.93160928074</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4452,7 +4092,7 @@
         <v>27690.77520928074</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4485,7 +4125,7 @@
         <v>27373.19680928074</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4518,7 +4158,7 @@
         <v>27373.19680928074</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4551,7 +4191,7 @@
         <v>28174.19680928074</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4716,7 +4356,7 @@
         <v>28570.46230928074</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4749,7 +4389,7 @@
         <v>29139.21590928074</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4782,7 +4422,7 @@
         <v>29293.85580928074</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4815,7 +4455,7 @@
         <v>29292.85580928074</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4881,7 +4521,7 @@
         <v>29817.56670928073</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4947,7 +4587,7 @@
         <v>29816.56670928073</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -5013,7 +4653,7 @@
         <v>30134.31670928073</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5046,7 +4686,7 @@
         <v>29972.16520928073</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5079,7 +4719,7 @@
         <v>32002.98840928073</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5112,7 +4752,7 @@
         <v>31559.21330928073</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5145,7 +4785,7 @@
         <v>31756.17320928074</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5178,7 +4818,7 @@
         <v>32156.28010928073</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5211,7 +4851,7 @@
         <v>32156.28010928073</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5244,7 +4884,7 @@
         <v>32963.39010928074</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5277,7 +4917,7 @@
         <v>33596.47540928073</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5343,7 +4983,7 @@
         <v>31994.97860928073</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5409,7 +5049,7 @@
         <v>31993.11530928073</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5442,7 +5082,7 @@
         <v>33869.02200928074</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5475,7 +5115,7 @@
         <v>32918.90330928074</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5508,7 +5148,7 @@
         <v>32918.90330928074</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5607,7 +5247,7 @@
         <v>32205.48310928074</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5640,7 +5280,7 @@
         <v>32184.51520928074</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5673,7 +5313,7 @@
         <v>31027.64590928074</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5706,7 +5346,7 @@
         <v>31049.01630928074</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5739,7 +5379,7 @@
         <v>31832.86700928074</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5772,7 +5412,7 @@
         <v>31791.89580928074</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5805,7 +5445,7 @@
         <v>31549.40160928074</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5838,7 +5478,7 @@
         <v>32210.37280928074</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5871,7 +5511,7 @@
         <v>32210.37280928074</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5937,7 +5577,7 @@
         <v>35085.24000928074</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5970,7 +5610,7 @@
         <v>35225.41990928074</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6003,7 +5643,7 @@
         <v>38395.92840928074</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6036,7 +5676,7 @@
         <v>38395.92840928074</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6069,7 +5709,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6102,7 +5742,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6135,7 +5775,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6168,7 +5808,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6201,7 +5841,7 @@
         <v>39345.0833346556</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6465,7 +6105,7 @@
         <v>37936.79943465559</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6498,7 +6138,7 @@
         <v>37759.24013465559</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6531,7 +6171,7 @@
         <v>37496.5401346556</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6542,6 +6182,6 @@
       <c r="M166" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest WTC.xlsx
+++ b/BackTest/2019-10-22 BackTest WTC.xlsx
@@ -603,10 +603,14 @@
         <v>-4527.664999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>810</v>
+      </c>
+      <c r="J6" t="n">
+        <v>810</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -641,7 +645,9 @@
       <c r="I7" t="n">
         <v>809</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>810</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -680,7 +686,9 @@
       <c r="I8" t="n">
         <v>808</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>810</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -719,7 +727,9 @@
       <c r="I9" t="n">
         <v>812</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>810</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -753,12 +763,12 @@
         <v>-5370.848099999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>811</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>810</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -792,12 +802,12 @@
         <v>-6183.6387</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>813</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>810</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -831,12 +841,12 @@
         <v>-6183.6387</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>811</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>810</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -875,7 +885,9 @@
       <c r="I13" t="n">
         <v>811</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>810</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -914,7 +926,9 @@
       <c r="I14" t="n">
         <v>814</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>810</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -953,7 +967,9 @@
       <c r="I15" t="n">
         <v>808</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>810</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -992,7 +1008,9 @@
       <c r="I16" t="n">
         <v>810</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>810</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1031,7 +1049,9 @@
       <c r="I17" t="n">
         <v>809</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>810</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1070,7 +1090,9 @@
       <c r="I18" t="n">
         <v>808</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>810</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1109,7 +1131,9 @@
       <c r="I19" t="n">
         <v>811</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>810</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1148,7 +1172,9 @@
       <c r="I20" t="n">
         <v>811</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>810</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1187,7 +1213,9 @@
       <c r="I21" t="n">
         <v>812</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>810</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1226,7 +1254,9 @@
       <c r="I22" t="n">
         <v>812</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>810</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1265,7 +1295,9 @@
       <c r="I23" t="n">
         <v>813</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>810</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1304,7 +1336,9 @@
       <c r="I24" t="n">
         <v>811</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>810</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1338,10 +1372,14 @@
         <v>-6652.266100000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>812</v>
+      </c>
+      <c r="J25" t="n">
+        <v>810</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1375,10 +1413,14 @@
         <v>-6652.266100000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>813</v>
+      </c>
+      <c r="J26" t="n">
+        <v>810</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1412,10 +1454,14 @@
         <v>-7186.504900000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>813</v>
+      </c>
+      <c r="J27" t="n">
+        <v>810</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1454,7 +1500,9 @@
       <c r="I28" t="n">
         <v>812</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>810</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1488,10 +1536,14 @@
         <v>-6767.364</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>812</v>
+      </c>
+      <c r="J29" t="n">
+        <v>810</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1525,10 +1577,14 @@
         <v>-6767.364</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>815</v>
+      </c>
+      <c r="J30" t="n">
+        <v>810</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1562,10 +1618,14 @@
         <v>-7783.364</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>815</v>
+      </c>
+      <c r="J31" t="n">
+        <v>810</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1604,7 +1664,9 @@
       <c r="I32" t="n">
         <v>813</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>810</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1643,7 +1705,9 @@
       <c r="I33" t="n">
         <v>815</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>810</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1682,7 +1746,9 @@
       <c r="I34" t="n">
         <v>815</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>810</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1716,10 +1782,14 @@
         <v>-7467.1729</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>815</v>
+      </c>
+      <c r="J35" t="n">
+        <v>810</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1753,10 +1823,14 @@
         <v>-9567.413100000002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>816</v>
+      </c>
+      <c r="J36" t="n">
+        <v>810</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1790,10 +1864,14 @@
         <v>-8343.341200000003</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>813</v>
+      </c>
+      <c r="J37" t="n">
+        <v>810</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1827,10 +1905,14 @@
         <v>-9440.469300000002</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>818</v>
+      </c>
+      <c r="J38" t="n">
+        <v>810</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1864,10 +1946,14 @@
         <v>-9440.469300000002</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>815</v>
+      </c>
+      <c r="J39" t="n">
+        <v>810</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1906,7 +1992,9 @@
       <c r="I40" t="n">
         <v>815</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>810</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1943,7 +2031,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>810</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1980,7 +2070,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>810</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2014,12 +2106,12 @@
         <v>-13103.7887</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>815</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>810</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2053,12 +2145,12 @@
         <v>-14268.7887</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>815</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>810</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2092,12 +2184,12 @@
         <v>-12903.5878</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>812</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>810</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2131,12 +2223,12 @@
         <v>-11258.3873</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>821</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>810</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2173,7 +2265,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>810</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2210,7 +2304,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>810</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2247,7 +2343,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>810</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2284,7 +2382,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>810</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2321,7 +2421,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>810</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2358,7 +2460,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>810</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2392,12 +2496,12 @@
         <v>-11907.4108</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>819</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>810</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2431,12 +2535,12 @@
         <v>-11729.5108</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>817</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>810</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2470,12 +2574,12 @@
         <v>-11749.5108</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>821</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>810</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2509,12 +2613,12 @@
         <v>-11790.5939</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>818</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>810</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2553,7 +2657,9 @@
       <c r="I57" t="n">
         <v>809</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>810</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2587,12 +2693,12 @@
         <v>-8838.633000000003</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>821</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>810</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2629,7 +2735,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>810</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2666,7 +2774,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>810</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2703,7 +2813,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>810</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2737,16 +2849,20 @@
         <v>-8272.270800000004</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>810</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
       <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -2775,8 +2891,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>810</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2805,11 +2927,17 @@
         <v>-5959.396400000003</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>810</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2838,11 +2966,17 @@
         <v>-5959.396400000003</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>810</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2871,11 +3005,17 @@
         <v>-5959.396400000003</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>810</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2904,11 +3044,17 @@
         <v>-5723.996400000004</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>810</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2937,11 +3083,17 @@
         <v>-3047.807500000004</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>810</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2970,11 +3122,17 @@
         <v>-1039.237700000004</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>810</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3003,11 +3161,17 @@
         <v>-1472.095200000004</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>810</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3036,11 +3200,17 @@
         <v>-1472.095200000004</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>810</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3069,11 +3239,17 @@
         <v>-740.5133000000036</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>810</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3102,11 +3278,17 @@
         <v>3059.793499999996</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>810</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3135,11 +3317,17 @@
         <v>4315.488099999996</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>810</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3171,8 +3359,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>810</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3204,8 +3398,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>810</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3237,8 +3437,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>810</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3270,8 +3476,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>810</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3300,15 +3512,23 @@
         <v>14463.4249</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>810</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>1.061666666666667</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1.00123609394314</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3333,7 +3553,7 @@
         <v>13963.4249</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3465,7 +3685,7 @@
         <v>20238.433</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3531,7 +3751,7 @@
         <v>28918.1521</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3597,7 +3817,7 @@
         <v>29005.1264</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3630,7 +3850,7 @@
         <v>28486.1253</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3663,7 +3883,7 @@
         <v>28486.1253</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3696,7 +3916,7 @@
         <v>26764.9894</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3729,7 +3949,7 @@
         <v>28168.8054</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3762,7 +3982,7 @@
         <v>29328.8982</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3795,7 +4015,7 @@
         <v>26548.0479</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3828,7 +4048,7 @@
         <v>28705.45920928074</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3861,7 +4081,7 @@
         <v>26232.45920928074</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3894,7 +4114,7 @@
         <v>24911.71130928074</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3927,7 +4147,7 @@
         <v>23494.62760928074</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3993,7 +4213,7 @@
         <v>26221.50290928074</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4026,7 +4246,7 @@
         <v>26012.31950928074</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4125,7 +4345,7 @@
         <v>27373.19680928074</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4191,7 +4411,7 @@
         <v>28174.19680928074</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4257,7 +4477,7 @@
         <v>27969.36950928074</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4290,7 +4510,7 @@
         <v>28572.46230928074</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4323,7 +4543,7 @@
         <v>28571.46230928074</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -5676,7 +5896,7 @@
         <v>38395.92840928074</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5709,7 +5929,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5742,7 +5962,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5775,7 +5995,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5808,7 +6028,7 @@
         <v>39333.54930928074</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5841,7 +6061,7 @@
         <v>39345.0833346556</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5874,7 +6094,7 @@
         <v>37746.57943465559</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5907,7 +6127,7 @@
         <v>37828.28843465559</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5940,7 +6160,7 @@
         <v>37999.6164346556</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5973,7 +6193,7 @@
         <v>37910.58973465559</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6006,7 +6226,7 @@
         <v>37910.58973465559</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6039,7 +6259,7 @@
         <v>37910.58973465559</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6072,7 +6292,7 @@
         <v>37936.79943465559</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6105,7 +6325,7 @@
         <v>37936.79943465559</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6138,7 +6358,7 @@
         <v>37759.24013465559</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6171,7 +6391,7 @@
         <v>37496.5401346556</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>

--- a/BackTest/2019-10-22 BackTest WTC.xlsx
+++ b/BackTest/2019-10-22 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M166"/>
+  <dimension ref="A1:L166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>331.4737</v>
       </c>
       <c r="G2" t="n">
-        <v>-3706.714899999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>254.92</v>
       </c>
       <c r="G3" t="n">
-        <v>-3706.714899999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>809</v>
-      </c>
-      <c r="J3" t="n">
-        <v>809</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,15 @@
         <v>179.0499</v>
       </c>
       <c r="G4" t="n">
-        <v>-3527.665</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>809</v>
-      </c>
-      <c r="J4" t="n">
-        <v>809</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +533,19 @@
         <v>627.2593000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>-3527.665</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>810</v>
       </c>
       <c r="I5" t="n">
         <v>810</v>
       </c>
-      <c r="J5" t="n">
-        <v>809</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +567,23 @@
         <v>1000</v>
       </c>
       <c r="G6" t="n">
-        <v>-4527.664999999999</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>810</v>
       </c>
       <c r="I6" t="n">
         <v>810</v>
       </c>
-      <c r="J6" t="n">
-        <v>810</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +605,23 @@
         <v>292.6498</v>
       </c>
       <c r="G7" t="n">
-        <v>-4820.314799999999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>809</v>
       </c>
       <c r="I7" t="n">
-        <v>809</v>
-      </c>
-      <c r="J7" t="n">
-        <v>810</v>
-      </c>
-      <c r="K7" t="inlineStr">
+        <v>810</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +643,23 @@
         <v>62.3642</v>
       </c>
       <c r="G8" t="n">
-        <v>-4757.950599999999</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>808</v>
       </c>
       <c r="I8" t="n">
-        <v>808</v>
-      </c>
-      <c r="J8" t="n">
-        <v>810</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,26 +681,23 @@
         <v>657</v>
       </c>
       <c r="G9" t="n">
-        <v>-5414.950599999999</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>812</v>
       </c>
       <c r="I9" t="n">
-        <v>812</v>
-      </c>
-      <c r="J9" t="n">
-        <v>810</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -760,24 +719,21 @@
         <v>44.1025</v>
       </c>
       <c r="G10" t="n">
-        <v>-5370.848099999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>810</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>810</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -799,24 +755,21 @@
         <v>812.7906</v>
       </c>
       <c r="G11" t="n">
-        <v>-6183.6387</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>810</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>810</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -838,24 +791,21 @@
         <v>432.5099</v>
       </c>
       <c r="G12" t="n">
-        <v>-6183.6387</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>810</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>810</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -877,26 +827,21 @@
         <v>958.3737</v>
       </c>
       <c r="G13" t="n">
-        <v>-5225.264999999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>811</v>
-      </c>
-      <c r="J13" t="n">
-        <v>810</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -918,26 +863,21 @@
         <v>1292.2209</v>
       </c>
       <c r="G14" t="n">
-        <v>-6517.4859</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>814</v>
-      </c>
-      <c r="J14" t="n">
-        <v>810</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -959,26 +899,21 @@
         <v>22.4103</v>
       </c>
       <c r="G15" t="n">
-        <v>-6495.0756</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>808</v>
-      </c>
-      <c r="J15" t="n">
-        <v>810</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1000,26 +935,21 @@
         <v>450.2038</v>
       </c>
       <c r="G16" t="n">
-        <v>-6945.2794</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
         <v>810</v>
       </c>
-      <c r="J16" t="n">
-        <v>810</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1041,26 +971,21 @@
         <v>782.7882</v>
       </c>
       <c r="G17" t="n">
-        <v>-7728.0676</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>809</v>
-      </c>
-      <c r="J17" t="n">
-        <v>810</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1082,26 +1007,21 @@
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>-7725.0676</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>808</v>
-      </c>
-      <c r="J18" t="n">
-        <v>810</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1123,26 +1043,21 @@
         <v>36.6987</v>
       </c>
       <c r="G19" t="n">
-        <v>-7725.0676</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>811</v>
-      </c>
-      <c r="J19" t="n">
-        <v>810</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1164,26 +1079,21 @@
         <v>672.6618</v>
       </c>
       <c r="G20" t="n">
-        <v>-7052.4058</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>811</v>
-      </c>
-      <c r="J20" t="n">
-        <v>810</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1205,26 +1115,21 @@
         <v>102.5364</v>
       </c>
       <c r="G21" t="n">
-        <v>-7052.4058</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>812</v>
-      </c>
-      <c r="J21" t="n">
-        <v>810</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1246,26 +1151,21 @@
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>-7050.4058</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>812</v>
-      </c>
-      <c r="J22" t="n">
-        <v>810</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1287,26 +1187,21 @@
         <v>500</v>
       </c>
       <c r="G23" t="n">
-        <v>-7550.4058</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>813</v>
-      </c>
-      <c r="J23" t="n">
-        <v>810</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1328,26 +1223,21 @@
         <v>574.8799</v>
       </c>
       <c r="G24" t="n">
-        <v>-6975.525900000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>811</v>
-      </c>
-      <c r="J24" t="n">
-        <v>810</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1369,26 +1259,21 @@
         <v>323.2598</v>
       </c>
       <c r="G25" t="n">
-        <v>-6652.266100000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>812</v>
-      </c>
-      <c r="J25" t="n">
-        <v>810</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1410,26 +1295,21 @@
         <v>2.8968</v>
       </c>
       <c r="G26" t="n">
-        <v>-6652.266100000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>813</v>
-      </c>
-      <c r="J26" t="n">
-        <v>810</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1451,26 +1331,21 @@
         <v>534.2388</v>
       </c>
       <c r="G27" t="n">
-        <v>-7186.504900000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>813</v>
-      </c>
-      <c r="J27" t="n">
-        <v>810</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1492,26 +1367,21 @@
         <v>1350.2884</v>
       </c>
       <c r="G28" t="n">
-        <v>-7186.504900000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>812</v>
-      </c>
-      <c r="J28" t="n">
-        <v>810</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1533,26 +1403,21 @@
         <v>419.1409</v>
       </c>
       <c r="G29" t="n">
-        <v>-6767.364</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>812</v>
-      </c>
-      <c r="J29" t="n">
-        <v>810</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1574,26 +1439,21 @@
         <v>658.7889</v>
       </c>
       <c r="G30" t="n">
-        <v>-6767.364</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>815</v>
-      </c>
-      <c r="J30" t="n">
-        <v>810</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1615,26 +1475,21 @@
         <v>1016</v>
       </c>
       <c r="G31" t="n">
-        <v>-7783.364</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>815</v>
-      </c>
-      <c r="J31" t="n">
-        <v>810</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1656,26 +1511,21 @@
         <v>278.3812</v>
       </c>
       <c r="G32" t="n">
-        <v>-7504.982800000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>813</v>
-      </c>
-      <c r="J32" t="n">
-        <v>810</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1697,26 +1547,21 @@
         <v>45.3999</v>
       </c>
       <c r="G33" t="n">
-        <v>-7504.982800000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>815</v>
-      </c>
-      <c r="J33" t="n">
-        <v>810</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1738,26 +1583,21 @@
         <v>480.52</v>
       </c>
       <c r="G34" t="n">
-        <v>-7504.982800000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>815</v>
-      </c>
-      <c r="J34" t="n">
-        <v>810</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1779,26 +1619,21 @@
         <v>37.8099</v>
       </c>
       <c r="G35" t="n">
-        <v>-7467.1729</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>815</v>
-      </c>
-      <c r="J35" t="n">
-        <v>810</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1820,26 +1655,21 @@
         <v>2100.2402</v>
       </c>
       <c r="G36" t="n">
-        <v>-9567.413100000002</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>816</v>
-      </c>
-      <c r="J36" t="n">
-        <v>810</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1861,26 +1691,21 @@
         <v>1224.0719</v>
       </c>
       <c r="G37" t="n">
-        <v>-8343.341200000003</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>813</v>
-      </c>
-      <c r="J37" t="n">
-        <v>810</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1902,26 +1727,21 @@
         <v>1097.1281</v>
       </c>
       <c r="G38" t="n">
-        <v>-9440.469300000002</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>818</v>
-      </c>
-      <c r="J38" t="n">
-        <v>810</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1943,26 +1763,21 @@
         <v>642.6022</v>
       </c>
       <c r="G39" t="n">
-        <v>-9440.469300000002</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>815</v>
-      </c>
-      <c r="J39" t="n">
-        <v>810</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1984,26 +1799,21 @@
         <v>50.4029</v>
       </c>
       <c r="G40" t="n">
-        <v>-9390.066400000003</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>815</v>
-      </c>
-      <c r="J40" t="n">
-        <v>810</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2025,24 +1835,21 @@
         <v>2155</v>
       </c>
       <c r="G41" t="n">
-        <v>-11545.0664</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>810</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>810</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2064,24 +1871,21 @@
         <v>1558.7223</v>
       </c>
       <c r="G42" t="n">
-        <v>-13103.7887</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>810</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>810</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2103,24 +1907,21 @@
         <v>941.2777</v>
       </c>
       <c r="G43" t="n">
-        <v>-13103.7887</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>810</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>810</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2142,24 +1943,21 @@
         <v>1165</v>
       </c>
       <c r="G44" t="n">
-        <v>-14268.7887</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>810</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>810</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2181,24 +1979,21 @@
         <v>1365.2009</v>
       </c>
       <c r="G45" t="n">
-        <v>-12903.5878</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>810</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>810</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2220,24 +2015,21 @@
         <v>1645.2005</v>
       </c>
       <c r="G46" t="n">
-        <v>-11258.3873</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>810</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>810</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2259,24 +2051,21 @@
         <v>540</v>
       </c>
       <c r="G47" t="n">
-        <v>-10718.3873</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>810</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>810</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2298,24 +2087,21 @@
         <v>798.9778</v>
       </c>
       <c r="G48" t="n">
-        <v>-11517.3651</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>810</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>810</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2337,24 +2123,21 @@
         <v>85.5121</v>
       </c>
       <c r="G49" t="n">
-        <v>-11602.8772</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>810</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>810</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2376,24 +2159,21 @@
         <v>89.20999999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>-11513.6672</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>810</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>810</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2415,24 +2195,21 @@
         <v>346.629</v>
       </c>
       <c r="G51" t="n">
-        <v>-11513.6672</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>810</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>810</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2454,24 +2231,21 @@
         <v>15.13</v>
       </c>
       <c r="G52" t="n">
-        <v>-11513.6672</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>810</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>810</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2493,24 +2267,21 @@
         <v>393.7436</v>
       </c>
       <c r="G53" t="n">
-        <v>-11907.4108</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>810</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>810</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2532,24 +2303,21 @@
         <v>177.9</v>
       </c>
       <c r="G54" t="n">
-        <v>-11729.5108</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>810</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>810</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2571,24 +2339,21 @@
         <v>20</v>
       </c>
       <c r="G55" t="n">
-        <v>-11749.5108</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>810</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>810</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2610,24 +2375,21 @@
         <v>41.0831</v>
       </c>
       <c r="G56" t="n">
-        <v>-11790.5939</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>810</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>810</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2649,26 +2411,21 @@
         <v>1118.94</v>
       </c>
       <c r="G57" t="n">
-        <v>-10671.6539</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>809</v>
-      </c>
-      <c r="J57" t="n">
-        <v>810</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2690,24 +2447,21 @@
         <v>1833.0209</v>
       </c>
       <c r="G58" t="n">
-        <v>-8838.633000000003</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>810</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>810</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2729,24 +2483,21 @@
         <v>19.95</v>
       </c>
       <c r="G59" t="n">
-        <v>-8838.633000000003</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>810</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>810</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2768,24 +2519,21 @@
         <v>566.5321</v>
       </c>
       <c r="G60" t="n">
-        <v>-8272.100900000003</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>810</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>810</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2807,24 +2555,21 @@
         <v>406.8359</v>
       </c>
       <c r="G61" t="n">
-        <v>-7865.265000000003</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>810</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>810</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2846,24 +2591,21 @@
         <v>407.0058</v>
       </c>
       <c r="G62" t="n">
-        <v>-8272.270800000004</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>810</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>810</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2885,24 +2627,21 @@
         <v>246.7945</v>
       </c>
       <c r="G63" t="n">
-        <v>-8025.476300000004</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>810</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>810</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2924,24 +2663,21 @@
         <v>2066.0799</v>
       </c>
       <c r="G64" t="n">
-        <v>-5959.396400000003</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>810</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>810</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2963,24 +2699,21 @@
         <v>90.52</v>
       </c>
       <c r="G65" t="n">
-        <v>-5959.396400000003</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>810</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>810</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3002,24 +2735,21 @@
         <v>147.5584</v>
       </c>
       <c r="G66" t="n">
-        <v>-5959.396400000003</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>810</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>810</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3041,24 +2771,21 @@
         <v>235.4</v>
       </c>
       <c r="G67" t="n">
-        <v>-5723.996400000004</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>810</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>810</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3080,24 +2807,21 @@
         <v>2676.1889</v>
       </c>
       <c r="G68" t="n">
-        <v>-3047.807500000004</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>810</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>810</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3119,24 +2843,21 @@
         <v>2008.5698</v>
       </c>
       <c r="G69" t="n">
-        <v>-1039.237700000004</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>810</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>810</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3158,24 +2879,21 @@
         <v>432.8575</v>
       </c>
       <c r="G70" t="n">
-        <v>-1472.095200000004</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>810</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>810</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3197,24 +2915,21 @@
         <v>61.388</v>
       </c>
       <c r="G71" t="n">
-        <v>-1472.095200000004</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>810</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>810</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3236,24 +2951,21 @@
         <v>731.5819</v>
       </c>
       <c r="G72" t="n">
-        <v>-740.5133000000036</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>810</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>810</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3275,24 +2987,21 @@
         <v>3800.3068</v>
       </c>
       <c r="G73" t="n">
-        <v>3059.793499999996</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>810</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>810</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3314,24 +3023,21 @@
         <v>1255.6946</v>
       </c>
       <c r="G74" t="n">
-        <v>4315.488099999996</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>810</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>810</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3353,24 +3059,21 @@
         <v>305.4883</v>
       </c>
       <c r="G75" t="n">
-        <v>4009.999799999996</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>810</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>810</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3392,24 +3095,21 @@
         <v>1156.0693</v>
       </c>
       <c r="G76" t="n">
-        <v>5166.069099999996</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>810</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>810</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3431,24 +3131,21 @@
         <v>905.7058</v>
       </c>
       <c r="G77" t="n">
-        <v>4260.363299999996</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>810</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>810</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3470,24 +3167,21 @@
         <v>11678.1877</v>
       </c>
       <c r="G78" t="n">
-        <v>15938.551</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>810</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>810</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3509,26 +3203,21 @@
         <v>1475.1261</v>
       </c>
       <c r="G79" t="n">
-        <v>14463.4249</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>810</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1.061666666666667</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1.00123609394314</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>810</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3550,18 +3239,21 @@
         <v>500</v>
       </c>
       <c r="G80" t="n">
-        <v>13963.4249</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>810</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3583,18 +3275,21 @@
         <v>1606.4166</v>
       </c>
       <c r="G81" t="n">
-        <v>15569.8415</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>810</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3616,18 +3311,21 @@
         <v>4642.5851</v>
       </c>
       <c r="G82" t="n">
-        <v>20212.4266</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>810</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3649,18 +3347,23 @@
         <v>380.84</v>
       </c>
       <c r="G83" t="n">
-        <v>20593.2666</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>810</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1.08141975308642</v>
+      </c>
       <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>1.00123609394314</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3682,18 +3385,15 @@
         <v>354.8336</v>
       </c>
       <c r="G84" t="n">
-        <v>20238.433</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3715,18 +3415,15 @@
         <v>5122.7311</v>
       </c>
       <c r="G85" t="n">
-        <v>25361.1641</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3748,18 +3445,15 @@
         <v>3556.988</v>
       </c>
       <c r="G86" t="n">
-        <v>28918.1521</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3781,18 +3475,15 @@
         <v>86.9743</v>
       </c>
       <c r="G87" t="n">
-        <v>29005.1264</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3814,18 +3505,15 @@
         <v>1841.3369</v>
       </c>
       <c r="G88" t="n">
-        <v>29005.1264</v>
-      </c>
-      <c r="H88" t="n">
         <v>2</v>
       </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3847,18 +3535,15 @@
         <v>519.0011</v>
       </c>
       <c r="G89" t="n">
-        <v>28486.1253</v>
-      </c>
-      <c r="H89" t="n">
         <v>2</v>
       </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3880,18 +3565,15 @@
         <v>402.1155</v>
       </c>
       <c r="G90" t="n">
-        <v>28486.1253</v>
-      </c>
-      <c r="H90" t="n">
         <v>2</v>
       </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3913,18 +3595,15 @@
         <v>1721.1359</v>
       </c>
       <c r="G91" t="n">
-        <v>26764.9894</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3946,18 +3625,15 @@
         <v>1403.816</v>
       </c>
       <c r="G92" t="n">
-        <v>28168.8054</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3979,18 +3655,15 @@
         <v>1160.0928</v>
       </c>
       <c r="G93" t="n">
-        <v>29328.8982</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4012,18 +3685,15 @@
         <v>2780.8503</v>
       </c>
       <c r="G94" t="n">
-        <v>26548.0479</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4045,18 +3715,15 @@
         <v>2157.411309280742</v>
       </c>
       <c r="G95" t="n">
-        <v>28705.45920928074</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4078,18 +3745,15 @@
         <v>2473</v>
       </c>
       <c r="G96" t="n">
-        <v>26232.45920928074</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4111,18 +3775,15 @@
         <v>1320.7479</v>
       </c>
       <c r="G97" t="n">
-        <v>24911.71130928074</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4144,18 +3805,15 @@
         <v>1417.0837</v>
       </c>
       <c r="G98" t="n">
-        <v>23494.62760928074</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4177,18 +3835,15 @@
         <v>3683.7091</v>
       </c>
       <c r="G99" t="n">
-        <v>27178.33670928074</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4210,18 +3865,15 @@
         <v>956.8338</v>
       </c>
       <c r="G100" t="n">
-        <v>26221.50290928074</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4243,18 +3895,15 @@
         <v>209.1834</v>
       </c>
       <c r="G101" t="n">
-        <v>26012.31950928074</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4276,18 +3925,15 @@
         <v>1064.6121</v>
       </c>
       <c r="G102" t="n">
-        <v>27076.93160928074</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4309,18 +3955,15 @@
         <v>613.8436</v>
       </c>
       <c r="G103" t="n">
-        <v>27690.77520928074</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4342,18 +3985,15 @@
         <v>317.5784</v>
       </c>
       <c r="G104" t="n">
-        <v>27373.19680928074</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4375,18 +4015,15 @@
         <v>1334.7375</v>
       </c>
       <c r="G105" t="n">
-        <v>27373.19680928074</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4408,18 +4045,15 @@
         <v>801</v>
       </c>
       <c r="G106" t="n">
-        <v>28174.19680928074</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4441,18 +4075,15 @@
         <v>203.8273</v>
       </c>
       <c r="G107" t="n">
-        <v>27970.36950928074</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4474,18 +4105,15 @@
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>27969.36950928074</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4507,18 +4135,15 @@
         <v>603.0928</v>
       </c>
       <c r="G109" t="n">
-        <v>28572.46230928074</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4540,18 +4165,15 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>28571.46230928074</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4573,18 +4195,15 @@
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>28570.46230928074</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4606,18 +4225,15 @@
         <v>568.7536</v>
       </c>
       <c r="G112" t="n">
-        <v>29139.21590928074</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4639,18 +4255,15 @@
         <v>154.6399</v>
       </c>
       <c r="G113" t="n">
-        <v>29293.85580928074</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4672,18 +4285,15 @@
         <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>29292.85580928074</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4705,18 +4315,15 @@
         <v>446.8836</v>
       </c>
       <c r="G115" t="n">
-        <v>28845.97220928074</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4738,18 +4345,15 @@
         <v>971.5945</v>
       </c>
       <c r="G116" t="n">
-        <v>29817.56670928073</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4771,18 +4375,15 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>29816.56670928073</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4804,18 +4405,15 @@
         <v>110.4061</v>
       </c>
       <c r="G118" t="n">
-        <v>29816.56670928073</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4837,18 +4435,15 @@
         <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>29815.56670928073</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4870,18 +4465,15 @@
         <v>318.75</v>
       </c>
       <c r="G120" t="n">
-        <v>30134.31670928073</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4903,18 +4495,15 @@
         <v>162.1515</v>
       </c>
       <c r="G121" t="n">
-        <v>29972.16520928073</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4936,18 +4525,15 @@
         <v>2030.8232</v>
       </c>
       <c r="G122" t="n">
-        <v>32002.98840928073</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4969,18 +4555,15 @@
         <v>443.7751</v>
       </c>
       <c r="G123" t="n">
-        <v>31559.21330928073</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5002,18 +4585,15 @@
         <v>196.9599</v>
       </c>
       <c r="G124" t="n">
-        <v>31756.17320928074</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5035,18 +4615,15 @@
         <v>400.1069</v>
       </c>
       <c r="G125" t="n">
-        <v>32156.28010928073</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5068,18 +4645,15 @@
         <v>22.8625</v>
       </c>
       <c r="G126" t="n">
-        <v>32156.28010928073</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5101,18 +4675,15 @@
         <v>807.11</v>
       </c>
       <c r="G127" t="n">
-        <v>32963.39010928074</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5134,18 +4705,15 @@
         <v>633.0853</v>
       </c>
       <c r="G128" t="n">
-        <v>33596.47540928073</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5167,18 +4735,15 @@
         <v>1676.1426</v>
       </c>
       <c r="G129" t="n">
-        <v>31920.33280928074</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5200,18 +4765,15 @@
         <v>74.64579999999999</v>
       </c>
       <c r="G130" t="n">
-        <v>31994.97860928073</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5233,18 +4795,15 @@
         <v>1.8633</v>
       </c>
       <c r="G131" t="n">
-        <v>31993.11530928073</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5266,18 +4825,15 @@
         <v>405.8188</v>
       </c>
       <c r="G132" t="n">
-        <v>31993.11530928073</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5299,18 +4855,15 @@
         <v>1875.9067</v>
       </c>
       <c r="G133" t="n">
-        <v>33869.02200928074</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5332,18 +4885,15 @@
         <v>950.1187</v>
       </c>
       <c r="G134" t="n">
-        <v>32918.90330928074</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5365,18 +4915,15 @@
         <v>88.5</v>
       </c>
       <c r="G135" t="n">
-        <v>32918.90330928074</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5398,18 +4945,15 @@
         <v>4113.4202</v>
       </c>
       <c r="G136" t="n">
-        <v>28805.48310928074</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5431,18 +4975,15 @@
         <v>2000</v>
       </c>
       <c r="G137" t="n">
-        <v>26805.48310928074</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5464,18 +5005,15 @@
         <v>5400</v>
       </c>
       <c r="G138" t="n">
-        <v>32205.48310928074</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5497,18 +5035,15 @@
         <v>20.9679</v>
       </c>
       <c r="G139" t="n">
-        <v>32184.51520928074</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5530,18 +5065,15 @@
         <v>1156.8693</v>
       </c>
       <c r="G140" t="n">
-        <v>31027.64590928074</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5563,18 +5095,15 @@
         <v>21.3704</v>
       </c>
       <c r="G141" t="n">
-        <v>31049.01630928074</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5596,18 +5125,15 @@
         <v>783.8507</v>
       </c>
       <c r="G142" t="n">
-        <v>31832.86700928074</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5629,18 +5155,15 @@
         <v>40.9712</v>
       </c>
       <c r="G143" t="n">
-        <v>31791.89580928074</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5662,18 +5185,15 @@
         <v>242.4942</v>
       </c>
       <c r="G144" t="n">
-        <v>31549.40160928074</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5695,18 +5215,15 @@
         <v>660.9712</v>
       </c>
       <c r="G145" t="n">
-        <v>32210.37280928074</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5728,18 +5245,15 @@
         <v>214.9494</v>
       </c>
       <c r="G146" t="n">
-        <v>32210.37280928074</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5761,18 +5275,15 @@
         <v>809.8672</v>
       </c>
       <c r="G147" t="n">
-        <v>33020.24000928074</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5794,18 +5305,15 @@
         <v>2065</v>
       </c>
       <c r="G148" t="n">
-        <v>35085.24000928074</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5827,18 +5335,15 @@
         <v>140.1799</v>
       </c>
       <c r="G149" t="n">
-        <v>35225.41990928074</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5860,18 +5365,15 @@
         <v>3170.5085</v>
       </c>
       <c r="G150" t="n">
-        <v>38395.92840928074</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5893,18 +5395,15 @@
         <v>441.4578</v>
       </c>
       <c r="G151" t="n">
-        <v>38395.92840928074</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5926,18 +5425,15 @@
         <v>937.6209</v>
       </c>
       <c r="G152" t="n">
-        <v>39333.54930928074</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5959,18 +5455,15 @@
         <v>22.7424</v>
       </c>
       <c r="G153" t="n">
-        <v>39333.54930928074</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5992,18 +5485,15 @@
         <v>5462.3972</v>
       </c>
       <c r="G154" t="n">
-        <v>39333.54930928074</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6025,18 +5515,15 @@
         <v>477.9826</v>
       </c>
       <c r="G155" t="n">
-        <v>39333.54930928074</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6058,18 +5545,15 @@
         <v>11.53402537485582</v>
       </c>
       <c r="G156" t="n">
-        <v>39345.0833346556</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6091,18 +5575,15 @@
         <v>1598.5039</v>
       </c>
       <c r="G157" t="n">
-        <v>37746.57943465559</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6124,18 +5605,15 @@
         <v>81.709</v>
       </c>
       <c r="G158" t="n">
-        <v>37828.28843465559</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6157,18 +5635,15 @@
         <v>171.328</v>
       </c>
       <c r="G159" t="n">
-        <v>37999.6164346556</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6190,18 +5665,15 @@
         <v>89.02670000000001</v>
       </c>
       <c r="G160" t="n">
-        <v>37910.58973465559</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6223,18 +5695,15 @@
         <v>48.8972</v>
       </c>
       <c r="G161" t="n">
-        <v>37910.58973465559</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6256,18 +5725,15 @@
         <v>462.0761</v>
       </c>
       <c r="G162" t="n">
-        <v>37910.58973465559</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6289,18 +5755,15 @@
         <v>26.2097</v>
       </c>
       <c r="G163" t="n">
-        <v>37936.79943465559</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6322,18 +5785,15 @@
         <v>1452.6124</v>
       </c>
       <c r="G164" t="n">
-        <v>37936.79943465559</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6355,18 +5815,15 @@
         <v>177.5593</v>
       </c>
       <c r="G165" t="n">
-        <v>37759.24013465559</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6388,18 +5845,15 @@
         <v>262.7</v>
       </c>
       <c r="G166" t="n">
-        <v>37496.5401346556</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
